--- a/src/assets/csv_templates/Better-Climate-Challenge-Emissions-Reporting.xlsx
+++ b/src/assets/csv_templates/Better-Climate-Challenge-Emissions-Reporting.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak1\Documents\Armstrong Work\TAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/txr/dev/VERIFI/src/assets/csv_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F925CB5-EAE7-431E-A468-E4A65C9F28A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0FB430-EF1E-C049-AE11-993A45FDF155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{9E0B5763-0FE8-425F-B782-C4A4D911BFA4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="17640" xr2:uid="{9E0B5763-0FE8-425F-B782-C4A4D911BFA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio Emissions" sheetId="26" r:id="rId1"/>
     <sheet name="Emissions Reduction Initiatives" sheetId="17" r:id="rId2"/>
     <sheet name="Facility Emissions" sheetId="19" r:id="rId3"/>
     <sheet name="Comments" sheetId="21" r:id="rId4"/>
-    <sheet name="Display" sheetId="24" state="hidden" r:id="rId5"/>
-    <sheet name="Data Validation" sheetId="2" state="hidden" r:id="rId6"/>
+    <sheet name="Display" sheetId="24" r:id="rId5"/>
+    <sheet name="Data Validation" sheetId="2" r:id="rId6"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
@@ -69,7 +69,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -82,7 +82,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -95,12 +95,31 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Scope 1: Direct GHG emissions that occur from sources that are owned or controlled by the company, for example, emissions from combustion in owned or controlled boilers, furnaces, vehicles, etc.
-Questions C6.1 or C7.2 in the CDP Climate Questionnaire</t>
+          <t xml:space="preserve">Scope 1: Direct GHG emissions that occur from sources that are owned or controlled by the company, for example, emissions from combustion in owned or controlled boilers, furnaces, vehicles, etc.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Questions C6.1 or C7.2 in the CDP Climate Questionnaire</t>
         </r>
       </text>
     </comment>
@@ -122,7 +141,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -162,12 +181,31 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Scope 2 accounts for GHG emissions from the generation of purchased electricity, steam, heat, or cooling consumed by the organization. The location-based method uses the eGRID electricity to emissions conversion factor for grid electricity and offsite green power.
-Question C6.3 or C7.5 in the CDP Climate Questionnaire
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Question C6.3 or C7.5 in the CDP Climate Questionnaire
 </t>
         </r>
       </text>
@@ -205,12 +243,31 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>This row is auto-summed, it can overridden if needed.
-Electricity and fuel use is included in Questions C8.2a, C8.2c, C8.2d, and C8.2e in the CDP Climate Questionnaire</t>
+          <t xml:space="preserve">This row is auto-summed, it can overridden if needed.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Electricity and fuel use is included in Questions C8.2a, C8.2c, C8.2d, and C8.2e in the CDP Climate Questionnaire</t>
         </r>
       </text>
     </comment>
@@ -232,7 +289,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -247,7 +304,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>See https://www.epa.gov/green-power-markets/green-power-supply-options for definitions</t>
         </r>
@@ -260,7 +317,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>See https://www.epa.gov/green-power-markets/green-power-supply-options for definitions</t>
         </r>
@@ -273,7 +330,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>See https://www.epa.gov/green-power-markets/green-power-supply-options for definitions</t>
         </r>
@@ -284,20 +341,11 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Calculated based on information above. Includes any power purchased from utility or energy provider without green power.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">Calculated based on information above. Includes any power purchased from utility or energy provider without green power.
 </t>
         </r>
       </text>
@@ -348,7 +396,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Scope 2 Market-Based Emissions / Total Scope 2 Energy Use</t>
         </r>
@@ -361,7 +409,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Scope 2 Location-Based Emissions / Total Scope 2 Energy Use
 </t>
@@ -1190,12 +1238,6 @@
       <name val="Ariel"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -1260,6 +1302,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1551,7 +1599,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1607,34 +1655,32 @@
     <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1656,7 +1702,7 @@
     <xf numFmtId="4" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1695,16 +1741,16 @@
     <xf numFmtId="9" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1713,11 +1759,11 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1733,17 +1779,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1755,7 +1801,7 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1819,7 +1865,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1830,14 +1876,59 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1854,7 +1945,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1872,61 +1963,10 @@
     <xf numFmtId="49" fontId="14" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1936,12 +1976,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1968,15 +2002,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1985,16 +2010,13 @@
     <cellStyle name="Normal 3" xfId="4" xr:uid="{E0111CA2-60F9-49F9-A8D7-2399BECF48A9}"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -6275,8 +6297,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="5656791"/>
-              <a:ext cx="7619092" cy="5099866"/>
+              <a:off x="0" y="5698066"/>
+              <a:ext cx="8438242" cy="4995091"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6502,8 +6524,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="181429" y="11127016"/>
-              <a:ext cx="7609567" cy="5075373"/>
+              <a:off x="181429" y="11063516"/>
+              <a:ext cx="8438242" cy="4888048"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6537,7 +6559,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Instructions"/>
@@ -6631,9 +6653,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6671,7 +6693,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6777,7 +6799,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6919,7 +6941,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6927,172 +6949,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D49791F-3012-465A-B6F7-E969787E1D77}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U100"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:C29"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="64.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="17" width="12.5703125" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="64.5" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="17" width="12.5" customWidth="1"/>
+    <col min="18" max="18" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="36" customHeight="1">
       <c r="A1" s="3"/>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
       <c r="R1" s="10"/>
     </row>
-    <row r="2" spans="1:20" ht="14.65" customHeight="1">
+    <row r="2" spans="1:20" ht="14.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
       <c r="R3" s="6"/>
     </row>
-    <row r="4" spans="1:20" ht="14.65" customHeight="1">
-      <c r="B4" s="109" t="s">
+    <row r="4" spans="1:20" ht="14.75" customHeight="1">
+      <c r="B4" s="122" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="111"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="124"/>
       <c r="R4" s="6"/>
     </row>
-    <row r="5" spans="1:20" ht="14.65" customHeight="1">
-      <c r="B5" s="112" t="s">
+    <row r="5" spans="1:20" ht="14.75" customHeight="1">
+      <c r="B5" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="114"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="127"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="14.65" customHeight="1">
-      <c r="B6" s="112" t="s">
+    <row r="6" spans="1:20" ht="14.75" customHeight="1">
+      <c r="B6" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="113"/>
-      <c r="P6" s="113"/>
-      <c r="Q6" s="114"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="127"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="14.65" customHeight="1">
-      <c r="B7" s="115" t="s">
+    <row r="7" spans="1:20" ht="14.75" customHeight="1">
+      <c r="B7" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="117"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="130"/>
       <c r="R7" s="4"/>
       <c r="T7" s="7"/>
     </row>
@@ -7102,151 +7124,151 @@
       <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="63"/>
-      <c r="F9" s="58" t="s">
+      <c r="C9" s="64"/>
+      <c r="D9" s="61"/>
+      <c r="F9" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="131"/>
+      <c r="K9" s="131"/>
+      <c r="L9" s="131"/>
+      <c r="M9" s="131"/>
     </row>
     <row r="10" spans="1:20" ht="18" customHeight="1">
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="64"/>
-      <c r="F10" s="58" t="s">
+      <c r="C10" s="64"/>
+      <c r="D10" s="62"/>
+      <c r="F10" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="108"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="62"/>
       <c r="R11" s="5"/>
     </row>
     <row r="12" spans="1:20" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="B12" s="12"/>
       <c r="C12" s="11"/>
-      <c r="D12" s="54" t="str">
+      <c r="D12" s="52" t="str">
         <f>IF($D$10=0, "Select Base Year",$D$10)</f>
         <v>Select Base Year</v>
       </c>
-      <c r="E12" s="54" t="str">
+      <c r="E12" s="52" t="str">
         <f t="shared" ref="E12:Q12" si="0">IF($D$12="Select Base Year","",D12+1)</f>
         <v/>
       </c>
-      <c r="F12" s="54" t="str">
+      <c r="F12" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G12" s="54" t="str">
+      <c r="G12" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H12" s="54" t="str">
+      <c r="H12" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I12" s="54" t="str">
+      <c r="I12" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J12" s="54" t="str">
+      <c r="J12" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K12" s="54" t="str">
+      <c r="K12" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L12" s="54" t="str">
+      <c r="L12" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M12" s="54" t="str">
+      <c r="M12" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N12" s="54" t="str">
+      <c r="N12" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O12" s="54" t="str">
+      <c r="O12" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P12" s="54" t="str">
+      <c r="P12" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q12" s="54" t="str">
+      <c r="Q12" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:20" ht="6" customHeight="1"/>
-    <row r="14" spans="1:20" ht="17.45" customHeight="1">
-      <c r="B14" s="122" t="s">
+    <row r="14" spans="1:20" ht="17.5" customHeight="1">
+      <c r="B14" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="122"/>
-      <c r="L14" s="122"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="122"/>
-      <c r="O14" s="122"/>
-      <c r="P14" s="122"/>
-      <c r="Q14" s="122"/>
-    </row>
-    <row r="15" spans="1:20" s="7" customFormat="1" ht="9.6" customHeight="1">
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-    </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B16" s="126" t="s">
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
+    </row>
+    <row r="15" spans="1:20" s="7" customFormat="1" ht="9.5" customHeight="1">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+    </row>
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="22" customHeight="1">
+      <c r="B16" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="127"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -7262,11 +7284,11 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
     </row>
-    <row r="17" spans="2:21" s="9" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B17" s="126" t="s">
+    <row r="17" spans="2:21" s="9" customFormat="1" ht="22" customHeight="1">
+      <c r="B17" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="127"/>
+      <c r="C17" s="120"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -7282,71 +7304,71 @@
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
     </row>
-    <row r="18" spans="2:21" s="7" customFormat="1" ht="9.6" customHeight="1">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-    </row>
-    <row r="19" spans="2:21" ht="17.45" customHeight="1">
-      <c r="B19" s="122" t="s">
+    <row r="18" spans="2:21" s="7" customFormat="1" ht="9.5" customHeight="1">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+    </row>
+    <row r="19" spans="2:21" ht="17.5" customHeight="1">
+      <c r="B19" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="122"/>
-      <c r="M19" s="122"/>
-      <c r="N19" s="122"/>
-      <c r="O19" s="122"/>
-      <c r="P19" s="122"/>
-      <c r="Q19" s="122"/>
-    </row>
-    <row r="20" spans="2:21" s="7" customFormat="1" ht="9.6" customHeight="1">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-    </row>
-    <row r="21" spans="2:21" ht="21.95" customHeight="1">
-      <c r="B21" s="120" t="s">
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="110"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="110"/>
+    </row>
+    <row r="20" spans="2:21" s="7" customFormat="1" ht="9.5" customHeight="1">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+    </row>
+    <row r="21" spans="2:21" ht="22" customHeight="1">
+      <c r="B21" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="120"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -7357,18 +7379,18 @@
       <c r="O21" s="19"/>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
-      <c r="T21" s="120"/>
-      <c r="U21" s="120"/>
-    </row>
-    <row r="22" spans="2:21" ht="21.95" customHeight="1">
-      <c r="B22" s="123" t="s">
+      <c r="T21" s="109"/>
+      <c r="U21" s="109"/>
+    </row>
+    <row r="22" spans="2:21" ht="22" customHeight="1">
+      <c r="B22" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="124"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
@@ -7379,18 +7401,18 @@
       <c r="O22" s="19"/>
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
-      <c r="T22" s="125"/>
-      <c r="U22" s="125"/>
-    </row>
-    <row r="23" spans="2:21" ht="21.95" customHeight="1">
-      <c r="B23" s="123" t="s">
+      <c r="T22" s="116"/>
+      <c r="U22" s="116"/>
+    </row>
+    <row r="23" spans="2:21" ht="22" customHeight="1">
+      <c r="B23" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="123"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
@@ -7401,18 +7423,18 @@
       <c r="O23" s="19"/>
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
-      <c r="T23" s="125"/>
-      <c r="U23" s="125"/>
-    </row>
-    <row r="24" spans="2:21" ht="21.95" customHeight="1">
-      <c r="B24" s="123" t="s">
+      <c r="T23" s="116"/>
+      <c r="U23" s="116"/>
+    </row>
+    <row r="24" spans="2:21" ht="22" customHeight="1">
+      <c r="B24" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="123"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
@@ -7423,18 +7445,18 @@
       <c r="O24" s="19"/>
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
-      <c r="T24" s="125"/>
-      <c r="U24" s="125"/>
-    </row>
-    <row r="25" spans="2:21" ht="21.95" customHeight="1">
-      <c r="B25" s="123" t="s">
+      <c r="T24" s="116"/>
+      <c r="U24" s="116"/>
+    </row>
+    <row r="25" spans="2:21" ht="22" customHeight="1">
+      <c r="B25" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="123"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
@@ -7445,18 +7467,18 @@
       <c r="O25" s="19"/>
       <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-    </row>
-    <row r="26" spans="2:21" ht="21.95" customHeight="1">
-      <c r="B26" s="119" t="s">
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+    </row>
+    <row r="26" spans="2:21" ht="22" customHeight="1">
+      <c r="B26" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="119"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
@@ -7467,18 +7489,18 @@
       <c r="O26" s="19"/>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
-      <c r="T26" s="120"/>
-      <c r="U26" s="121"/>
-    </row>
-    <row r="27" spans="2:21" ht="21.95" customHeight="1">
-      <c r="B27" s="119" t="s">
+      <c r="T26" s="109"/>
+      <c r="U26" s="117"/>
+    </row>
+    <row r="27" spans="2:21" ht="22" customHeight="1">
+      <c r="B27" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="119"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
@@ -7489,78 +7511,78 @@
       <c r="O27" s="19"/>
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
-      <c r="T27" s="120"/>
-      <c r="U27" s="120"/>
-    </row>
-    <row r="28" spans="2:21" ht="21.95" customHeight="1">
-      <c r="B28" s="120" t="s">
+      <c r="T27" s="109"/>
+      <c r="U27" s="109"/>
+    </row>
+    <row r="28" spans="2:21" ht="22" customHeight="1">
+      <c r="B28" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="120"/>
-      <c r="D28" s="84">
+      <c r="C28" s="109"/>
+      <c r="D28" s="82">
         <f>IFERROR(IF(J10="Market-Based GHG Goal",SUM(D21,D27),SUM(D21,D26)), "")</f>
         <v>0</v>
       </c>
-      <c r="E28" s="84">
+      <c r="E28" s="82">
         <f>IFERROR(IF(K10="Market-Based GHG Goal",SUM(E21,E27),SUM(E21,E26)), "")</f>
         <v>0</v>
       </c>
-      <c r="F28" s="84">
+      <c r="F28" s="82">
         <f t="shared" ref="F28:P28" si="1">IFERROR(IF(L10="Market-Based GHG Goal",SUM(F21,F27),SUM(F21,F26)), "")</f>
         <v>0</v>
       </c>
-      <c r="G28" s="84">
+      <c r="G28" s="82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H28" s="84">
+      <c r="H28" s="82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I28" s="84">
+      <c r="I28" s="82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J28" s="84">
+      <c r="J28" s="82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K28" s="84">
+      <c r="K28" s="82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L28" s="84">
+      <c r="L28" s="82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M28" s="84">
+      <c r="M28" s="82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N28" s="84">
+      <c r="N28" s="82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O28" s="84">
+      <c r="O28" s="82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P28" s="84">
+      <c r="P28" s="82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="84">
+      <c r="Q28" s="82">
         <f>IFERROR(IF(W10="Market-Based GHG Goal",SUM(Q21,Q27),SUM(Q21,Q26)), "")</f>
         <v>0</v>
       </c>
-      <c r="T28" s="120"/>
-      <c r="U28" s="120"/>
-    </row>
-    <row r="29" spans="2:21" ht="21.95" customHeight="1">
-      <c r="B29" s="120" t="s">
+      <c r="T28" s="109"/>
+      <c r="U28" s="109"/>
+    </row>
+    <row r="29" spans="2:21" ht="22" customHeight="1">
+      <c r="B29" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="120"/>
+      <c r="C29" s="109"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
@@ -7575,316 +7597,316 @@
       <c r="O29" s="19"/>
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-    </row>
-    <row r="30" spans="2:21" s="7" customFormat="1" ht="9.6" customHeight="1">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-    </row>
-    <row r="31" spans="2:21" ht="17.45" customHeight="1">
-      <c r="B31" s="122" t="s">
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+    </row>
+    <row r="30" spans="2:21" s="7" customFormat="1" ht="9.5" customHeight="1">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+    </row>
+    <row r="31" spans="2:21" ht="17.5" customHeight="1">
+      <c r="B31" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="122"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="122"/>
-      <c r="K31" s="122"/>
-      <c r="L31" s="122"/>
-      <c r="M31" s="122"/>
-      <c r="N31" s="122"/>
-      <c r="O31" s="122"/>
-      <c r="P31" s="122"/>
-      <c r="Q31" s="122"/>
-    </row>
-    <row r="32" spans="2:21" s="7" customFormat="1" ht="9.6" customHeight="1">
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-    </row>
-    <row r="33" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B33" s="128" t="s">
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="110"/>
+      <c r="N31" s="110"/>
+      <c r="O31" s="110"/>
+      <c r="P31" s="110"/>
+      <c r="Q31" s="110"/>
+    </row>
+    <row r="32" spans="2:21" s="7" customFormat="1" ht="9.5" customHeight="1">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+    </row>
+    <row r="33" spans="2:20" ht="22" customHeight="1">
+      <c r="B33" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="128"/>
-      <c r="D33" s="84" t="str">
+      <c r="C33" s="105"/>
+      <c r="D33" s="82" t="str">
         <f>IF(D28&lt;&gt;0,($D$28-D28), "")</f>
         <v/>
       </c>
-      <c r="E33" s="84" t="str">
+      <c r="E33" s="82" t="str">
         <f>IF(E28&lt;&gt;0,($D$28-E28), "")</f>
         <v/>
       </c>
-      <c r="F33" s="84" t="str">
+      <c r="F33" s="82" t="str">
         <f t="shared" ref="F33:Q33" si="2">IF(F28&lt;&gt;0,($D$28-F28), "")</f>
         <v/>
       </c>
-      <c r="G33" s="84" t="str">
+      <c r="G33" s="82" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H33" s="84" t="str">
+      <c r="H33" s="82" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I33" s="84" t="str">
+      <c r="I33" s="82" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J33" s="84" t="str">
+      <c r="J33" s="82" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K33" s="84" t="str">
+      <c r="K33" s="82" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L33" s="84" t="str">
+      <c r="L33" s="82" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M33" s="84" t="str">
+      <c r="M33" s="82" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N33" s="84" t="str">
+      <c r="N33" s="82" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O33" s="84" t="str">
+      <c r="O33" s="82" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P33" s="84" t="str">
+      <c r="P33" s="82" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q33" s="84" t="str">
+      <c r="Q33" s="82" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B34" s="128" t="s">
+    <row r="34" spans="2:20" ht="22" customHeight="1">
+      <c r="B34" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="128"/>
-      <c r="D34" s="85" t="str">
+      <c r="C34" s="105"/>
+      <c r="D34" s="83" t="str">
         <f>IF(D28&lt;&gt;0,D33/$D$28, "")</f>
         <v/>
       </c>
-      <c r="E34" s="85" t="str">
+      <c r="E34" s="83" t="str">
         <f>IF(E28&lt;&gt;0,E33/$D$28, "")</f>
         <v/>
       </c>
-      <c r="F34" s="85" t="str">
+      <c r="F34" s="83" t="str">
         <f t="shared" ref="F34:Q34" si="3">IF(F28&lt;&gt;0,F33/$D$28, "")</f>
         <v/>
       </c>
-      <c r="G34" s="85" t="str">
+      <c r="G34" s="83" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H34" s="85" t="str">
+      <c r="H34" s="83" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I34" s="85" t="str">
+      <c r="I34" s="83" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J34" s="85" t="str">
+      <c r="J34" s="83" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K34" s="85" t="str">
+      <c r="K34" s="83" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L34" s="85" t="str">
+      <c r="L34" s="83" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M34" s="85" t="str">
+      <c r="M34" s="83" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N34" s="85" t="str">
+      <c r="N34" s="83" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O34" s="85" t="str">
+      <c r="O34" s="83" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P34" s="85" t="str">
+      <c r="P34" s="83" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q34" s="85" t="str">
+      <c r="Q34" s="83" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:20" s="7" customFormat="1" ht="9.6" customHeight="1">
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-    </row>
-    <row r="36" spans="2:20" ht="17.45" customHeight="1">
-      <c r="B36" s="122" t="s">
+    <row r="35" spans="2:20" s="7" customFormat="1" ht="9.5" customHeight="1">
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+    </row>
+    <row r="36" spans="2:20" ht="17.5" customHeight="1">
+      <c r="B36" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="122"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="122"/>
-      <c r="F36" s="122"/>
-      <c r="G36" s="122"/>
-      <c r="H36" s="122"/>
-      <c r="I36" s="122"/>
-      <c r="J36" s="122"/>
-      <c r="K36" s="122"/>
-      <c r="L36" s="122"/>
-      <c r="M36" s="122"/>
-      <c r="N36" s="122"/>
-      <c r="O36" s="122"/>
-      <c r="P36" s="122"/>
-      <c r="Q36" s="122"/>
-    </row>
-    <row r="37" spans="2:20" s="7" customFormat="1" ht="9.6" customHeight="1">
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-    </row>
-    <row r="38" spans="2:20" s="14" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B38" s="128" t="s">
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="110"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="110"/>
+      <c r="L36" s="110"/>
+      <c r="M36" s="110"/>
+      <c r="N36" s="110"/>
+      <c r="O36" s="110"/>
+      <c r="P36" s="110"/>
+      <c r="Q36" s="110"/>
+    </row>
+    <row r="37" spans="2:20" s="7" customFormat="1" ht="9.5" customHeight="1">
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+    </row>
+    <row r="38" spans="2:20" s="14" customFormat="1" ht="22" customHeight="1">
+      <c r="B38" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="128"/>
-      <c r="D38" s="73">
+      <c r="C38" s="105"/>
+      <c r="D38" s="71">
         <f>IF(D40&lt;&gt;0, SUM(D39:D40), 0)</f>
         <v>0</v>
       </c>
-      <c r="E38" s="73">
+      <c r="E38" s="71">
         <f>IF(E40&lt;&gt;0, SUM(E39:E40), 0)</f>
         <v>0</v>
       </c>
-      <c r="F38" s="73">
+      <c r="F38" s="71">
         <f>IF(F40&lt;&gt;0, SUM(F39:F40), 0)</f>
         <v>0</v>
       </c>
-      <c r="G38" s="73">
+      <c r="G38" s="71">
         <f>IF(G40&lt;&gt;0, SUM(G39:G40), 0)</f>
         <v>0</v>
       </c>
-      <c r="H38" s="73">
+      <c r="H38" s="71">
         <f t="shared" ref="H38:Q38" si="4">IF(H40&lt;&gt;0, SUM(H39:H40), 0)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="73">
+      <c r="I38" s="71">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J38" s="73">
+      <c r="J38" s="71">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K38" s="73">
+      <c r="K38" s="71">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L38" s="73">
+      <c r="L38" s="71">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M38" s="73">
+      <c r="M38" s="71">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N38" s="73">
+      <c r="N38" s="71">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O38" s="73">
+      <c r="O38" s="71">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P38" s="73">
+      <c r="P38" s="71">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="73">
+      <c r="Q38" s="71">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B39" s="123" t="s">
+    <row r="39" spans="2:20" ht="22" customHeight="1">
+      <c r="B39" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="123"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="106"/>
-      <c r="G39" s="106"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
@@ -7895,14 +7917,14 @@
       <c r="O39" s="16"/>
       <c r="P39" s="16"/>
       <c r="Q39" s="16"/>
-      <c r="S39" s="125"/>
-      <c r="T39" s="125"/>
-    </row>
-    <row r="40" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B40" s="123" t="s">
+      <c r="S39" s="116"/>
+      <c r="T39" s="116"/>
+    </row>
+    <row r="40" spans="2:20" ht="22" customHeight="1">
+      <c r="B40" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="123"/>
+      <c r="C40" s="115"/>
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
@@ -7917,14 +7939,14 @@
       <c r="O40" s="20"/>
       <c r="P40" s="20"/>
       <c r="Q40" s="20"/>
-      <c r="S40" s="125"/>
-      <c r="T40" s="125"/>
-    </row>
-    <row r="41" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B41" s="129" t="s">
+      <c r="S40" s="116"/>
+      <c r="T40" s="116"/>
+    </row>
+    <row r="41" spans="2:20" ht="22" customHeight="1">
+      <c r="B41" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="129"/>
+      <c r="C41" s="112"/>
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
@@ -7939,14 +7961,14 @@
       <c r="O41" s="16"/>
       <c r="P41" s="16"/>
       <c r="Q41" s="16"/>
-      <c r="S41" s="46"/>
-      <c r="T41" s="46"/>
-    </row>
-    <row r="42" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B42" s="129" t="s">
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
+    </row>
+    <row r="42" spans="2:20" ht="22" customHeight="1">
+      <c r="B42" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="129"/>
+      <c r="C42" s="112"/>
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
@@ -7961,18 +7983,18 @@
       <c r="O42" s="16"/>
       <c r="P42" s="16"/>
       <c r="Q42" s="16"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-    </row>
-    <row r="43" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B43" s="129" t="s">
+      <c r="S42" s="44"/>
+      <c r="T42" s="44"/>
+    </row>
+    <row r="43" spans="2:20" ht="22" customHeight="1">
+      <c r="B43" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="129"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
@@ -7983,82 +8005,82 @@
       <c r="O43" s="16"/>
       <c r="P43" s="16"/>
       <c r="Q43" s="16"/>
-      <c r="S43" s="125"/>
-      <c r="T43" s="125"/>
-    </row>
-    <row r="44" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B44" s="129" t="s">
+      <c r="S43" s="116"/>
+      <c r="T43" s="116"/>
+    </row>
+    <row r="44" spans="2:20" ht="22" customHeight="1">
+      <c r="B44" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="129"/>
-      <c r="D44" s="86">
+      <c r="C44" s="112"/>
+      <c r="D44" s="84">
         <f t="shared" ref="D44:H44" si="5">D40-SUM(D41:D43)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="86">
+      <c r="E44" s="84">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F44" s="86">
+      <c r="F44" s="84">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G44" s="86">
+      <c r="G44" s="84">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H44" s="86">
+      <c r="H44" s="84">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I44" s="86">
+      <c r="I44" s="84">
         <f t="shared" ref="I44:Q44" si="6">I40-SUM(I41:I43)</f>
         <v>0</v>
       </c>
-      <c r="J44" s="86">
+      <c r="J44" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K44" s="86">
+      <c r="K44" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L44" s="86">
+      <c r="L44" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M44" s="86">
+      <c r="M44" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N44" s="86">
+      <c r="N44" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O44" s="86">
+      <c r="O44" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P44" s="86">
+      <c r="P44" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q44" s="86">
+      <c r="Q44" s="84">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S44" s="46"/>
-      <c r="T44" s="46"/>
-    </row>
-    <row r="45" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B45" s="128" t="s">
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+    </row>
+    <row r="45" spans="2:20" ht="22" customHeight="1">
+      <c r="B45" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="132"/>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
-      <c r="F45" s="106"/>
-      <c r="G45" s="106"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
       <c r="J45" s="16"/>
@@ -8069,18 +8091,18 @@
       <c r="O45" s="16"/>
       <c r="P45" s="16"/>
       <c r="Q45" s="16"/>
-      <c r="S45" s="120"/>
-      <c r="T45" s="120"/>
-    </row>
-    <row r="46" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B46" s="128" t="s">
+      <c r="S45" s="109"/>
+      <c r="T45" s="109"/>
+    </row>
+    <row r="46" spans="2:20" ht="22" customHeight="1">
+      <c r="B46" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="132"/>
-      <c r="D46" s="106"/>
-      <c r="E46" s="106"/>
-      <c r="F46" s="106"/>
-      <c r="G46" s="106"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
       <c r="J46" s="16"/>
@@ -8091,18 +8113,18 @@
       <c r="O46" s="16"/>
       <c r="P46" s="16"/>
       <c r="Q46" s="16"/>
-      <c r="S46" s="45"/>
-      <c r="T46" s="45"/>
-    </row>
-    <row r="47" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B47" s="128" t="s">
+      <c r="S46" s="43"/>
+      <c r="T46" s="43"/>
+    </row>
+    <row r="47" spans="2:20" ht="22" customHeight="1">
+      <c r="B47" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="132"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="106"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
@@ -8113,18 +8135,18 @@
       <c r="O47" s="16"/>
       <c r="P47" s="16"/>
       <c r="Q47" s="16"/>
-      <c r="S47" s="45"/>
-      <c r="T47" s="45"/>
-    </row>
-    <row r="48" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B48" s="120" t="s">
+      <c r="S47" s="43"/>
+      <c r="T47" s="43"/>
+    </row>
+    <row r="48" spans="2:20" ht="22" customHeight="1">
+      <c r="B48" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="120"/>
-      <c r="D48" s="106"/>
-      <c r="E48" s="106"/>
-      <c r="F48" s="106"/>
-      <c r="G48" s="106"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
@@ -8135,18 +8157,18 @@
       <c r="O48" s="16"/>
       <c r="P48" s="16"/>
       <c r="Q48" s="16"/>
-      <c r="S48" s="133"/>
-      <c r="T48" s="133"/>
-    </row>
-    <row r="49" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B49" s="134" t="s">
+      <c r="S48" s="111"/>
+      <c r="T48" s="111"/>
+    </row>
+    <row r="49" spans="2:20" ht="22" customHeight="1">
+      <c r="B49" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="135"/>
-      <c r="D49" s="106"/>
-      <c r="E49" s="106"/>
-      <c r="F49" s="106"/>
-      <c r="G49" s="106"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
@@ -8157,18 +8179,18 @@
       <c r="O49" s="16"/>
       <c r="P49" s="16"/>
       <c r="Q49" s="16"/>
-      <c r="S49" s="47"/>
-      <c r="T49" s="47"/>
-    </row>
-    <row r="50" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B50" s="134" t="s">
+      <c r="S49" s="45"/>
+      <c r="T49" s="45"/>
+    </row>
+    <row r="50" spans="2:20" ht="22" customHeight="1">
+      <c r="B50" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="135"/>
-      <c r="D50" s="106"/>
-      <c r="E50" s="106"/>
-      <c r="F50" s="106"/>
-      <c r="G50" s="106"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
       <c r="H50" s="16"/>
       <c r="I50" s="16"/>
       <c r="J50" s="16"/>
@@ -8179,18 +8201,18 @@
       <c r="O50" s="16"/>
       <c r="P50" s="16"/>
       <c r="Q50" s="16"/>
-      <c r="S50" s="47"/>
-      <c r="T50" s="47"/>
-    </row>
-    <row r="51" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B51" s="134" t="s">
+      <c r="S50" s="45"/>
+      <c r="T50" s="45"/>
+    </row>
+    <row r="51" spans="2:20" ht="22" customHeight="1">
+      <c r="B51" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="135"/>
-      <c r="D51" s="106"/>
-      <c r="E51" s="106"/>
-      <c r="F51" s="106"/>
-      <c r="G51" s="106"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
       <c r="H51" s="16"/>
       <c r="I51" s="16"/>
       <c r="J51" s="16"/>
@@ -8201,18 +8223,18 @@
       <c r="O51" s="16"/>
       <c r="P51" s="16"/>
       <c r="Q51" s="16"/>
-      <c r="S51" s="47"/>
-      <c r="T51" s="47"/>
-    </row>
-    <row r="52" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B52" s="134" t="s">
+      <c r="S51" s="45"/>
+      <c r="T51" s="45"/>
+    </row>
+    <row r="52" spans="2:20" ht="22" customHeight="1">
+      <c r="B52" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="135"/>
-      <c r="D52" s="106"/>
-      <c r="E52" s="106"/>
-      <c r="F52" s="106"/>
-      <c r="G52" s="106"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
       <c r="J52" s="16"/>
@@ -8223,18 +8245,18 @@
       <c r="O52" s="16"/>
       <c r="P52" s="16"/>
       <c r="Q52" s="16"/>
-      <c r="S52" s="47"/>
-      <c r="T52" s="47"/>
-    </row>
-    <row r="53" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B53" s="134" t="s">
+      <c r="S52" s="45"/>
+      <c r="T52" s="45"/>
+    </row>
+    <row r="53" spans="2:20" ht="22" customHeight="1">
+      <c r="B53" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="134"/>
-      <c r="D53" s="106"/>
-      <c r="E53" s="106"/>
-      <c r="F53" s="106"/>
-      <c r="G53" s="106"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
       <c r="H53" s="16"/>
       <c r="I53" s="16"/>
       <c r="J53" s="16"/>
@@ -8245,18 +8267,18 @@
       <c r="O53" s="16"/>
       <c r="P53" s="16"/>
       <c r="Q53" s="16"/>
-      <c r="S53" s="47"/>
-      <c r="T53" s="47"/>
-    </row>
-    <row r="54" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B54" s="130" t="s">
+      <c r="S53" s="45"/>
+      <c r="T53" s="45"/>
+    </row>
+    <row r="54" spans="2:20" ht="22" customHeight="1">
+      <c r="B54" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="131"/>
-      <c r="D54" s="105"/>
-      <c r="E54" s="105"/>
-      <c r="F54" s="105"/>
-      <c r="G54" s="105"/>
+      <c r="C54" s="107"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
@@ -8268,15 +8290,15 @@
       <c r="P54" s="13"/>
       <c r="Q54" s="13"/>
     </row>
-    <row r="55" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B55" s="130" t="s">
+    <row r="55" spans="2:20" ht="22" customHeight="1">
+      <c r="B55" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="131"/>
-      <c r="D55" s="105"/>
-      <c r="E55" s="105"/>
-      <c r="F55" s="105"/>
-      <c r="G55" s="105"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
@@ -8288,15 +8310,15 @@
       <c r="P55" s="13"/>
       <c r="Q55" s="13"/>
     </row>
-    <row r="56" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B56" s="130" t="s">
+    <row r="56" spans="2:20" ht="22" customHeight="1">
+      <c r="B56" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="131"/>
-      <c r="D56" s="105"/>
-      <c r="E56" s="105"/>
-      <c r="F56" s="105"/>
-      <c r="G56" s="105"/>
+      <c r="C56" s="107"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
@@ -8308,15 +8330,15 @@
       <c r="P56" s="13"/>
       <c r="Q56" s="13"/>
     </row>
-    <row r="57" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B57" s="130" t="s">
+    <row r="57" spans="2:20" ht="22" customHeight="1">
+      <c r="B57" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="131"/>
-      <c r="D57" s="105"/>
-      <c r="E57" s="105"/>
-      <c r="F57" s="105"/>
-      <c r="G57" s="105"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
@@ -8328,15 +8350,15 @@
       <c r="P57" s="13"/>
       <c r="Q57" s="13"/>
     </row>
-    <row r="58" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B58" s="130" t="s">
+    <row r="58" spans="2:20" ht="22" customHeight="1">
+      <c r="B58" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="C58" s="131"/>
-      <c r="D58" s="105"/>
-      <c r="E58" s="105"/>
-      <c r="F58" s="105"/>
-      <c r="G58" s="105"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
@@ -8348,15 +8370,15 @@
       <c r="P58" s="13"/>
       <c r="Q58" s="13"/>
     </row>
-    <row r="59" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B59" s="130" t="s">
+    <row r="59" spans="2:20" ht="22" customHeight="1">
+      <c r="B59" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="131"/>
-      <c r="D59" s="105"/>
-      <c r="E59" s="105"/>
-      <c r="F59" s="105"/>
-      <c r="G59" s="105"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13"/>
@@ -8368,11 +8390,11 @@
       <c r="P59" s="13"/>
       <c r="Q59" s="13"/>
     </row>
-    <row r="60" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B60" s="43" t="s">
+    <row r="60" spans="2:20" ht="22" customHeight="1">
+      <c r="B60" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="44"/>
+      <c r="C60" s="42"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
@@ -8388,11 +8410,11 @@
       <c r="P60" s="13"/>
       <c r="Q60" s="13"/>
     </row>
-    <row r="61" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B61" s="130" t="s">
+    <row r="61" spans="2:20" ht="22" customHeight="1">
+      <c r="B61" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="131"/>
+      <c r="C61" s="107"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
@@ -8408,11 +8430,11 @@
       <c r="P61" s="13"/>
       <c r="Q61" s="13"/>
     </row>
-    <row r="62" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B62" s="43" t="s">
+    <row r="62" spans="2:20" ht="22" customHeight="1">
+      <c r="B62" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="44"/>
+      <c r="C62" s="42"/>
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
@@ -8428,11 +8450,11 @@
       <c r="P62" s="13"/>
       <c r="Q62" s="13"/>
     </row>
-    <row r="63" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B63" s="134" t="s">
+    <row r="63" spans="2:20" ht="22" customHeight="1">
+      <c r="B63" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="134"/>
+      <c r="C63" s="108"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
@@ -8447,14 +8469,14 @@
       <c r="O63" s="16"/>
       <c r="P63" s="16"/>
       <c r="Q63" s="16"/>
-      <c r="S63" s="47"/>
-      <c r="T63" s="47"/>
-    </row>
-    <row r="64" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B64" s="134" t="s">
+      <c r="S63" s="45"/>
+      <c r="T63" s="45"/>
+    </row>
+    <row r="64" spans="2:20" ht="22" customHeight="1">
+      <c r="B64" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="134"/>
+      <c r="C64" s="108"/>
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
       <c r="F64" s="17"/>
@@ -8472,129 +8494,129 @@
       <c r="P64" s="16"/>
       <c r="Q64" s="16"/>
     </row>
-    <row r="65" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B65" s="134" t="s">
+    <row r="65" spans="2:20" ht="22" customHeight="1">
+      <c r="B65" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="C65" s="134"/>
-      <c r="D65" s="84" t="str">
+      <c r="C65" s="108"/>
+      <c r="D65" s="82" t="str">
         <f t="shared" ref="D65:Q65" si="7">IFERROR(IF(SUM(D38,D45:D64)&lt;&gt;0, SUM(D45:D64)+(D38*3.412), ""),"")</f>
         <v/>
       </c>
-      <c r="E65" s="84" t="str">
+      <c r="E65" s="82" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F65" s="84" t="str">
+      <c r="F65" s="82" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G65" s="84" t="str">
+      <c r="G65" s="82" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H65" s="84" t="str">
+      <c r="H65" s="82" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I65" s="84" t="str">
+      <c r="I65" s="82" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J65" s="84" t="str">
+      <c r="J65" s="82" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K65" s="84" t="str">
+      <c r="K65" s="82" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L65" s="84" t="str">
+      <c r="L65" s="82" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M65" s="84" t="str">
+      <c r="M65" s="82" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N65" s="84" t="str">
+      <c r="N65" s="82" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="O65" s="84" t="str">
+      <c r="O65" s="82" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P65" s="84" t="str">
+      <c r="P65" s="82" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Q65" s="84" t="str">
+      <c r="Q65" s="82" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:20" s="7" customFormat="1" ht="9.6" customHeight="1">
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="24"/>
-      <c r="O66" s="24"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="24"/>
-    </row>
-    <row r="67" spans="2:20" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="B67" s="122" t="s">
+    <row r="66" spans="2:20" s="7" customFormat="1" ht="9.5" customHeight="1">
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+    </row>
+    <row r="67" spans="2:20" ht="17.5" customHeight="1">
+      <c r="B67" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="122"/>
-      <c r="D67" s="122"/>
-      <c r="E67" s="122"/>
-      <c r="F67" s="122"/>
-      <c r="G67" s="122"/>
-      <c r="H67" s="122"/>
-      <c r="I67" s="122"/>
-      <c r="J67" s="122"/>
-      <c r="K67" s="122"/>
-      <c r="L67" s="122"/>
-      <c r="M67" s="122"/>
-      <c r="N67" s="122"/>
-      <c r="O67" s="122"/>
-      <c r="P67" s="122"/>
-      <c r="Q67" s="122"/>
-    </row>
-    <row r="68" spans="2:20" s="7" customFormat="1" ht="9.6" customHeight="1" outlineLevel="1">
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="24"/>
-      <c r="N68" s="24"/>
-      <c r="O68" s="24"/>
-      <c r="P68" s="24"/>
-      <c r="Q68" s="24"/>
-    </row>
-    <row r="69" spans="2:20" s="14" customFormat="1" ht="21.95" customHeight="1" outlineLevel="1">
-      <c r="B69" s="130" t="s">
+      <c r="C67" s="110"/>
+      <c r="D67" s="110"/>
+      <c r="E67" s="110"/>
+      <c r="F67" s="110"/>
+      <c r="G67" s="110"/>
+      <c r="H67" s="110"/>
+      <c r="I67" s="110"/>
+      <c r="J67" s="110"/>
+      <c r="K67" s="110"/>
+      <c r="L67" s="110"/>
+      <c r="M67" s="110"/>
+      <c r="N67" s="110"/>
+      <c r="O67" s="110"/>
+      <c r="P67" s="110"/>
+      <c r="Q67" s="110"/>
+    </row>
+    <row r="68" spans="2:20" s="7" customFormat="1" ht="9.5" customHeight="1">
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="23"/>
+      <c r="N68" s="23"/>
+      <c r="O68" s="23"/>
+      <c r="P68" s="23"/>
+      <c r="Q68" s="23"/>
+    </row>
+    <row r="69" spans="2:20" s="14" customFormat="1" ht="22" customHeight="1">
+      <c r="B69" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="C69" s="131"/>
+      <c r="C69" s="107"/>
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
@@ -8610,11 +8632,11 @@
       <c r="P69" s="16"/>
       <c r="Q69" s="16"/>
     </row>
-    <row r="70" spans="2:20" ht="21.95" customHeight="1" outlineLevel="1">
-      <c r="B70" s="130" t="s">
+    <row r="70" spans="2:20" ht="22" customHeight="1">
+      <c r="B70" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="C70" s="131"/>
+      <c r="C70" s="107"/>
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
@@ -8629,14 +8651,14 @@
       <c r="O70" s="16"/>
       <c r="P70" s="16"/>
       <c r="Q70" s="16"/>
-      <c r="S70" s="120"/>
-      <c r="T70" s="120"/>
-    </row>
-    <row r="71" spans="2:20" ht="21.95" customHeight="1" outlineLevel="1">
-      <c r="B71" s="130" t="s">
+      <c r="S70" s="109"/>
+      <c r="T70" s="109"/>
+    </row>
+    <row r="71" spans="2:20" ht="22" customHeight="1">
+      <c r="B71" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="C71" s="131"/>
+      <c r="C71" s="107"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
@@ -8651,14 +8673,14 @@
       <c r="O71" s="16"/>
       <c r="P71" s="16"/>
       <c r="Q71" s="16"/>
-      <c r="S71" s="45"/>
-      <c r="T71" s="45"/>
-    </row>
-    <row r="72" spans="2:20" ht="21.95" customHeight="1" outlineLevel="1">
-      <c r="B72" s="130" t="s">
+      <c r="S71" s="43"/>
+      <c r="T71" s="43"/>
+    </row>
+    <row r="72" spans="2:20" ht="22" customHeight="1">
+      <c r="B72" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="131"/>
+      <c r="C72" s="107"/>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
       <c r="F72" s="17"/>
@@ -8673,14 +8695,14 @@
       <c r="O72" s="16"/>
       <c r="P72" s="16"/>
       <c r="Q72" s="16"/>
-      <c r="S72" s="133"/>
-      <c r="T72" s="133"/>
-    </row>
-    <row r="73" spans="2:20" ht="21.95" customHeight="1" outlineLevel="1">
-      <c r="B73" s="43" t="s">
+      <c r="S72" s="111"/>
+      <c r="T72" s="111"/>
+    </row>
+    <row r="73" spans="2:20" ht="22" customHeight="1">
+      <c r="B73" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C73" s="44"/>
+      <c r="C73" s="42"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
       <c r="F73" s="17"/>
@@ -8695,14 +8717,14 @@
       <c r="O73" s="16"/>
       <c r="P73" s="16"/>
       <c r="Q73" s="16"/>
-      <c r="S73" s="45"/>
-      <c r="T73" s="45"/>
-    </row>
-    <row r="74" spans="2:20" ht="21.95" customHeight="1" outlineLevel="1">
-      <c r="B74" s="130" t="s">
+      <c r="S73" s="43"/>
+      <c r="T73" s="43"/>
+    </row>
+    <row r="74" spans="2:20" ht="22" customHeight="1">
+      <c r="B74" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="C74" s="131"/>
+      <c r="C74" s="107"/>
       <c r="D74" s="17"/>
       <c r="E74" s="17"/>
       <c r="F74" s="17"/>
@@ -8717,14 +8739,14 @@
       <c r="O74" s="16"/>
       <c r="P74" s="16"/>
       <c r="Q74" s="16"/>
-      <c r="S74" s="45"/>
-      <c r="T74" s="45"/>
-    </row>
-    <row r="75" spans="2:20" ht="21.95" customHeight="1" outlineLevel="1">
-      <c r="B75" s="43" t="s">
+      <c r="S74" s="43"/>
+      <c r="T74" s="43"/>
+    </row>
+    <row r="75" spans="2:20" ht="22" customHeight="1">
+      <c r="B75" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C75" s="44"/>
+      <c r="C75" s="42"/>
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
       <c r="F75" s="17"/>
@@ -8739,14 +8761,14 @@
       <c r="O75" s="16"/>
       <c r="P75" s="16"/>
       <c r="Q75" s="16"/>
-      <c r="S75" s="45"/>
-      <c r="T75" s="45"/>
-    </row>
-    <row r="76" spans="2:20" ht="21.95" customHeight="1" outlineLevel="1">
-      <c r="B76" s="134" t="s">
+      <c r="S75" s="43"/>
+      <c r="T75" s="43"/>
+    </row>
+    <row r="76" spans="2:20" ht="22" customHeight="1">
+      <c r="B76" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="C76" s="134"/>
+      <c r="C76" s="108"/>
       <c r="D76" s="17"/>
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
@@ -8761,14 +8783,14 @@
       <c r="O76" s="16"/>
       <c r="P76" s="16"/>
       <c r="Q76" s="16"/>
-      <c r="S76" s="47"/>
-      <c r="T76" s="47"/>
-    </row>
-    <row r="77" spans="2:20" ht="21.95" customHeight="1" outlineLevel="1">
-      <c r="B77" s="134" t="s">
+      <c r="S76" s="45"/>
+      <c r="T76" s="45"/>
+    </row>
+    <row r="77" spans="2:20" ht="22" customHeight="1">
+      <c r="B77" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="134"/>
+      <c r="C77" s="108"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
       <c r="F77" s="17"/>
@@ -8784,1218 +8806,1254 @@
       <c r="P77" s="16"/>
       <c r="Q77" s="16"/>
     </row>
-    <row r="78" spans="2:20" ht="21.95" customHeight="1" outlineLevel="1">
-      <c r="B78" s="120" t="s">
+    <row r="78" spans="2:20" ht="22" customHeight="1">
+      <c r="B78" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="C78" s="120"/>
-      <c r="D78" s="84" t="str">
+      <c r="C78" s="109"/>
+      <c r="D78" s="82" t="str">
         <f t="shared" ref="D78:P78" si="8">IFERROR(IF(SUM(D69:D77)&lt;&gt;0, SUM(D70:D77)+(D69*3.412), ""),"")</f>
         <v/>
       </c>
-      <c r="E78" s="84" t="str">
+      <c r="E78" s="82" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F78" s="84" t="str">
+      <c r="F78" s="82" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G78" s="84" t="str">
+      <c r="G78" s="82" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H78" s="84" t="str">
+      <c r="H78" s="82" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I78" s="84" t="str">
+      <c r="I78" s="82" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J78" s="84" t="str">
+      <c r="J78" s="82" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K78" s="84" t="str">
+      <c r="K78" s="82" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L78" s="84" t="str">
+      <c r="L78" s="82" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M78" s="84" t="str">
+      <c r="M78" s="82" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N78" s="84" t="str">
+      <c r="N78" s="82" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="O78" s="84" t="str">
+      <c r="O78" s="82" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P78" s="84" t="str">
+      <c r="P78" s="82" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q78" s="84" t="str">
+      <c r="Q78" s="82" t="str">
         <f>IFERROR(IF(OR(R69,Q77,Q72)&lt;&gt;0, SUM(Q70:Q77)+(Q69*3.412), ""),"")</f>
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:20" s="7" customFormat="1" ht="9.6" customHeight="1">
-      <c r="B79" s="24"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="24"/>
-      <c r="M79" s="24"/>
-      <c r="N79" s="24"/>
-      <c r="O79" s="24"/>
-      <c r="P79" s="24"/>
-      <c r="Q79" s="24"/>
-    </row>
-    <row r="80" spans="2:20" ht="17.45" customHeight="1" outlineLevel="1">
-      <c r="B80" s="122" t="s">
+    <row r="79" spans="2:20" s="7" customFormat="1" ht="9.5" customHeight="1">
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="23"/>
+      <c r="M79" s="23"/>
+      <c r="N79" s="23"/>
+      <c r="O79" s="23"/>
+      <c r="P79" s="23"/>
+      <c r="Q79" s="23"/>
+    </row>
+    <row r="80" spans="2:20" ht="17.5" customHeight="1">
+      <c r="B80" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="C80" s="122"/>
-      <c r="D80" s="122"/>
-      <c r="E80" s="122"/>
-      <c r="F80" s="122"/>
-      <c r="G80" s="122"/>
-      <c r="H80" s="122"/>
-      <c r="I80" s="122"/>
-      <c r="J80" s="122"/>
-      <c r="K80" s="122"/>
-      <c r="L80" s="122"/>
-      <c r="M80" s="122"/>
-      <c r="N80" s="122"/>
-      <c r="O80" s="122"/>
-      <c r="P80" s="122"/>
-      <c r="Q80" s="122"/>
-    </row>
-    <row r="81" spans="2:17" s="7" customFormat="1" ht="9.6" customHeight="1" outlineLevel="1">
-      <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="24"/>
-      <c r="J81" s="24"/>
-      <c r="K81" s="24"/>
-      <c r="L81" s="24"/>
-      <c r="M81" s="24"/>
-      <c r="N81" s="24"/>
-      <c r="O81" s="24"/>
-      <c r="P81" s="24"/>
-      <c r="Q81" s="24"/>
-    </row>
-    <row r="82" spans="2:17" s="14" customFormat="1" ht="21.95" customHeight="1" outlineLevel="1">
-      <c r="B82" s="128" t="s">
+      <c r="C80" s="110"/>
+      <c r="D80" s="110"/>
+      <c r="E80" s="110"/>
+      <c r="F80" s="110"/>
+      <c r="G80" s="110"/>
+      <c r="H80" s="110"/>
+      <c r="I80" s="110"/>
+      <c r="J80" s="110"/>
+      <c r="K80" s="110"/>
+      <c r="L80" s="110"/>
+      <c r="M80" s="110"/>
+      <c r="N80" s="110"/>
+      <c r="O80" s="110"/>
+      <c r="P80" s="110"/>
+      <c r="Q80" s="110"/>
+    </row>
+    <row r="81" spans="2:17" s="7" customFormat="1" ht="9.5" customHeight="1">
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="23"/>
+      <c r="M81" s="23"/>
+      <c r="N81" s="23"/>
+      <c r="O81" s="23"/>
+      <c r="P81" s="23"/>
+      <c r="Q81" s="23"/>
+    </row>
+    <row r="82" spans="2:17" s="14" customFormat="1" ht="22" customHeight="1">
+      <c r="B82" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="C82" s="128"/>
-      <c r="D82" s="87" t="str">
+      <c r="C82" s="105"/>
+      <c r="D82" s="85" t="str">
         <f>IF(D28&lt;&gt;0,$D$28*(1-$D$9),"")</f>
         <v/>
       </c>
-      <c r="E82" s="87">
+      <c r="E82" s="85">
         <f t="shared" ref="E82:Q82" si="9">$D$28*(1-$D$9)</f>
         <v>0</v>
       </c>
-      <c r="F82" s="87">
+      <c r="F82" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G82" s="87">
+      <c r="G82" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H82" s="87">
+      <c r="H82" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I82" s="87">
+      <c r="I82" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J82" s="87">
+      <c r="J82" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K82" s="87">
+      <c r="K82" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L82" s="87">
+      <c r="L82" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M82" s="87">
+      <c r="M82" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N82" s="87">
+      <c r="N82" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O82" s="87">
+      <c r="O82" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P82" s="87">
+      <c r="P82" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q82" s="87">
+      <c r="Q82" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:17" s="14" customFormat="1" ht="21.95" customHeight="1" outlineLevel="1">
-      <c r="B83" s="128" t="s">
+    <row r="83" spans="2:17" s="14" customFormat="1" ht="22" customHeight="1">
+      <c r="B83" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="C83" s="128"/>
-      <c r="D83" s="88">
+      <c r="C83" s="105"/>
+      <c r="D83" s="86">
         <v>0</v>
       </c>
-      <c r="E83" s="88" t="str">
+      <c r="E83" s="86" t="str">
         <f t="shared" ref="E83:Q83" si="10">IF(E34&lt;&gt;"",E34-D34,"")</f>
         <v/>
       </c>
-      <c r="F83" s="88" t="str">
+      <c r="F83" s="86" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G83" s="88" t="str">
+      <c r="G83" s="86" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H83" s="88" t="str">
+      <c r="H83" s="86" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I83" s="88" t="str">
+      <c r="I83" s="86" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J83" s="88" t="str">
+      <c r="J83" s="86" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K83" s="88" t="str">
+      <c r="K83" s="86" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L83" s="88" t="str">
+      <c r="L83" s="86" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M83" s="88" t="str">
+      <c r="M83" s="86" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N83" s="88" t="str">
+      <c r="N83" s="86" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="O83" s="88" t="str">
+      <c r="O83" s="86" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P83" s="88" t="str">
+      <c r="P83" s="86" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q83" s="88" t="str">
+      <c r="Q83" s="86" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="2:17" ht="21.95" customHeight="1" outlineLevel="1">
-      <c r="B84" s="55" t="s">
+    <row r="84" spans="2:17" ht="22" customHeight="1">
+      <c r="B84" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="C84" s="56"/>
-      <c r="D84" s="89" t="str">
+      <c r="C84" s="54"/>
+      <c r="D84" s="87" t="str">
         <f t="shared" ref="D84:Q84" si="11">IF(D28&lt;&gt;0,SUM(D38*3.412,D45:D47),"")</f>
         <v/>
       </c>
-      <c r="E84" s="89" t="str">
+      <c r="E84" s="87" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F84" s="89" t="str">
+      <c r="F84" s="87" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="G84" s="89" t="str">
+      <c r="G84" s="87" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="H84" s="89" t="str">
+      <c r="H84" s="87" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="I84" s="89" t="str">
+      <c r="I84" s="87" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J84" s="89" t="str">
+      <c r="J84" s="87" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="K84" s="89" t="str">
+      <c r="K84" s="87" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="L84" s="89" t="str">
+      <c r="L84" s="87" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="M84" s="89" t="str">
+      <c r="M84" s="87" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="N84" s="89" t="str">
+      <c r="N84" s="87" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="O84" s="89" t="str">
+      <c r="O84" s="87" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="P84" s="89" t="str">
+      <c r="P84" s="87" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="Q84" s="89" t="str">
+      <c r="Q84" s="87" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="2:17" ht="21.95" customHeight="1" outlineLevel="1">
-      <c r="B85" s="136" t="s">
+    <row r="85" spans="2:17" ht="22" customHeight="1">
+      <c r="B85" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="C85" s="137"/>
-      <c r="D85" s="90" t="str">
+      <c r="C85" s="104"/>
+      <c r="D85" s="88" t="str">
         <f t="shared" ref="D85:Q85" si="12">IFERROR(D27/D84*1000, "")</f>
         <v/>
       </c>
-      <c r="E85" s="90" t="str">
+      <c r="E85" s="88" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="F85" s="90" t="str">
+      <c r="F85" s="88" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="G85" s="90" t="str">
+      <c r="G85" s="88" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H85" s="90" t="str">
+      <c r="H85" s="88" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="I85" s="90" t="str">
+      <c r="I85" s="88" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="J85" s="90" t="str">
+      <c r="J85" s="88" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="K85" s="90" t="str">
+      <c r="K85" s="88" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="L85" s="90" t="str">
+      <c r="L85" s="88" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="M85" s="90" t="str">
+      <c r="M85" s="88" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="N85" s="90" t="str">
+      <c r="N85" s="88" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O85" s="90" t="str">
+      <c r="O85" s="88" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P85" s="90" t="str">
+      <c r="P85" s="88" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q85" s="90" t="str">
+      <c r="Q85" s="88" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="2:17" ht="21.95" customHeight="1" outlineLevel="1">
-      <c r="B86" s="136" t="s">
+    <row r="86" spans="2:17" ht="22" customHeight="1">
+      <c r="B86" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="C86" s="137"/>
-      <c r="D86" s="91" t="str">
+      <c r="C86" s="104"/>
+      <c r="D86" s="89" t="str">
         <f t="shared" ref="D86:Q86" si="13">IFERROR(D26/D84*1000, "")</f>
         <v/>
       </c>
-      <c r="E86" s="91" t="str">
+      <c r="E86" s="89" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="F86" s="91" t="str">
+      <c r="F86" s="89" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="G86" s="91" t="str">
+      <c r="G86" s="89" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H86" s="91" t="str">
+      <c r="H86" s="89" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I86" s="91" t="str">
+      <c r="I86" s="89" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="J86" s="91" t="str">
+      <c r="J86" s="89" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="K86" s="91" t="str">
+      <c r="K86" s="89" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="L86" s="91" t="str">
+      <c r="L86" s="89" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="M86" s="91" t="str">
+      <c r="M86" s="89" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="N86" s="91" t="str">
+      <c r="N86" s="89" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="O86" s="91" t="str">
+      <c r="O86" s="89" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="P86" s="91" t="str">
+      <c r="P86" s="89" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="Q86" s="91" t="str">
+      <c r="Q86" s="89" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="2:17" ht="21.95" customHeight="1" outlineLevel="1">
-      <c r="B87" s="55" t="s">
+    <row r="87" spans="2:17" ht="22" customHeight="1">
+      <c r="B87" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C87" s="56"/>
-      <c r="D87" s="89" t="str">
+      <c r="C87" s="54"/>
+      <c r="D87" s="87" t="str">
         <f t="shared" ref="D87:Q87" si="14">IF(D28&lt;&gt;0,$D84-D84,"")</f>
         <v/>
       </c>
-      <c r="E87" s="89" t="str">
+      <c r="E87" s="87" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="F87" s="89" t="str">
+      <c r="F87" s="87" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="G87" s="89" t="str">
+      <c r="G87" s="87" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="H87" s="89" t="str">
+      <c r="H87" s="87" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="I87" s="89" t="str">
+      <c r="I87" s="87" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="J87" s="89" t="str">
+      <c r="J87" s="87" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="K87" s="89" t="str">
+      <c r="K87" s="87" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="L87" s="89" t="str">
+      <c r="L87" s="87" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="M87" s="89" t="str">
+      <c r="M87" s="87" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N87" s="89" t="str">
+      <c r="N87" s="87" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="O87" s="89" t="str">
+      <c r="O87" s="87" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P87" s="89" t="str">
+      <c r="P87" s="87" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q87" s="89" t="str">
+      <c r="Q87" s="87" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="2:17" ht="21.95" customHeight="1" outlineLevel="1">
-      <c r="B88" s="55" t="s">
+    <row r="88" spans="2:17" ht="22" customHeight="1">
+      <c r="B88" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C88" s="56"/>
-      <c r="D88" s="89" t="str">
+      <c r="C88" s="54"/>
+      <c r="D88" s="87" t="str">
         <f t="shared" ref="D88:Q88" si="15">IF(D28&lt;&gt;0,D39-$D39,"")</f>
         <v/>
       </c>
-      <c r="E88" s="89" t="str">
+      <c r="E88" s="87" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="F88" s="89" t="str">
+      <c r="F88" s="87" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="G88" s="89" t="str">
+      <c r="G88" s="87" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="H88" s="89" t="str">
+      <c r="H88" s="87" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="I88" s="89" t="str">
+      <c r="I88" s="87" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="J88" s="89" t="str">
+      <c r="J88" s="87" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="K88" s="89" t="str">
+      <c r="K88" s="87" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="L88" s="89" t="str">
+      <c r="L88" s="87" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="M88" s="89" t="str">
+      <c r="M88" s="87" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N88" s="89" t="str">
+      <c r="N88" s="87" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="O88" s="89" t="str">
+      <c r="O88" s="87" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="P88" s="89" t="str">
+      <c r="P88" s="87" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Q88" s="89" t="str">
+      <c r="Q88" s="87" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="2:17" ht="21.95" customHeight="1" outlineLevel="1">
-      <c r="B89" s="55" t="s">
+    <row r="89" spans="2:17" ht="22" customHeight="1">
+      <c r="B89" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C89" s="56"/>
-      <c r="D89" s="89" t="str">
+      <c r="C89" s="54"/>
+      <c r="D89" s="87" t="str">
         <f t="shared" ref="D89:Q89" si="16">IF(D28&lt;&gt;0,SUM(D41:D43)-SUM($D41:$D43),"")</f>
         <v/>
       </c>
-      <c r="E89" s="89" t="str">
+      <c r="E89" s="87" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F89" s="89" t="str">
+      <c r="F89" s="87" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G89" s="89" t="str">
+      <c r="G89" s="87" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H89" s="89" t="str">
+      <c r="H89" s="87" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="I89" s="89" t="str">
+      <c r="I89" s="87" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="J89" s="89" t="str">
+      <c r="J89" s="87" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="K89" s="89" t="str">
+      <c r="K89" s="87" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L89" s="89" t="str">
+      <c r="L89" s="87" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="M89" s="89" t="str">
+      <c r="M89" s="87" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="N89" s="89" t="str">
+      <c r="N89" s="87" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="O89" s="89" t="str">
+      <c r="O89" s="87" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="P89" s="89" t="str">
+      <c r="P89" s="87" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="Q89" s="89" t="str">
+      <c r="Q89" s="87" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="2:17" ht="21.95" customHeight="1" outlineLevel="1">
-      <c r="B90" s="55" t="s">
+    <row r="90" spans="2:17" ht="22" customHeight="1">
+      <c r="B90" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="C90" s="56"/>
-      <c r="D90" s="89" t="str">
+      <c r="C90" s="54"/>
+      <c r="D90" s="87" t="str">
         <f t="shared" ref="D90:Q90" si="17">IF(D28&lt;&gt;0,D84*($D85-D85)/1000,"")</f>
         <v/>
       </c>
-      <c r="E90" s="89" t="str">
+      <c r="E90" s="87" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F90" s="89" t="str">
+      <c r="F90" s="87" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="G90" s="89" t="str">
+      <c r="G90" s="87" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="H90" s="89" t="str">
+      <c r="H90" s="87" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="I90" s="89" t="str">
+      <c r="I90" s="87" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="J90" s="89" t="str">
+      <c r="J90" s="87" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="K90" s="89" t="str">
+      <c r="K90" s="87" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="L90" s="89" t="str">
+      <c r="L90" s="87" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="M90" s="89" t="str">
+      <c r="M90" s="87" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="N90" s="89" t="str">
+      <c r="N90" s="87" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="O90" s="89" t="str">
+      <c r="O90" s="87" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P90" s="89" t="str">
+      <c r="P90" s="87" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="Q90" s="89" t="str">
+      <c r="Q90" s="87" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="2:17" s="7" customFormat="1" ht="9.4" customHeight="1" outlineLevel="1">
-      <c r="B91" s="24"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="24"/>
-      <c r="L91" s="24"/>
-      <c r="M91" s="24"/>
-      <c r="N91" s="24"/>
-      <c r="O91" s="24"/>
-      <c r="P91" s="24"/>
-      <c r="Q91" s="24"/>
-    </row>
-    <row r="92" spans="2:17" ht="21.95" customHeight="1" outlineLevel="1">
-      <c r="B92" s="57" t="s">
+    <row r="91" spans="2:17" s="7" customFormat="1" ht="9.5" customHeight="1">
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="23"/>
+      <c r="M91" s="23"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="23"/>
+      <c r="P91" s="23"/>
+      <c r="Q91" s="23"/>
+    </row>
+    <row r="92" spans="2:17" ht="22" customHeight="1">
+      <c r="B92" s="55" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="93" spans="2:17" ht="33.950000000000003" customHeight="1" outlineLevel="1">
-      <c r="B93" s="136" t="s">
+    <row r="93" spans="2:17" ht="34" customHeight="1">
+      <c r="B93" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="C93" s="137"/>
-      <c r="D93" s="89" t="str">
+      <c r="C93" s="104"/>
+      <c r="D93" s="87" t="str">
         <f t="shared" ref="D93:Q93" si="18">IF(D28&lt;&gt;0,$D22-D22,"")</f>
         <v/>
       </c>
-      <c r="E93" s="89" t="str">
+      <c r="E93" s="87" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="F93" s="89" t="str">
+      <c r="F93" s="87" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="G93" s="89" t="str">
+      <c r="G93" s="87" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H93" s="89" t="str">
+      <c r="H93" s="87" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I93" s="89" t="str">
+      <c r="I93" s="87" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="J93" s="89" t="str">
+      <c r="J93" s="87" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="K93" s="89" t="str">
+      <c r="K93" s="87" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="L93" s="89" t="str">
+      <c r="L93" s="87" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="M93" s="89" t="str">
+      <c r="M93" s="87" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="N93" s="89" t="str">
+      <c r="N93" s="87" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="O93" s="89" t="str">
+      <c r="O93" s="87" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="P93" s="89" t="str">
+      <c r="P93" s="87" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="Q93" s="89" t="str">
+      <c r="Q93" s="87" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="2:17" ht="33.950000000000003" customHeight="1" outlineLevel="1">
-      <c r="B94" s="136" t="s">
+    <row r="94" spans="2:17" ht="34" customHeight="1">
+      <c r="B94" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="C94" s="137"/>
-      <c r="D94" s="89" t="str">
+      <c r="C94" s="104"/>
+      <c r="D94" s="87" t="str">
         <f t="shared" ref="D94:Q94" si="19">IF(D28&lt;&gt;0,$D23-D23,"")</f>
         <v/>
       </c>
-      <c r="E94" s="89" t="str">
+      <c r="E94" s="87" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="F94" s="89" t="str">
+      <c r="F94" s="87" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G94" s="89" t="str">
+      <c r="G94" s="87" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="H94" s="89" t="str">
+      <c r="H94" s="87" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I94" s="89" t="str">
+      <c r="I94" s="87" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J94" s="89" t="str">
+      <c r="J94" s="87" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="K94" s="89" t="str">
+      <c r="K94" s="87" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="L94" s="89" t="str">
+      <c r="L94" s="87" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="M94" s="89" t="str">
+      <c r="M94" s="87" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="N94" s="89" t="str">
+      <c r="N94" s="87" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="O94" s="89" t="str">
+      <c r="O94" s="87" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="P94" s="89" t="str">
+      <c r="P94" s="87" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="Q94" s="89" t="str">
+      <c r="Q94" s="87" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="2:17" ht="33.950000000000003" customHeight="1" outlineLevel="1">
-      <c r="B95" s="136" t="s">
+    <row r="95" spans="2:17" ht="34" customHeight="1">
+      <c r="B95" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="C95" s="137"/>
-      <c r="D95" s="89" t="str">
+      <c r="C95" s="104"/>
+      <c r="D95" s="87" t="str">
         <f t="shared" ref="D95:Q95" si="20">IF(D28&lt;&gt;0,($D24+$D25)-(D24+D25),"")</f>
         <v/>
       </c>
-      <c r="E95" s="89" t="str">
+      <c r="E95" s="87" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="F95" s="89" t="str">
+      <c r="F95" s="87" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="G95" s="89" t="str">
+      <c r="G95" s="87" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="H95" s="89" t="str">
+      <c r="H95" s="87" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="I95" s="89" t="str">
+      <c r="I95" s="87" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J95" s="89" t="str">
+      <c r="J95" s="87" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="K95" s="89" t="str">
+      <c r="K95" s="87" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L95" s="89" t="str">
+      <c r="L95" s="87" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="M95" s="89" t="str">
+      <c r="M95" s="87" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N95" s="89" t="str">
+      <c r="N95" s="87" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="O95" s="89" t="str">
+      <c r="O95" s="87" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="P95" s="89" t="str">
+      <c r="P95" s="87" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="Q95" s="89" t="str">
+      <c r="Q95" s="87" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="2:17" ht="33.950000000000003" customHeight="1" outlineLevel="1">
-      <c r="B96" s="136" t="s">
+    <row r="96" spans="2:17" ht="34" customHeight="1">
+      <c r="B96" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="C96" s="137"/>
-      <c r="D96" s="89" t="str">
+      <c r="C96" s="104"/>
+      <c r="D96" s="87" t="str">
         <f t="shared" ref="D96:Q96" si="21">IF(D28&lt;&gt;0,D87*$D85/1000,"")</f>
         <v/>
       </c>
-      <c r="E96" s="89" t="str">
+      <c r="E96" s="87" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="F96" s="89" t="str">
+      <c r="F96" s="87" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="G96" s="89" t="str">
+      <c r="G96" s="87" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="H96" s="89" t="str">
+      <c r="H96" s="87" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="I96" s="89" t="str">
+      <c r="I96" s="87" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="J96" s="89" t="str">
+      <c r="J96" s="87" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K96" s="89" t="str">
+      <c r="K96" s="87" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="L96" s="89" t="str">
+      <c r="L96" s="87" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="M96" s="89" t="str">
+      <c r="M96" s="87" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="N96" s="89" t="str">
+      <c r="N96" s="87" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="O96" s="89" t="str">
+      <c r="O96" s="87" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="P96" s="89" t="str">
+      <c r="P96" s="87" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="Q96" s="89" t="str">
+      <c r="Q96" s="87" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="2:17" ht="33.950000000000003" customHeight="1" outlineLevel="1">
-      <c r="B97" s="136" t="s">
+    <row r="97" spans="2:17" ht="34" customHeight="1">
+      <c r="B97" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="C97" s="137"/>
-      <c r="D97" s="89" t="str">
+      <c r="C97" s="104"/>
+      <c r="D97" s="87" t="str">
         <f t="shared" ref="D97:Q97" si="22">IF(D28&lt;&gt;0,D88*$D86/1000,"")</f>
         <v/>
       </c>
-      <c r="E97" s="89" t="str">
+      <c r="E97" s="87" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="F97" s="89" t="str">
+      <c r="F97" s="87" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G97" s="89" t="str">
+      <c r="G97" s="87" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H97" s="89" t="str">
+      <c r="H97" s="87" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="I97" s="89" t="str">
+      <c r="I97" s="87" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="J97" s="89" t="str">
+      <c r="J97" s="87" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="K97" s="89" t="str">
+      <c r="K97" s="87" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L97" s="89" t="str">
+      <c r="L97" s="87" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="M97" s="89" t="str">
+      <c r="M97" s="87" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="N97" s="89" t="str">
+      <c r="N97" s="87" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="O97" s="89" t="str">
+      <c r="O97" s="87" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="P97" s="89" t="str">
+      <c r="P97" s="87" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="Q97" s="89" t="str">
+      <c r="Q97" s="87" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="2:17" ht="33.950000000000003" customHeight="1" outlineLevel="1">
-      <c r="B98" s="136" t="s">
+    <row r="98" spans="2:17" ht="34" customHeight="1">
+      <c r="B98" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="C98" s="137"/>
-      <c r="D98" s="89" t="str">
+      <c r="C98" s="104"/>
+      <c r="D98" s="87" t="str">
         <f t="shared" ref="D98:Q98" si="23">IF(D28&lt;&gt;0,D89*$D86/1000,"")</f>
         <v/>
       </c>
-      <c r="E98" s="89" t="str">
+      <c r="E98" s="87" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="F98" s="89" t="str">
+      <c r="F98" s="87" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="G98" s="89" t="str">
+      <c r="G98" s="87" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H98" s="89" t="str">
+      <c r="H98" s="87" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I98" s="89" t="str">
+      <c r="I98" s="87" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="J98" s="89" t="str">
+      <c r="J98" s="87" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="K98" s="89" t="str">
+      <c r="K98" s="87" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L98" s="89" t="str">
+      <c r="L98" s="87" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M98" s="89" t="str">
+      <c r="M98" s="87" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="N98" s="89" t="str">
+      <c r="N98" s="87" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="O98" s="89" t="str">
+      <c r="O98" s="87" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="P98" s="89" t="str">
+      <c r="P98" s="87" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="Q98" s="89" t="str">
+      <c r="Q98" s="87" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="2:17" ht="33.950000000000003" customHeight="1" outlineLevel="1">
-      <c r="B99" s="136" t="s">
+    <row r="99" spans="2:17" ht="34" customHeight="1">
+      <c r="B99" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="C99" s="137"/>
-      <c r="D99" s="89" t="str">
+      <c r="C99" s="104"/>
+      <c r="D99" s="87" t="str">
         <f t="shared" ref="D99:Q99" si="24">IF(D28&lt;&gt;0,D90-D97-D98,"")</f>
         <v/>
       </c>
-      <c r="E99" s="89" t="str">
+      <c r="E99" s="87" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="F99" s="89" t="str">
+      <c r="F99" s="87" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="G99" s="89" t="str">
+      <c r="G99" s="87" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="H99" s="89" t="str">
+      <c r="H99" s="87" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I99" s="89" t="str">
+      <c r="I99" s="87" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J99" s="89" t="str">
+      <c r="J99" s="87" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="K99" s="89" t="str">
+      <c r="K99" s="87" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="L99" s="89" t="str">
+      <c r="L99" s="87" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="M99" s="89" t="str">
+      <c r="M99" s="87" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N99" s="89" t="str">
+      <c r="N99" s="87" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="O99" s="89" t="str">
+      <c r="O99" s="87" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="P99" s="89" t="str">
+      <c r="P99" s="87" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="Q99" s="89" t="str">
+      <c r="Q99" s="87" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="2:17" ht="21.95" customHeight="1" outlineLevel="1">
-      <c r="B100" s="57" t="s">
+    <row r="100" spans="2:17" ht="22" customHeight="1">
+      <c r="B100" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="C100" s="56"/>
-      <c r="D100" s="92" t="str">
+      <c r="C100" s="54"/>
+      <c r="D100" s="90" t="str">
         <f t="shared" ref="D100:Q100" si="25">IF(D28&lt;&gt;0,SUM(D93:D99),"")</f>
         <v/>
       </c>
-      <c r="E100" s="92" t="str">
+      <c r="E100" s="90" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="F100" s="92" t="str">
+      <c r="F100" s="90" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="G100" s="92" t="str">
+      <c r="G100" s="90" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="H100" s="92" t="str">
+      <c r="H100" s="90" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="I100" s="92" t="str">
+      <c r="I100" s="90" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="J100" s="92" t="str">
+      <c r="J100" s="90" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="K100" s="92" t="str">
+      <c r="K100" s="90" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="L100" s="92" t="str">
+      <c r="L100" s="90" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="M100" s="92" t="str">
+      <c r="M100" s="90" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="N100" s="92" t="str">
+      <c r="N100" s="90" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O100" s="92" t="str">
+      <c r="O100" s="90" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="P100" s="92" t="str">
+      <c r="P100" s="90" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="Q100" s="92" t="str">
+      <c r="Q100" s="90" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B80:Q80"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="B7:Q7"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="B14:Q14"/>
+    <mergeCell ref="B19:Q19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:Q31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:Q36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
     <mergeCell ref="S70:T70"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="B72:C72"/>
@@ -10012,58 +10070,22 @@
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:Q31"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B36:Q36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="B14:Q14"/>
-    <mergeCell ref="B19:Q19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="B6:Q6"/>
-    <mergeCell ref="B7:Q7"/>
-    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B80:Q80"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B95:C95"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" sqref="B12:B18 C12:H15 C18:H18" xr:uid="{0F384797-A850-4D38-9D89-1A1724F2CE35}"/>
@@ -10076,23 +10098,6 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{D3876438-D8D9-4EDA-BBF8-D62EE2196603}">
-            <xm:f>#REF!&amp;#REF!&lt;&gt;'Data Validation'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="1" tint="0.34998626667073579"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B12 B16:B17</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{68CABC7A-42AC-4657-B3AE-8DAF54EDE477}">
@@ -10121,7 +10126,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12568797-A840-46BA-9AAB-5075FCC9DB95}">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:T27"/>
@@ -10130,538 +10135,539 @@
       <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="19" width="12.5703125" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="19" width="12.5" customWidth="1"/>
+    <col min="20" max="20" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="36" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
       <c r="T1" s="10"/>
     </row>
-    <row r="2" spans="1:20" ht="14.65" customHeight="1">
+    <row r="2" spans="1:20" ht="14.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:20" ht="76.7" customHeight="1">
-      <c r="B4" s="143" t="s">
+    <row r="4" spans="1:20" ht="76.75" customHeight="1">
+      <c r="B4" s="137" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="145"/>
-      <c r="O4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="138"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="139"/>
+      <c r="O4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" ht="11.1" customHeight="1">
+    <row r="5" spans="1:20" ht="11" customHeight="1">
       <c r="K5" s="7"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="21"/>
+      <c r="S5" s="7"/>
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" ht="28.5" customHeight="1">
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="134" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
     </row>
     <row r="7" spans="1:20" ht="57.75" customHeight="1">
-      <c r="B7" s="107">
+      <c r="B7" s="31">
         <v>2021</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="136" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
       <c r="T7" s="5"/>
     </row>
     <row r="8" spans="1:20" ht="63" customHeight="1">
-      <c r="B8" s="107">
+      <c r="B8" s="31">
         <v>2021</v>
       </c>
-      <c r="C8" s="141" t="s">
+      <c r="C8" s="132" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="141"/>
-      <c r="N8" s="142"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
       <c r="T8" s="5"/>
     </row>
-    <row r="9" spans="1:20" ht="50.65" customHeight="1">
-      <c r="B9" s="33"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="141"/>
-      <c r="N9" s="142"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
+    <row r="9" spans="1:20" ht="50.75" customHeight="1">
+      <c r="B9" s="31"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
       <c r="T9" s="5"/>
     </row>
-    <row r="10" spans="1:20" ht="50.65" customHeight="1">
-      <c r="B10" s="33"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="141"/>
-      <c r="N10" s="142"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
+    <row r="10" spans="1:20" ht="50.75" customHeight="1">
+      <c r="B10" s="31"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
       <c r="T10" s="5"/>
     </row>
-    <row r="11" spans="1:20" ht="50.65" customHeight="1">
-      <c r="B11" s="33"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="141"/>
-      <c r="L11" s="141"/>
-      <c r="M11" s="141"/>
-      <c r="N11" s="142"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
+    <row r="11" spans="1:20" ht="50.75" customHeight="1">
+      <c r="B11" s="31"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
       <c r="T11" s="5"/>
     </row>
-    <row r="12" spans="1:20" ht="50.65" customHeight="1">
-      <c r="B12" s="33"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="141"/>
-      <c r="N12" s="142"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
+    <row r="12" spans="1:20" ht="50.75" customHeight="1">
+      <c r="B12" s="31"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="133"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
       <c r="T12" s="5"/>
     </row>
-    <row r="13" spans="1:20" ht="50.65" customHeight="1">
-      <c r="B13" s="33"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="141"/>
-      <c r="N13" s="142"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
+    <row r="13" spans="1:20" ht="50.75" customHeight="1">
+      <c r="B13" s="31"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="133"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
       <c r="T13" s="5"/>
     </row>
-    <row r="14" spans="1:20" ht="50.65" customHeight="1">
-      <c r="B14" s="33"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="141"/>
-      <c r="N14" s="142"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
+    <row r="14" spans="1:20" ht="50.75" customHeight="1">
+      <c r="B14" s="31"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="133"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
       <c r="T14" s="5"/>
     </row>
-    <row r="15" spans="1:20" ht="50.65" customHeight="1">
-      <c r="B15" s="33"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="141"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="141"/>
-      <c r="K15" s="141"/>
-      <c r="L15" s="141"/>
-      <c r="M15" s="141"/>
-      <c r="N15" s="142"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
+    <row r="15" spans="1:20" ht="50.75" customHeight="1">
+      <c r="B15" s="31"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="133"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
       <c r="T15" s="5"/>
     </row>
-    <row r="16" spans="1:20" ht="50.65" customHeight="1">
-      <c r="B16" s="33"/>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="141"/>
-      <c r="N16" s="142"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
+    <row r="16" spans="1:20" ht="50.75" customHeight="1">
+      <c r="B16" s="31"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="133"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
       <c r="T16" s="5"/>
     </row>
-    <row r="17" spans="2:20" ht="50.65" customHeight="1">
-      <c r="B17" s="33"/>
-      <c r="C17" s="141"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="142"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
+    <row r="17" spans="2:20" ht="50.75" customHeight="1">
+      <c r="B17" s="31"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="132"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="133"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
       <c r="T17" s="5"/>
     </row>
     <row r="18" spans="2:20">
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
     </row>
     <row r="26" spans="2:20">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C6:N6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="C8:N8"/>
+    <mergeCell ref="C9:N9"/>
     <mergeCell ref="C15:N15"/>
     <mergeCell ref="C16:N16"/>
     <mergeCell ref="C17:N17"/>
@@ -10670,11 +10676,6 @@
     <mergeCell ref="C12:N12"/>
     <mergeCell ref="C13:N13"/>
     <mergeCell ref="C14:N14"/>
-    <mergeCell ref="C6:N6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="C8:N8"/>
-    <mergeCell ref="C9:N9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" sqref="P8:S8" xr:uid="{09F523CF-A882-4C49-B87A-588242ABFC78}"/>
@@ -10687,45 +10688,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FC44B3-8238-4722-8D8E-6A39A13B3241}">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="8" width="25.5703125" customWidth="1"/>
-    <col min="9" max="13" width="12.5703125" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="8" width="25.5" customWidth="1"/>
+    <col min="9" max="13" width="12.5" customWidth="1"/>
+    <col min="14" max="14" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="36" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
       <c r="N1" s="10"/>
     </row>
-    <row r="2" spans="1:16" ht="14.65" customHeight="1">
+    <row r="2" spans="1:16" ht="14.75" customHeight="1">
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -10740,324 +10741,312 @@
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1">
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:16" ht="58.5" customHeight="1">
-      <c r="B4" s="147" t="s">
+      <c r="B4" s="141" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:16" ht="14.65" customHeight="1">
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="21"/>
+    <row r="5" spans="1:16" ht="14.75" customHeight="1">
+      <c r="M5" s="7"/>
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1">
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="104"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="21"/>
+      <c r="C6" s="102"/>
+      <c r="M6" s="7"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:16" ht="14.65" customHeight="1">
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="21"/>
+    <row r="7" spans="1:16" ht="14.75" customHeight="1">
+      <c r="M7" s="7"/>
       <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:16" ht="37.5" customHeight="1">
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="83" t="s">
+      <c r="E8" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="83" t="s">
+      <c r="F8" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="83" t="s">
+      <c r="G8" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-    </row>
-    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+    </row>
+    <row r="9" spans="1:16" ht="20" customHeight="1">
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
+    <row r="10" spans="1:16" ht="20" customHeight="1">
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
+    <row r="11" spans="1:16" ht="20" customHeight="1">
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
+    <row r="12" spans="1:16" ht="20" customHeight="1">
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
       <c r="M12" s="8"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="25"/>
-    </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="25"/>
-    </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="25"/>
-    </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="25"/>
-    </row>
-    <row r="17" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="25"/>
-    </row>
-    <row r="18" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="25"/>
-    </row>
-    <row r="19" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="25"/>
-    </row>
-    <row r="20" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="25"/>
-    </row>
-    <row r="21" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="25"/>
-    </row>
-    <row r="22" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="25"/>
-    </row>
-    <row r="23" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="25"/>
-    </row>
-    <row r="24" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="25"/>
-    </row>
-    <row r="25" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="25"/>
-    </row>
-    <row r="26" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="25"/>
-    </row>
-    <row r="27" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="25"/>
-    </row>
-    <row r="28" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="37"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="25"/>
-    </row>
-    <row r="29" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="25"/>
+    <row r="13" spans="1:16" ht="20" customHeight="1">
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:16" ht="20" customHeight="1">
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:16" ht="20" customHeight="1">
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" spans="1:16" ht="20" customHeight="1">
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="2:9" ht="20" customHeight="1">
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" spans="2:9" ht="20" customHeight="1">
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="24"/>
+    </row>
+    <row r="19" spans="2:9" ht="20" customHeight="1">
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="24"/>
+    </row>
+    <row r="20" spans="2:9" ht="20" customHeight="1">
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="24"/>
+    </row>
+    <row r="21" spans="2:9" ht="20" customHeight="1">
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" spans="2:9" ht="20" customHeight="1">
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="24"/>
+    </row>
+    <row r="23" spans="2:9" ht="20" customHeight="1">
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="24"/>
+    </row>
+    <row r="24" spans="2:9" ht="20" customHeight="1">
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" spans="2:9" ht="20" customHeight="1">
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" spans="2:9" ht="20" customHeight="1">
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="24"/>
+    </row>
+    <row r="27" spans="2:9" ht="20" customHeight="1">
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="24"/>
+    </row>
+    <row r="28" spans="2:9" ht="20" customHeight="1">
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="24"/>
+    </row>
+    <row r="29" spans="2:9" ht="20" customHeight="1">
+      <c r="B29" s="35"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11075,7 +11064,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C35A54-DA90-483D-8A7D-13C74E0C4E2C}">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:T27"/>
@@ -11084,536 +11073,527 @@
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="19" width="12.5703125" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="19" width="12.5" customWidth="1"/>
+    <col min="20" max="20" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="36" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
       <c r="T1" s="10"/>
     </row>
-    <row r="2" spans="1:20" ht="14.65" customHeight="1">
+    <row r="2" spans="1:20" ht="14.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:20" ht="38.65" customHeight="1">
-      <c r="B4" s="151" t="s">
+    <row r="4" spans="1:20" ht="38.75" customHeight="1">
+      <c r="B4" s="137" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="152"/>
-      <c r="M4" s="152"/>
-      <c r="N4" s="153"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="138"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="139"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" ht="11.1" customHeight="1">
+    <row r="5" spans="1:20" ht="11" customHeight="1">
       <c r="K5" s="7"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="21"/>
+      <c r="S5" s="7"/>
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" ht="28.5" customHeight="1">
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="134" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-    </row>
-    <row r="7" spans="1:20" ht="50.65" customHeight="1">
-      <c r="B7" s="33"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+    </row>
+    <row r="7" spans="1:20" ht="50.75" customHeight="1">
+      <c r="B7" s="31"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
       <c r="T7" s="5"/>
     </row>
-    <row r="8" spans="1:20" ht="50.65" customHeight="1">
-      <c r="B8" s="33"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="141"/>
-      <c r="N8" s="142"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
+    <row r="8" spans="1:20" ht="50.75" customHeight="1">
+      <c r="B8" s="31"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
       <c r="T8" s="5"/>
     </row>
-    <row r="9" spans="1:20" ht="50.65" customHeight="1">
-      <c r="B9" s="33"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="141"/>
-      <c r="N9" s="142"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
+    <row r="9" spans="1:20" ht="50.75" customHeight="1">
+      <c r="B9" s="31"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
       <c r="T9" s="5"/>
     </row>
-    <row r="10" spans="1:20" ht="50.65" customHeight="1">
-      <c r="B10" s="33"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="141"/>
-      <c r="N10" s="142"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
+    <row r="10" spans="1:20" ht="50.75" customHeight="1">
+      <c r="B10" s="31"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
       <c r="T10" s="5"/>
     </row>
-    <row r="11" spans="1:20" ht="50.65" customHeight="1">
-      <c r="B11" s="33"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="141"/>
-      <c r="L11" s="141"/>
-      <c r="M11" s="141"/>
-      <c r="N11" s="142"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
+    <row r="11" spans="1:20" ht="50.75" customHeight="1">
+      <c r="B11" s="31"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
       <c r="T11" s="5"/>
     </row>
-    <row r="12" spans="1:20" ht="50.65" customHeight="1">
-      <c r="B12" s="33"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="141"/>
-      <c r="N12" s="142"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
+    <row r="12" spans="1:20" ht="50.75" customHeight="1">
+      <c r="B12" s="31"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="133"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
       <c r="T12" s="5"/>
     </row>
-    <row r="13" spans="1:20" ht="50.65" customHeight="1">
-      <c r="B13" s="33"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="141"/>
-      <c r="N13" s="142"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
+    <row r="13" spans="1:20" ht="50.75" customHeight="1">
+      <c r="B13" s="31"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="133"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
       <c r="T13" s="5"/>
     </row>
-    <row r="14" spans="1:20" ht="50.65" customHeight="1">
-      <c r="B14" s="33"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="141"/>
-      <c r="N14" s="142"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
+    <row r="14" spans="1:20" ht="50.75" customHeight="1">
+      <c r="B14" s="31"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="133"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
       <c r="T14" s="5"/>
     </row>
-    <row r="15" spans="1:20" ht="50.65" customHeight="1">
-      <c r="B15" s="33"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="141"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="141"/>
-      <c r="K15" s="141"/>
-      <c r="L15" s="141"/>
-      <c r="M15" s="141"/>
-      <c r="N15" s="142"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
+    <row r="15" spans="1:20" ht="50.75" customHeight="1">
+      <c r="B15" s="31"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="133"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
       <c r="T15" s="5"/>
     </row>
-    <row r="16" spans="1:20" ht="50.65" customHeight="1">
-      <c r="B16" s="33"/>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="141"/>
-      <c r="N16" s="142"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
+    <row r="16" spans="1:20" ht="50.75" customHeight="1">
+      <c r="B16" s="31"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="133"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
       <c r="T16" s="5"/>
     </row>
-    <row r="17" spans="2:20" ht="50.65" customHeight="1">
-      <c r="B17" s="33"/>
-      <c r="C17" s="141"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="142"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
+    <row r="17" spans="2:20" ht="50.75" customHeight="1">
+      <c r="B17" s="31"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="132"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="133"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
       <c r="T17" s="5"/>
     </row>
     <row r="18" spans="2:20">
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
     </row>
     <row r="26" spans="2:20">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C8:N8"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="C6:N6"/>
-    <mergeCell ref="C7:N7"/>
     <mergeCell ref="C15:N15"/>
     <mergeCell ref="C16:N16"/>
     <mergeCell ref="C17:N17"/>
@@ -11623,6 +11603,11 @@
     <mergeCell ref="C12:N12"/>
     <mergeCell ref="C13:N13"/>
     <mergeCell ref="C14:N14"/>
+    <mergeCell ref="C8:N8"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="C6:N6"/>
+    <mergeCell ref="C7:N7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" sqref="P8:S8" xr:uid="{37F58E86-3953-4E24-AF5D-7DC13DC5C37D}"/>
@@ -11635,315 +11620,316 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6EB291-A965-4328-AACD-AD10E266B092}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:AC55"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="7" customWidth="1"/>
-    <col min="2" max="11" width="8.7109375" style="7"/>
-    <col min="12" max="13" width="26.85546875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" style="7" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" style="7" customWidth="1"/>
-    <col min="18" max="21" width="8.7109375" style="7" customWidth="1"/>
-    <col min="22" max="16384" width="8.7109375" style="7"/>
+    <col min="1" max="1" width="2.83203125" style="7" customWidth="1"/>
+    <col min="2" max="11" width="8.6640625" style="7"/>
+    <col min="12" max="13" width="26.83203125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" style="7" customWidth="1"/>
+    <col min="15" max="15" width="21.83203125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="16.1640625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" style="7" customWidth="1"/>
+    <col min="18" max="21" width="8.6640625" style="7" customWidth="1"/>
+    <col min="22" max="16384" width="8.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="26.25">
-      <c r="B1" s="68" t="s">
+    <row r="1" spans="2:29" ht="26">
+      <c r="B1" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="100" t="s">
+      <c r="K1" s="98" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="2:29" ht="14.65" customHeight="1">
-      <c r="B2" s="34"/>
-    </row>
-    <row r="3" spans="2:29" ht="14.65" customHeight="1">
-      <c r="B3" s="148" t="s">
+    <row r="2" spans="2:29" ht="14.75" customHeight="1">
+      <c r="B2" s="32"/>
+    </row>
+    <row r="3" spans="2:29" ht="14.75" customHeight="1">
+      <c r="B3" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-    </row>
-    <row r="4" spans="2:29" ht="37.35" customHeight="1">
-      <c r="B4" s="143" t="s">
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="144"/>
+    </row>
+    <row r="4" spans="2:29" ht="37.25" customHeight="1">
+      <c r="B4" s="137" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="145"/>
-    </row>
-    <row r="10" spans="2:29" ht="62.65" customHeight="1">
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="138"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="138"/>
+      <c r="P4" s="139"/>
+    </row>
+    <row r="10" spans="2:29" ht="62.75" customHeight="1">
       <c r="P10"/>
     </row>
-    <row r="11" spans="2:29">
+    <row r="11" spans="2:29" ht="16">
       <c r="O11"/>
-      <c r="P11" s="54" t="str">
+      <c r="P11" s="52" t="str">
         <f>'Portfolio Emissions'!D12</f>
         <v>Select Base Year</v>
       </c>
-      <c r="Q11" s="54" t="str">
+      <c r="Q11" s="52" t="str">
         <f>'Portfolio Emissions'!E12</f>
         <v/>
       </c>
-      <c r="R11" s="54" t="str">
+      <c r="R11" s="52" t="str">
         <f>'Portfolio Emissions'!F12</f>
         <v/>
       </c>
-      <c r="S11" s="54" t="str">
+      <c r="S11" s="52" t="str">
         <f>'Portfolio Emissions'!G12</f>
         <v/>
       </c>
-      <c r="T11" s="54" t="str">
+      <c r="T11" s="52" t="str">
         <f>'Portfolio Emissions'!H12</f>
         <v/>
       </c>
-      <c r="U11" s="54" t="str">
+      <c r="U11" s="52" t="str">
         <f>'Portfolio Emissions'!I12</f>
         <v/>
       </c>
-      <c r="V11" s="54" t="str">
+      <c r="V11" s="52" t="str">
         <f>'Portfolio Emissions'!J12</f>
         <v/>
       </c>
-      <c r="W11" s="54" t="str">
+      <c r="W11" s="52" t="str">
         <f>'Portfolio Emissions'!K12</f>
         <v/>
       </c>
-      <c r="X11" s="54" t="str">
+      <c r="X11" s="52" t="str">
         <f>'Portfolio Emissions'!L12</f>
         <v/>
       </c>
-      <c r="Y11" s="54" t="str">
+      <c r="Y11" s="52" t="str">
         <f>'Portfolio Emissions'!M12</f>
         <v/>
       </c>
-      <c r="Z11" s="54" t="str">
+      <c r="Z11" s="52" t="str">
         <f>'Portfolio Emissions'!N12</f>
         <v/>
       </c>
-      <c r="AA11" s="54" t="str">
+      <c r="AA11" s="52" t="str">
         <f>'Portfolio Emissions'!O12</f>
         <v/>
       </c>
-      <c r="AB11" s="54" t="str">
+      <c r="AB11" s="52" t="str">
         <f>'Portfolio Emissions'!P12</f>
         <v/>
       </c>
-      <c r="AC11" s="54" t="str">
+      <c r="AC11" s="52" t="str">
         <f>'Portfolio Emissions'!Q12</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:29">
-      <c r="O12" s="69" t="s">
+    <row r="12" spans="2:29" ht="16">
+      <c r="O12" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="73">
+      <c r="P12" s="71">
         <f>'Portfolio Emissions'!D21</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="73">
+      <c r="Q12" s="71">
         <f>'Portfolio Emissions'!E21</f>
         <v>0</v>
       </c>
-      <c r="R12" s="73">
+      <c r="R12" s="71">
         <f>'Portfolio Emissions'!F21</f>
         <v>0</v>
       </c>
-      <c r="S12" s="73">
+      <c r="S12" s="71">
         <f>'Portfolio Emissions'!G21</f>
         <v>0</v>
       </c>
-      <c r="T12" s="73">
+      <c r="T12" s="71">
         <f>'Portfolio Emissions'!H21</f>
         <v>0</v>
       </c>
-      <c r="U12" s="73">
+      <c r="U12" s="71">
         <f>'Portfolio Emissions'!I21</f>
         <v>0</v>
       </c>
-      <c r="V12" s="73">
+      <c r="V12" s="71">
         <f>'Portfolio Emissions'!J21</f>
         <v>0</v>
       </c>
-      <c r="W12" s="73">
+      <c r="W12" s="71">
         <f>'Portfolio Emissions'!K21</f>
         <v>0</v>
       </c>
-      <c r="X12" s="73">
+      <c r="X12" s="71">
         <f>'Portfolio Emissions'!L21</f>
         <v>0</v>
       </c>
-      <c r="Y12" s="73">
+      <c r="Y12" s="71">
         <f>'Portfolio Emissions'!M21</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="73">
+      <c r="Z12" s="71">
         <f>'Portfolio Emissions'!N21</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="73">
+      <c r="AA12" s="71">
         <f>'Portfolio Emissions'!O21</f>
         <v>0</v>
       </c>
-      <c r="AB12" s="73">
+      <c r="AB12" s="71">
         <f>'Portfolio Emissions'!P21</f>
         <v>0</v>
       </c>
-      <c r="AC12" s="73">
+      <c r="AC12" s="71">
         <f>'Portfolio Emissions'!Q21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:29">
-      <c r="O13" s="69" t="s">
+    <row r="13" spans="2:29" ht="16">
+      <c r="O13" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="P13" s="73">
+      <c r="P13" s="71">
         <f>IF('Portfolio Emissions'!$J$10="Market-Based GHG Goal",'Portfolio Emissions'!D27,E26)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="73">
+      <c r="Q13" s="71">
         <f>IF('Portfolio Emissions'!$J$10="Market-Based GHG Goal",'Portfolio Emissions'!E27,F26)</f>
         <v>0</v>
       </c>
-      <c r="R13" s="73">
+      <c r="R13" s="71">
         <f>IF('Portfolio Emissions'!$J$10="Market-Based GHG Goal",'Portfolio Emissions'!F27,G26)</f>
         <v>0</v>
       </c>
-      <c r="S13" s="73">
+      <c r="S13" s="71">
         <f>IF('Portfolio Emissions'!$J$10="Market-Based GHG Goal",'Portfolio Emissions'!G27,H26)</f>
         <v>0</v>
       </c>
-      <c r="T13" s="73">
+      <c r="T13" s="71">
         <f>IF('Portfolio Emissions'!$J$10="Market-Based GHG Goal",'Portfolio Emissions'!H27,I26)</f>
         <v>0</v>
       </c>
-      <c r="U13" s="73">
+      <c r="U13" s="71">
         <f>IF('Portfolio Emissions'!$J$10="Market-Based GHG Goal",'Portfolio Emissions'!I27,J26)</f>
         <v>0</v>
       </c>
-      <c r="V13" s="73">
+      <c r="V13" s="71">
         <f>IF('Portfolio Emissions'!$J$10="Market-Based GHG Goal",'Portfolio Emissions'!J27,K26)</f>
         <v>0</v>
       </c>
-      <c r="W13" s="73">
+      <c r="W13" s="71">
         <f>IF('Portfolio Emissions'!$J$10="Market-Based GHG Goal",'Portfolio Emissions'!K27,L26)</f>
         <v>0</v>
       </c>
-      <c r="X13" s="73">
+      <c r="X13" s="71">
         <f>IF('Portfolio Emissions'!$J$10="Market-Based GHG Goal",'Portfolio Emissions'!L27,M26)</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="73">
+      <c r="Y13" s="71">
         <f>IF('Portfolio Emissions'!$J$10="Market-Based GHG Goal",'Portfolio Emissions'!M27,N26)</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="73" t="str">
+      <c r="Z13" s="71" t="str">
         <f>IF('Portfolio Emissions'!$J$10="Market-Based GHG Goal",'Portfolio Emissions'!N27,O26)</f>
         <v>Base Year</v>
       </c>
-      <c r="AA13" s="73" t="str">
+      <c r="AA13" s="71" t="str">
         <f>IF('Portfolio Emissions'!$J$10="Market-Based GHG Goal",'Portfolio Emissions'!O27,P26)</f>
         <v>Select Base Year</v>
       </c>
-      <c r="AB13" s="73">
+      <c r="AB13" s="71">
         <f>IF('Portfolio Emissions'!$J$10="Market-Based GHG Goal",'Portfolio Emissions'!P27,Q26)</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="73">
+      <c r="AC13" s="71">
         <f>IF('Portfolio Emissions'!$J$10="Market-Based GHG Goal",'Portfolio Emissions'!Q27,R26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:29">
-      <c r="O14" s="69" t="s">
+    <row r="14" spans="2:29" ht="16">
+      <c r="O14" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="P14" s="73" t="str">
+      <c r="P14" s="71" t="str">
         <f>'Portfolio Emissions'!D82</f>
         <v/>
       </c>
-      <c r="Q14" s="73">
+      <c r="Q14" s="71">
         <f>'Portfolio Emissions'!E82</f>
         <v>0</v>
       </c>
-      <c r="R14" s="73">
+      <c r="R14" s="71">
         <f>'Portfolio Emissions'!F82</f>
         <v>0</v>
       </c>
-      <c r="S14" s="73">
+      <c r="S14" s="71">
         <f>'Portfolio Emissions'!G82</f>
         <v>0</v>
       </c>
-      <c r="T14" s="73">
+      <c r="T14" s="71">
         <f>'Portfolio Emissions'!H82</f>
         <v>0</v>
       </c>
-      <c r="U14" s="73">
+      <c r="U14" s="71">
         <f>'Portfolio Emissions'!I82</f>
         <v>0</v>
       </c>
-      <c r="V14" s="73">
+      <c r="V14" s="71">
         <f>'Portfolio Emissions'!J82</f>
         <v>0</v>
       </c>
-      <c r="W14" s="73">
+      <c r="W14" s="71">
         <f>'Portfolio Emissions'!K82</f>
         <v>0</v>
       </c>
-      <c r="X14" s="73">
+      <c r="X14" s="71">
         <f>'Portfolio Emissions'!L82</f>
         <v>0</v>
       </c>
-      <c r="Y14" s="73">
+      <c r="Y14" s="71">
         <f>'Portfolio Emissions'!M82</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="73">
+      <c r="Z14" s="71">
         <f>'Portfolio Emissions'!N82</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="73">
+      <c r="AA14" s="71">
         <f>'Portfolio Emissions'!O82</f>
         <v>0</v>
       </c>
-      <c r="AB14" s="73">
+      <c r="AB14" s="71">
         <f>'Portfolio Emissions'!P82</f>
         <v>0</v>
       </c>
-      <c r="AC14" s="73">
+      <c r="AC14" s="71">
         <f>'Portfolio Emissions'!Q82</f>
         <v>0</v>
       </c>
@@ -11955,319 +11941,319 @@
       <c r="O17"/>
     </row>
     <row r="26" spans="15:18">
-      <c r="O26" s="70" t="s">
+      <c r="O26" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="P26" s="93" t="str">
+      <c r="P26" s="91" t="str">
         <f>IF('Portfolio Emissions'!D10="","Select Base Year",'Portfolio Emissions'!D10)</f>
         <v>Select Base Year</v>
       </c>
     </row>
     <row r="27" spans="15:18">
-      <c r="O27" s="70" t="s">
+      <c r="O27" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="P27" s="67">
+      <c r="P27" s="65">
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="15:18" ht="41.45" customHeight="1">
-      <c r="O29" s="71" t="s">
+    <row r="29" spans="15:18" ht="41.5" customHeight="1">
+      <c r="O29" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="P29" s="72" t="s">
+      <c r="P29" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="Q29" s="72" t="s">
+      <c r="Q29" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="R29" s="51"/>
+      <c r="R29" s="49"/>
     </row>
     <row r="30" spans="15:18" ht="29.25" customHeight="1">
-      <c r="O30" s="98" t="str">
+      <c r="O30" s="96" t="str">
         <f>P26</f>
         <v>Select Base Year</v>
       </c>
-      <c r="P30" s="101">
+      <c r="P30" s="99">
         <f>'Portfolio Emissions'!D28</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="96" t="e">
+      <c r="Q30" s="94" t="e">
         <f>P30/P30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R30" s="52"/>
+      <c r="R30" s="50"/>
     </row>
     <row r="31" spans="15:18" ht="29.25" customHeight="1">
-      <c r="O31" s="94" t="str">
+      <c r="O31" s="92" t="str">
         <f>'Portfolio Emissions'!B93</f>
         <v>Scope 1 
 Stationary</v>
       </c>
-      <c r="P31" s="95" t="e">
+      <c r="P31" s="93" t="e">
         <f>-HLOOKUP($P$27,'Portfolio Emissions'!$E$12:$Q$100,ROW('Portfolio Emissions'!E93)-ROW('Portfolio Emissions'!E$12)+1)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q31" s="96" t="e">
+      <c r="Q31" s="94" t="e">
         <f>P31/P30</f>
         <v>#N/A</v>
       </c>
-      <c r="R31" s="52"/>
+      <c r="R31" s="50"/>
     </row>
     <row r="32" spans="15:18" ht="29.25" customHeight="1">
-      <c r="O32" s="94" t="str">
+      <c r="O32" s="92" t="str">
         <f>'Portfolio Emissions'!B94</f>
         <v>Scope 1 
 Mobile</v>
       </c>
-      <c r="P32" s="95" t="e">
+      <c r="P32" s="93" t="e">
         <f>-HLOOKUP($P$27,'Portfolio Emissions'!$E$12:$Q$100,ROW('Portfolio Emissions'!E94)-ROW('Portfolio Emissions'!E$12)+1)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q32" s="96" t="e">
+      <c r="Q32" s="94" t="e">
         <f>P32/P30</f>
         <v>#N/A</v>
       </c>
-      <c r="R32" s="52"/>
+      <c r="R32" s="50"/>
     </row>
     <row r="33" spans="15:18" ht="29.25" customHeight="1">
-      <c r="O33" s="94" t="str">
+      <c r="O33" s="92" t="str">
         <f>'Portfolio Emissions'!B95</f>
         <v>Scope 1 
 Fugitive &amp; Process</v>
       </c>
-      <c r="P33" s="95" t="e">
+      <c r="P33" s="93" t="e">
         <f>-HLOOKUP($P$27,'Portfolio Emissions'!$E$12:$Q$100,ROW('Portfolio Emissions'!E95)-ROW('Portfolio Emissions'!E$12)+1)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q33" s="96" t="e">
+      <c r="Q33" s="94" t="e">
         <f>P33/P30</f>
         <v>#N/A</v>
       </c>
-      <c r="R33" s="52"/>
-    </row>
-    <row r="34" spans="15:18" ht="30">
-      <c r="O34" s="94" t="str">
+      <c r="R33" s="50"/>
+    </row>
+    <row r="34" spans="15:18" ht="32">
+      <c r="O34" s="92" t="str">
         <f>'Portfolio Emissions'!B96</f>
         <v>Scope 2 
 Change in Energy Use</v>
       </c>
-      <c r="P34" s="95" t="e">
+      <c r="P34" s="93" t="e">
         <f>-HLOOKUP($P$27,'Portfolio Emissions'!$E$12:$Q$100,ROW('Portfolio Emissions'!E96)-ROW('Portfolio Emissions'!E$12)+1)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q34" s="96" t="e">
+      <c r="Q34" s="94" t="e">
         <f>P34/P30</f>
         <v>#N/A</v>
       </c>
-      <c r="R34" s="52"/>
-    </row>
-    <row r="35" spans="15:18" ht="30">
-      <c r="O35" s="94" t="str">
+      <c r="R34" s="50"/>
+    </row>
+    <row r="35" spans="15:18" ht="32">
+      <c r="O35" s="92" t="str">
         <f>'Portfolio Emissions'!B97</f>
         <v>Scope 2 
 On-site Renewables</v>
       </c>
-      <c r="P35" s="95" t="e">
+      <c r="P35" s="93" t="e">
         <f>-HLOOKUP($P$27,'Portfolio Emissions'!$E$12:$Q$100,ROW('Portfolio Emissions'!E97)-ROW('Portfolio Emissions'!E$12)+1)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q35" s="96" t="e">
+      <c r="Q35" s="94" t="e">
         <f>P35/P30</f>
         <v>#N/A</v>
       </c>
-      <c r="R35" s="53"/>
-    </row>
-    <row r="36" spans="15:18" ht="30">
-      <c r="O36" s="94" t="str">
+      <c r="R35" s="51"/>
+    </row>
+    <row r="36" spans="15:18" ht="32">
+      <c r="O36" s="92" t="str">
         <f>'Portfolio Emissions'!B98</f>
         <v>Scope 2 
 Off-site Renewables</v>
       </c>
-      <c r="P36" s="95" t="e">
+      <c r="P36" s="93" t="e">
         <f>-HLOOKUP($P$27,'Portfolio Emissions'!$E$12:$Q$100,ROW('Portfolio Emissions'!E98)-ROW('Portfolio Emissions'!E$12)+1)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q36" s="97" t="e">
+      <c r="Q36" s="95" t="e">
         <f>P36/P30</f>
         <v>#N/A</v>
       </c>
-      <c r="R36" s="53"/>
-    </row>
-    <row r="37" spans="15:18" ht="45">
-      <c r="O37" s="94" t="str">
+      <c r="R36" s="51"/>
+    </row>
+    <row r="37" spans="15:18" ht="32">
+      <c r="O37" s="92" t="str">
         <f>'Portfolio Emissions'!B99</f>
         <v>Scope 2 
 Greening of Grid / Other</v>
       </c>
-      <c r="P37" s="95" t="e">
+      <c r="P37" s="93" t="e">
         <f>-HLOOKUP($P$27,'Portfolio Emissions'!$E$12:$Q$100,ROW('Portfolio Emissions'!E99)-ROW('Portfolio Emissions'!E$12)+1)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q37" s="97" t="e">
+      <c r="Q37" s="95" t="e">
         <f>P37/P30</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="15:18">
-      <c r="O38" s="102">
+      <c r="O38" s="100">
         <f>P27</f>
         <v>2021</v>
       </c>
-      <c r="P38" s="101" t="e">
+      <c r="P38" s="99" t="e">
         <f>HLOOKUP($P$27,'Portfolio Emissions'!$E$12:$Q$95,ROW('Portfolio Emissions'!E28)-ROW('Portfolio Emissions'!E$12)+1)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q38" s="103" t="e">
+      <c r="Q38" s="101" t="e">
         <f>(P38-P30)/P30</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="15:18">
-      <c r="O39" s="48"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="50"/>
-    </row>
-    <row r="46" spans="15:18" ht="45">
-      <c r="O46" s="71" t="s">
+      <c r="O39" s="46"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="48"/>
+    </row>
+    <row r="46" spans="15:18" ht="32">
+      <c r="O46" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="P46" s="72" t="s">
+      <c r="P46" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="Q46" s="72" t="s">
+      <c r="Q46" s="70" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="47" spans="15:18">
-      <c r="O47" s="98" t="str">
+      <c r="O47" s="96" t="str">
         <f>P26</f>
         <v>Select Base Year</v>
       </c>
-      <c r="P47" s="99" t="e">
+      <c r="P47" s="97" t="e">
         <f>Q30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q47" s="96" t="e">
+      <c r="Q47" s="94" t="e">
         <f>P47/P47</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="48" spans="15:18" ht="29.25" customHeight="1">
-      <c r="O48" s="94" t="str">
+      <c r="O48" s="92" t="str">
         <f>O31</f>
         <v>Scope 1 
 Stationary</v>
       </c>
-      <c r="P48" s="96" t="e">
+      <c r="P48" s="94" t="e">
         <f>P31/$P$30</f>
         <v>#N/A</v>
       </c>
-      <c r="Q48" s="96" t="e">
+      <c r="Q48" s="94" t="e">
         <f>P48/P47</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="49" spans="15:17" ht="29.25" customHeight="1">
-      <c r="O49" s="94" t="str">
+      <c r="O49" s="92" t="str">
         <f>O32</f>
         <v>Scope 1 
 Mobile</v>
       </c>
-      <c r="P49" s="96" t="e">
+      <c r="P49" s="94" t="e">
         <f>P32/$P$30</f>
         <v>#N/A</v>
       </c>
-      <c r="Q49" s="96" t="e">
+      <c r="Q49" s="94" t="e">
         <f>P49/P47</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="15:17" ht="29.25" customHeight="1">
-      <c r="O50" s="94" t="str">
+      <c r="O50" s="92" t="str">
         <f>O33</f>
         <v>Scope 1 
 Fugitive &amp; Process</v>
       </c>
-      <c r="P50" s="96" t="e">
+      <c r="P50" s="94" t="e">
         <f>P33/$P$30</f>
         <v>#N/A</v>
       </c>
-      <c r="Q50" s="96" t="e">
+      <c r="Q50" s="94" t="e">
         <f>P50/P47</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="15:17" ht="29.25" customHeight="1">
-      <c r="O51" s="94" t="str">
+      <c r="O51" s="92" t="str">
         <f t="shared" ref="O51:O54" si="0">O34</f>
         <v>Scope 2 
 Change in Energy Use</v>
       </c>
-      <c r="P51" s="96" t="e">
+      <c r="P51" s="94" t="e">
         <f t="shared" ref="P51:P54" si="1">P34/$P$30</f>
         <v>#N/A</v>
       </c>
-      <c r="Q51" s="96" t="e">
+      <c r="Q51" s="94" t="e">
         <f>P51/P47</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="15:17" ht="29.25" customHeight="1">
-      <c r="O52" s="94" t="str">
+      <c r="O52" s="92" t="str">
         <f t="shared" si="0"/>
         <v>Scope 2 
 On-site Renewables</v>
       </c>
-      <c r="P52" s="96" t="e">
+      <c r="P52" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q52" s="96" t="e">
+      <c r="Q52" s="94" t="e">
         <f>P52/P47</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="15:17" ht="29.25" customHeight="1">
-      <c r="O53" s="94" t="str">
+      <c r="O53" s="92" t="str">
         <f t="shared" si="0"/>
         <v>Scope 2 
 Off-site Renewables</v>
       </c>
-      <c r="P53" s="96" t="e">
+      <c r="P53" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q53" s="97" t="e">
+      <c r="Q53" s="95" t="e">
         <f>P53/P47</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="15:17" ht="29.25" customHeight="1">
-      <c r="O54" s="94" t="str">
+      <c r="O54" s="92" t="str">
         <f t="shared" si="0"/>
         <v>Scope 2 
 Greening of Grid / Other</v>
       </c>
-      <c r="P54" s="96" t="e">
+      <c r="P54" s="94" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="Q54" s="97" t="e">
+      <c r="Q54" s="95" t="e">
         <f>P54/P47</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="15:17">
-      <c r="O55" s="102">
+      <c r="O55" s="100">
         <f>P27</f>
         <v>2021</v>
       </c>
-      <c r="P55" s="103" t="e">
+      <c r="P55" s="101" t="e">
         <f>SUM(P47:P54)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q55" s="103" t="e">
+      <c r="Q55" s="101" t="e">
         <f>(P55-P47)/P47</f>
         <v>#DIV/0!</v>
       </c>
@@ -12277,20 +12263,12 @@
     <mergeCell ref="B4:P4"/>
     <mergeCell ref="B3:P3"/>
   </mergeCells>
-  <conditionalFormatting sqref="R30:R35">
-    <cfRule type="expression" dxfId="3" priority="3">
+  <conditionalFormatting sqref="R30:R36">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>R30&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>R30&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R36">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>R36&lt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>R36&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
@@ -12307,20 +12285,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DA627D-E1AF-47E7-8979-1CE389DE5C24}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="42" customWidth="1"/>
-    <col min="2" max="3" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="40" customWidth="1"/>
+    <col min="2" max="3" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -12328,7 +12307,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="42">
+      <c r="A3" s="40">
         <v>2016</v>
       </c>
       <c r="B3" t="s">
@@ -12338,11 +12317,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" customHeight="1">
-      <c r="A4" s="42">
+    <row r="4" spans="1:3" ht="15.5" customHeight="1">
+      <c r="A4" s="40">
         <v>2017</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>32</v>
       </c>
       <c r="C4" t="s">
@@ -12350,105 +12329,105 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="42">
+      <c r="A5" s="40">
         <v>2018</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="42">
+      <c r="A6" s="40">
         <v>2019</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="42">
+      <c r="A7" s="40">
         <v>2020</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="42">
+      <c r="A8" s="40">
         <v>2021</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="42">
+      <c r="A9" s="40">
         <v>2022</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="42">
+      <c r="A10" s="40">
         <v>2023</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="42">
+      <c r="A11" s="40">
         <v>2024</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="42">
+      <c r="A12" s="40">
         <v>2025</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="42">
+      <c r="A13" s="40">
         <v>2026</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="42">
+      <c r="A14" s="40">
         <v>2027</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="42">
+      <c r="A15" s="40">
         <v>2028</v>
       </c>
-      <c r="B15" s="27"/>
+      <c r="B15" s="26"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="42">
+      <c r="A16" s="40">
         <v>2029</v>
       </c>
-      <c r="B16" s="27"/>
+      <c r="B16" s="26"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="42">
+      <c r="A17" s="40">
         <v>2030</v>
       </c>
-      <c r="B17" s="27"/>
+      <c r="B17" s="26"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="B18" s="27"/>
+      <c r="B18" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12469,17 +12448,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2cb0f1ed-79b7-4bc1-8e72-7f523cda35c2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010055E535153CA7F34E92A311355DEBD131" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3669ec3ff234216544e8fe3f9f2c5089">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2cb0f1ed-79b7-4bc1-8e72-7f523cda35c2" xmlns:ns3="0b49f87b-f563-40ee-8a9c-6574c9eaad2e" xmlns:ns4="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3ab0bf8b16b55edaed438f83301dac96" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="2cb0f1ed-79b7-4bc1-8e72-7f523cda35c2"/>
@@ -12721,6 +12689,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2cb0f1ed-79b7-4bc1-8e72-7f523cda35c2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B73C886C-73CD-4ECB-83BE-969658B9AAF7}">
   <ds:schemaRefs>
@@ -12730,24 +12709,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0BFDA27-7A45-4138-9CC7-B84F32DA48C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0b49f87b-f563-40ee-8a9c-6574c9eaad2e"/>
-    <ds:schemaRef ds:uri="2cb0f1ed-79b7-4bc1-8e72-7f523cda35c2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56557E00-3853-4381-B623-A3D484C1AD29}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12765,4 +12726,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0BFDA27-7A45-4138-9CC7-B84F32DA48C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0b49f87b-f563-40ee-8a9c-6574c9eaad2e"/>
+    <ds:schemaRef ds:uri="2cb0f1ed-79b7-4bc1-8e72-7f523cda35c2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/assets/csv_templates/Better-Climate-Challenge-Emissions-Reporting.xlsx
+++ b/src/assets/csv_templates/Better-Climate-Challenge-Emissions-Reporting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/txr/dev/VERIFI/src/assets/csv_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0FB430-EF1E-C049-AE11-993A45FDF155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4FFA17-C803-434A-9854-1F48FE4C8E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="17640" xr2:uid="{9E0B5763-0FE8-425F-B782-C4A4D911BFA4}"/>
   </bookViews>
@@ -20,20 +20,15 @@
     <sheet name="Display" sheetId="24" r:id="rId5"/>
     <sheet name="Data Validation" sheetId="2" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Display!$O$30:$O$39</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Display!$O$31:$O$37</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Display!$P$47:$P$55</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Display!$P$30:$P$39</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Display!$Q$31:$Q$37</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Display!$O$30:$O$39</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Display!$O$31:$O$37</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Display!$P$30:$P$39</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Display!$P$47:$P$55</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Display!$Q$31:$Q$37</definedName>
-    <definedName name="LIST_MeasureType">[1]Lists!$D$3:$D$9</definedName>
-    <definedName name="LIST_PropertyType">[1]Lists!$B$3:$B$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Comments!$A$1:$K$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Emissions Reduction Initiatives'!$A$1:$K$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Facility Emissions'!$A$1:$H$12</definedName>
@@ -444,7 +439,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="119">
   <si>
     <t>Instructions</t>
   </si>
@@ -1067,12 +1062,6 @@
   <si>
     <t>Other Fuel (Gasoline, Diesel, Propane) (MMBtu)</t>
   </si>
-  <si>
-    <t>100% Wind renewable energy.  Our site in Belgium completed converting its energy supply to 100% renewable wind power and carbon-neutral natural gas in May 2021. This results in an estimated annual reduction of 270 metric tons of CO2e emissions.</t>
-  </si>
-  <si>
-    <t>Boiler conversion from coal to natural gas:  By the end of 2021, we successfully completed the conversion of coal-fired boilers to natural gas at our Washington Works, WV site.</t>
-  </si>
 </sst>
 </file>
 
@@ -2010,14 +1999,7 @@
     <cellStyle name="Normal 3" xfId="4" xr:uid="{E0111CA2-60F9-49F9-A8D7-2399BECF48A9}"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="5" tint="-0.24994659260841701"/>
@@ -2027,13 +2009,6 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3301,18 +3276,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3601,18 +3576,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6558,100 +6533,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Instructions"/>
-      <sheetName val="Data Display (EXAMPLE)"/>
-      <sheetName val="Report (Original)"/>
-      <sheetName val="Lists"/>
-      <sheetName val="Report Building A"/>
-      <sheetName val="Report Building B"/>
-      <sheetName val="2021"/>
-      <sheetName val="2022"/>
-      <sheetName val="Back End"/>
-      <sheetName val="Emissions Factors and Constants"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>Office</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>Energy Efficiency</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>Retail</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>On-Site Renewables</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>Warehouse</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>Off-Site Renewables</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>Manufacturing</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>Grid Interactivity</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>Multifamily</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>REC</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>Carbon Offset</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9" t="str">
-            <v>Other</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6">
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>Building A</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="7">
-          <cell r="N7">
-            <v>1118200</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -6955,7 +6836,7 @@
   <dimension ref="A1:U100"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7172,58 +7053,19 @@
         <f>IF($D$10=0, "Select Base Year",$D$10)</f>
         <v>Select Base Year</v>
       </c>
-      <c r="E12" s="52" t="str">
-        <f t="shared" ref="E12:Q12" si="0">IF($D$12="Select Base Year","",D12+1)</f>
-        <v/>
-      </c>
-      <c r="F12" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G12" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H12" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I12" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J12" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K12" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L12" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M12" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N12" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O12" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P12" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q12" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
     </row>
     <row r="13" spans="1:20" ht="6" customHeight="1"/>
     <row r="14" spans="1:20" ht="17.5" customHeight="1">
@@ -7528,47 +7370,47 @@
         <v>0</v>
       </c>
       <c r="F28" s="82">
-        <f t="shared" ref="F28:P28" si="1">IFERROR(IF(L10="Market-Based GHG Goal",SUM(F21,F27),SUM(F21,F26)), "")</f>
+        <f t="shared" ref="F28:P28" si="0">IFERROR(IF(L10="Market-Based GHG Goal",SUM(F21,F27),SUM(F21,F26)), "")</f>
         <v>0</v>
       </c>
       <c r="G28" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H28" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I28" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J28" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K28" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L28" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M28" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N28" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O28" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P28" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q28" s="82">
@@ -7670,51 +7512,51 @@
         <v/>
       </c>
       <c r="F33" s="82" t="str">
-        <f t="shared" ref="F33:Q33" si="2">IF(F28&lt;&gt;0,($D$28-F28), "")</f>
+        <f t="shared" ref="F33:Q33" si="1">IF(F28&lt;&gt;0,($D$28-F28), "")</f>
         <v/>
       </c>
       <c r="G33" s="82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H33" s="82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I33" s="82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J33" s="82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K33" s="82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L33" s="82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M33" s="82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="N33" s="82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O33" s="82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P33" s="82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q33" s="82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -7732,51 +7574,51 @@
         <v/>
       </c>
       <c r="F34" s="83" t="str">
-        <f t="shared" ref="F34:Q34" si="3">IF(F28&lt;&gt;0,F33/$D$28, "")</f>
+        <f t="shared" ref="F34:Q34" si="2">IF(F28&lt;&gt;0,F33/$D$28, "")</f>
         <v/>
       </c>
       <c r="G34" s="83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H34" s="83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I34" s="83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J34" s="83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K34" s="83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L34" s="83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M34" s="83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N34" s="83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O34" s="83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P34" s="83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q34" s="83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7858,43 +7700,43 @@
         <v>0</v>
       </c>
       <c r="H38" s="71">
-        <f t="shared" ref="H38:Q38" si="4">IF(H40&lt;&gt;0, SUM(H39:H40), 0)</f>
+        <f t="shared" ref="H38:Q38" si="3">IF(H40&lt;&gt;0, SUM(H39:H40), 0)</f>
         <v>0</v>
       </c>
       <c r="I38" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J38" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K38" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L38" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M38" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N38" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O38" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P38" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q38" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8014,59 +7856,59 @@
       </c>
       <c r="C44" s="112"/>
       <c r="D44" s="84">
-        <f t="shared" ref="D44:H44" si="5">D40-SUM(D41:D43)</f>
+        <f t="shared" ref="D44:H44" si="4">D40-SUM(D41:D43)</f>
         <v>0</v>
       </c>
       <c r="E44" s="84">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="84">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="84">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="84">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="84">
+        <f t="shared" ref="I44:Q44" si="5">I40-SUM(I41:I43)</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="84">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F44" s="84">
+      <c r="K44" s="84">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G44" s="84">
+      <c r="L44" s="84">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H44" s="84">
+      <c r="M44" s="84">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I44" s="84">
-        <f t="shared" ref="I44:Q44" si="6">I40-SUM(I41:I43)</f>
+      <c r="N44" s="84">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J44" s="84">
-        <f t="shared" si="6"/>
+      <c r="O44" s="84">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K44" s="84">
-        <f t="shared" si="6"/>
+      <c r="P44" s="84">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L44" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="Q44" s="84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S44" s="44"/>
@@ -8500,59 +8342,59 @@
       </c>
       <c r="C65" s="108"/>
       <c r="D65" s="82" t="str">
-        <f t="shared" ref="D65:Q65" si="7">IFERROR(IF(SUM(D38,D45:D64)&lt;&gt;0, SUM(D45:D64)+(D38*3.412), ""),"")</f>
+        <f t="shared" ref="D65:Q65" si="6">IFERROR(IF(SUM(D38,D45:D64)&lt;&gt;0, SUM(D45:D64)+(D38*3.412), ""),"")</f>
         <v/>
       </c>
       <c r="E65" s="82" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F65" s="82" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G65" s="82" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H65" s="82" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I65" s="82" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J65" s="82" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K65" s="82" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L65" s="82" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M65" s="82" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N65" s="82" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O65" s="82" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P65" s="82" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q65" s="82" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8812,55 +8654,55 @@
       </c>
       <c r="C78" s="109"/>
       <c r="D78" s="82" t="str">
-        <f t="shared" ref="D78:P78" si="8">IFERROR(IF(SUM(D69:D77)&lt;&gt;0, SUM(D70:D77)+(D69*3.412), ""),"")</f>
+        <f t="shared" ref="D78:P78" si="7">IFERROR(IF(SUM(D69:D77)&lt;&gt;0, SUM(D70:D77)+(D69*3.412), ""),"")</f>
         <v/>
       </c>
       <c r="E78" s="82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F78" s="82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G78" s="82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H78" s="82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I78" s="82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J78" s="82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K78" s="82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L78" s="82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M78" s="82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N78" s="82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O78" s="82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P78" s="82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Q78" s="82" t="str">
@@ -8934,55 +8776,55 @@
         <v/>
       </c>
       <c r="E82" s="85">
-        <f t="shared" ref="E82:Q82" si="9">$D$28*(1-$D$9)</f>
+        <f t="shared" ref="E82:Q82" si="8">$D$28*(1-$D$9)</f>
         <v>0</v>
       </c>
       <c r="F82" s="85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G82" s="85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H82" s="85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I82" s="85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J82" s="85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K82" s="85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L82" s="85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M82" s="85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N82" s="85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O82" s="85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P82" s="85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q82" s="85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8995,55 +8837,55 @@
         <v>0</v>
       </c>
       <c r="E83" s="86" t="str">
-        <f t="shared" ref="E83:Q83" si="10">IF(E34&lt;&gt;"",E34-D34,"")</f>
+        <f t="shared" ref="E83:Q83" si="9">IF(E34&lt;&gt;"",E34-D34,"")</f>
         <v/>
       </c>
       <c r="F83" s="86" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G83" s="86" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H83" s="86" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I83" s="86" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J83" s="86" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K83" s="86" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L83" s="86" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M83" s="86" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N83" s="86" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O83" s="86" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P83" s="86" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q83" s="86" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -9053,59 +8895,59 @@
       </c>
       <c r="C84" s="54"/>
       <c r="D84" s="87" t="str">
-        <f t="shared" ref="D84:Q84" si="11">IF(D28&lt;&gt;0,SUM(D38*3.412,D45:D47),"")</f>
+        <f t="shared" ref="D84:Q84" si="10">IF(D28&lt;&gt;0,SUM(D38*3.412,D45:D47),"")</f>
         <v/>
       </c>
       <c r="E84" s="87" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F84" s="87" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G84" s="87" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H84" s="87" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I84" s="87" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J84" s="87" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K84" s="87" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L84" s="87" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M84" s="87" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N84" s="87" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O84" s="87" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P84" s="87" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="Q84" s="87" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9115,59 +8957,59 @@
       </c>
       <c r="C85" s="104"/>
       <c r="D85" s="88" t="str">
-        <f t="shared" ref="D85:Q85" si="12">IFERROR(D27/D84*1000, "")</f>
+        <f t="shared" ref="D85:Q85" si="11">IFERROR(D27/D84*1000, "")</f>
         <v/>
       </c>
       <c r="E85" s="88" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F85" s="88" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G85" s="88" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H85" s="88" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I85" s="88" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J85" s="88" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K85" s="88" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L85" s="88" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M85" s="88" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N85" s="88" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O85" s="88" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="P85" s="88" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q85" s="88" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9177,59 +9019,59 @@
       </c>
       <c r="C86" s="104"/>
       <c r="D86" s="89" t="str">
-        <f t="shared" ref="D86:Q86" si="13">IFERROR(D26/D84*1000, "")</f>
+        <f t="shared" ref="D86:Q86" si="12">IFERROR(D26/D84*1000, "")</f>
         <v/>
       </c>
       <c r="E86" s="89" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F86" s="89" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G86" s="89" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H86" s="89" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I86" s="89" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J86" s="89" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K86" s="89" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L86" s="89" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M86" s="89" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N86" s="89" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O86" s="89" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="P86" s="89" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q86" s="89" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9239,59 +9081,59 @@
       </c>
       <c r="C87" s="54"/>
       <c r="D87" s="87" t="str">
-        <f t="shared" ref="D87:Q87" si="14">IF(D28&lt;&gt;0,$D84-D84,"")</f>
+        <f t="shared" ref="D87:Q87" si="13">IF(D28&lt;&gt;0,$D84-D84,"")</f>
         <v/>
       </c>
       <c r="E87" s="87" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F87" s="87" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G87" s="87" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H87" s="87" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I87" s="87" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J87" s="87" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="K87" s="87" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L87" s="87" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M87" s="87" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N87" s="87" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O87" s="87" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="P87" s="87" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Q87" s="87" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -9301,59 +9143,59 @@
       </c>
       <c r="C88" s="54"/>
       <c r="D88" s="87" t="str">
-        <f t="shared" ref="D88:Q88" si="15">IF(D28&lt;&gt;0,D39-$D39,"")</f>
+        <f t="shared" ref="D88:Q88" si="14">IF(D28&lt;&gt;0,D39-$D39,"")</f>
         <v/>
       </c>
       <c r="E88" s="87" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F88" s="87" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G88" s="87" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="H88" s="87" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I88" s="87" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J88" s="87" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K88" s="87" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L88" s="87" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M88" s="87" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N88" s="87" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="O88" s="87" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P88" s="87" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="Q88" s="87" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9363,59 +9205,59 @@
       </c>
       <c r="C89" s="54"/>
       <c r="D89" s="87" t="str">
-        <f t="shared" ref="D89:Q89" si="16">IF(D28&lt;&gt;0,SUM(D41:D43)-SUM($D41:$D43),"")</f>
+        <f t="shared" ref="D89:Q89" si="15">IF(D28&lt;&gt;0,SUM(D41:D43)-SUM($D41:$D43),"")</f>
         <v/>
       </c>
       <c r="E89" s="87" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F89" s="87" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="G89" s="87" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="H89" s="87" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I89" s="87" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="J89" s="87" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K89" s="87" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L89" s="87" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="M89" s="87" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N89" s="87" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="O89" s="87" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P89" s="87" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q89" s="87" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -9425,59 +9267,59 @@
       </c>
       <c r="C90" s="54"/>
       <c r="D90" s="87" t="str">
-        <f t="shared" ref="D90:Q90" si="17">IF(D28&lt;&gt;0,D84*($D85-D85)/1000,"")</f>
+        <f t="shared" ref="D90:Q90" si="16">IF(D28&lt;&gt;0,D84*($D85-D85)/1000,"")</f>
         <v/>
       </c>
       <c r="E90" s="87" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="F90" s="87" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G90" s="87" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H90" s="87" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I90" s="87" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J90" s="87" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K90" s="87" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L90" s="87" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M90" s="87" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N90" s="87" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O90" s="87" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P90" s="87" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q90" s="87" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -9510,59 +9352,59 @@
       </c>
       <c r="C93" s="104"/>
       <c r="D93" s="87" t="str">
-        <f t="shared" ref="D93:Q93" si="18">IF(D28&lt;&gt;0,$D22-D22,"")</f>
+        <f t="shared" ref="D93:Q93" si="17">IF(D28&lt;&gt;0,$D22-D22,"")</f>
         <v/>
       </c>
       <c r="E93" s="87" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="F93" s="87" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G93" s="87" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H93" s="87" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I93" s="87" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J93" s="87" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="K93" s="87" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L93" s="87" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="M93" s="87" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N93" s="87" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="O93" s="87" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="P93" s="87" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Q93" s="87" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -9572,59 +9414,59 @@
       </c>
       <c r="C94" s="104"/>
       <c r="D94" s="87" t="str">
-        <f t="shared" ref="D94:Q94" si="19">IF(D28&lt;&gt;0,$D23-D23,"")</f>
+        <f t="shared" ref="D94:Q94" si="18">IF(D28&lt;&gt;0,$D23-D23,"")</f>
         <v/>
       </c>
       <c r="E94" s="87" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F94" s="87" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G94" s="87" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H94" s="87" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I94" s="87" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J94" s="87" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K94" s="87" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L94" s="87" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M94" s="87" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N94" s="87" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O94" s="87" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="P94" s="87" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q94" s="87" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -9634,59 +9476,59 @@
       </c>
       <c r="C95" s="104"/>
       <c r="D95" s="87" t="str">
-        <f t="shared" ref="D95:Q95" si="20">IF(D28&lt;&gt;0,($D24+$D25)-(D24+D25),"")</f>
+        <f t="shared" ref="D95:Q95" si="19">IF(D28&lt;&gt;0,($D24+$D25)-(D24+D25),"")</f>
         <v/>
       </c>
       <c r="E95" s="87" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="F95" s="87" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="G95" s="87" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H95" s="87" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I95" s="87" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="J95" s="87" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K95" s="87" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L95" s="87" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="M95" s="87" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="N95" s="87" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O95" s="87" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P95" s="87" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="Q95" s="87" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -9696,59 +9538,59 @@
       </c>
       <c r="C96" s="104"/>
       <c r="D96" s="87" t="str">
-        <f t="shared" ref="D96:Q96" si="21">IF(D28&lt;&gt;0,D87*$D85/1000,"")</f>
+        <f t="shared" ref="D96:Q96" si="20">IF(D28&lt;&gt;0,D87*$D85/1000,"")</f>
         <v/>
       </c>
       <c r="E96" s="87" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F96" s="87" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="G96" s="87" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="H96" s="87" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I96" s="87" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J96" s="87" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K96" s="87" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L96" s="87" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M96" s="87" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="N96" s="87" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O96" s="87" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="P96" s="87" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Q96" s="87" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -9758,59 +9600,59 @@
       </c>
       <c r="C97" s="104"/>
       <c r="D97" s="87" t="str">
-        <f t="shared" ref="D97:Q97" si="22">IF(D28&lt;&gt;0,D88*$D86/1000,"")</f>
+        <f t="shared" ref="D97:Q97" si="21">IF(D28&lt;&gt;0,D88*$D86/1000,"")</f>
         <v/>
       </c>
       <c r="E97" s="87" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F97" s="87" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="G97" s="87" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="H97" s="87" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="I97" s="87" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="J97" s="87" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K97" s="87" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="L97" s="87" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="M97" s="87" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N97" s="87" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O97" s="87" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="P97" s="87" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Q97" s="87" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -9820,59 +9662,59 @@
       </c>
       <c r="C98" s="104"/>
       <c r="D98" s="87" t="str">
-        <f t="shared" ref="D98:Q98" si="23">IF(D28&lt;&gt;0,D89*$D86/1000,"")</f>
+        <f t="shared" ref="D98:Q98" si="22">IF(D28&lt;&gt;0,D89*$D86/1000,"")</f>
         <v/>
       </c>
       <c r="E98" s="87" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="F98" s="87" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G98" s="87" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H98" s="87" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I98" s="87" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="J98" s="87" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="K98" s="87" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="L98" s="87" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="M98" s="87" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="N98" s="87" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O98" s="87" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="P98" s="87" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="Q98" s="87" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
@@ -9882,59 +9724,59 @@
       </c>
       <c r="C99" s="104"/>
       <c r="D99" s="87" t="str">
-        <f t="shared" ref="D99:Q99" si="24">IF(D28&lt;&gt;0,D90-D97-D98,"")</f>
+        <f t="shared" ref="D99:Q99" si="23">IF(D28&lt;&gt;0,D90-D97-D98,"")</f>
         <v/>
       </c>
       <c r="E99" s="87" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="F99" s="87" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="G99" s="87" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H99" s="87" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I99" s="87" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="J99" s="87" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="K99" s="87" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="L99" s="87" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="M99" s="87" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="N99" s="87" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O99" s="87" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="P99" s="87" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="Q99" s="87" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9944,59 +9786,59 @@
       </c>
       <c r="C100" s="54"/>
       <c r="D100" s="90" t="str">
-        <f t="shared" ref="D100:Q100" si="25">IF(D28&lt;&gt;0,SUM(D93:D99),"")</f>
+        <f t="shared" ref="D100:Q100" si="24">IF(D28&lt;&gt;0,SUM(D93:D99),"")</f>
         <v/>
       </c>
       <c r="E100" s="90" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F100" s="90" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="G100" s="90" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="H100" s="90" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I100" s="90" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="J100" s="90" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="K100" s="90" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="L100" s="90" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="M100" s="90" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="N100" s="90" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="O100" s="90" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="P100" s="90" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q100" s="90" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -10132,7 +9974,7 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10263,12 +10105,8 @@
       <c r="S6" s="27"/>
     </row>
     <row r="7" spans="1:20" ht="57.75" customHeight="1">
-      <c r="B7" s="31">
-        <v>2021</v>
-      </c>
-      <c r="C7" s="136" t="s">
-        <v>119</v>
-      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="136"/>
       <c r="D7" s="132"/>
       <c r="E7" s="132"/>
       <c r="F7" s="132"/>
@@ -10288,12 +10126,8 @@
       <c r="T7" s="5"/>
     </row>
     <row r="8" spans="1:20" ht="63" customHeight="1">
-      <c r="B8" s="31">
-        <v>2021</v>
-      </c>
-      <c r="C8" s="132" t="s">
-        <v>120</v>
-      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="132"/>
       <c r="D8" s="132"/>
       <c r="E8" s="132"/>
       <c r="F8" s="132"/>
@@ -10694,7 +10528,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11623,8 +11457,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:AC55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -11698,57 +11532,57 @@
         <f>'Portfolio Emissions'!D12</f>
         <v>Select Base Year</v>
       </c>
-      <c r="Q11" s="52" t="str">
+      <c r="Q11" s="52">
         <f>'Portfolio Emissions'!E12</f>
-        <v/>
-      </c>
-      <c r="R11" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="R11" s="52">
         <f>'Portfolio Emissions'!F12</f>
-        <v/>
-      </c>
-      <c r="S11" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="S11" s="52">
         <f>'Portfolio Emissions'!G12</f>
-        <v/>
-      </c>
-      <c r="T11" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="T11" s="52">
         <f>'Portfolio Emissions'!H12</f>
-        <v/>
-      </c>
-      <c r="U11" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="U11" s="52">
         <f>'Portfolio Emissions'!I12</f>
-        <v/>
-      </c>
-      <c r="V11" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="V11" s="52">
         <f>'Portfolio Emissions'!J12</f>
-        <v/>
-      </c>
-      <c r="W11" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="W11" s="52">
         <f>'Portfolio Emissions'!K12</f>
-        <v/>
-      </c>
-      <c r="X11" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="X11" s="52">
         <f>'Portfolio Emissions'!L12</f>
-        <v/>
-      </c>
-      <c r="Y11" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="52">
         <f>'Portfolio Emissions'!M12</f>
-        <v/>
-      </c>
-      <c r="Z11" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="52">
         <f>'Portfolio Emissions'!N12</f>
-        <v/>
-      </c>
-      <c r="AA11" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="52">
         <f>'Portfolio Emissions'!O12</f>
-        <v/>
-      </c>
-      <c r="AB11" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="52">
         <f>'Portfolio Emissions'!P12</f>
-        <v/>
-      </c>
-      <c r="AC11" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="52">
         <f>'Portfolio Emissions'!Q12</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:29" ht="16">
@@ -12264,10 +12098,10 @@
     <mergeCell ref="B3:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="R30:R36">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>R30&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>R30&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/assets/csv_templates/Better-Climate-Challenge-Emissions-Reporting.xlsx
+++ b/src/assets/csv_templates/Better-Climate-Challenge-Emissions-Reporting.xlsx
@@ -8,26 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/txr/dev/VERIFI/src/assets/csv_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4FFA17-C803-434A-9854-1F48FE4C8E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF9193D-B992-664E-8347-156C4E5B8D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="17640" xr2:uid="{9E0B5763-0FE8-425F-B782-C4A4D911BFA4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{9E0B5763-0FE8-425F-B782-C4A4D911BFA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio Emissions" sheetId="26" r:id="rId1"/>
     <sheet name="Emissions Reduction Initiatives" sheetId="17" r:id="rId2"/>
     <sheet name="Facility Emissions" sheetId="19" r:id="rId3"/>
     <sheet name="Comments" sheetId="21" r:id="rId4"/>
-    <sheet name="Display" sheetId="24" r:id="rId5"/>
-    <sheet name="Data Validation" sheetId="2" r:id="rId6"/>
+    <sheet name="Display" sheetId="24" state="hidden" r:id="rId5"/>
+    <sheet name="Data Validation" sheetId="2" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Display!$O$30:$O$39</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Display!$O$31:$O$37</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Display!$P$30:$P$39</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Display!$P$47:$P$55</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Display!$Q$31:$Q$37</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Display!$O$30:$O$39</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Display!$O$31:$O$37</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Display!$P$47:$P$55</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Display!$P$30:$P$39</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Display!$Q$31:$Q$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Comments!$A$1:$K$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Emissions Reduction Initiatives'!$A$1:$K$10</definedName>
@@ -3276,18 +3276,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3576,18 +3576,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6835,7 +6835,7 @@
   </sheetPr>
   <dimension ref="A1:U100"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
@@ -10903,7 +10903,7 @@
   </sheetPr>
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
@@ -11457,7 +11457,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:AC55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>

--- a/src/assets/csv_templates/Better-Climate-Challenge-Emissions-Reporting.xlsx
+++ b/src/assets/csv_templates/Better-Climate-Challenge-Emissions-Reporting.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83F21BF-220B-F74A-8F89-F18A44F21FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E61B2F-AC44-1243-90F5-728565D54C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25220" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="38080" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio Emissions" sheetId="26" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Facility Emissions'!$A1:$H12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Portfolio Emissions'!$A1:$I37</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1174,7 +1174,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="59">
     <font>
@@ -2085,13 +2085,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2100,7 +2100,7 @@
     <xf numFmtId="0" fontId="40" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="40" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="40" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2109,7 +2109,7 @@
     <xf numFmtId="0" fontId="41" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="41" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="41" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2118,13 +2118,13 @@
     <xf numFmtId="0" fontId="42" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="42" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="42" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="42" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="42" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2133,7 +2133,7 @@
     <xf numFmtId="0" fontId="42" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="42" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="42" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2142,7 +2142,7 @@
     <xf numFmtId="0" fontId="43" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="43" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="43" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2151,13 +2151,13 @@
     <xf numFmtId="0" fontId="44" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="44" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="44" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2252,90 +2252,11 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2367,6 +2288,15 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2383,7 +2313,74 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2397,6 +2394,9 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2633,9 +2633,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2673,7 +2673,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2779,7 +2779,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2921,7 +2921,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2934,8 +2934,8 @@
   </sheetPr>
   <dimension ref="A1:AI632"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S143" sqref="S143"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A90" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S114" sqref="S114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15"/>
@@ -3071,24 +3071,24 @@
     </row>
     <row r="4" spans="1:35" ht="15" customHeight="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="177" t="s">
+      <c r="B4" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163"/>
-      <c r="O4" s="163"/>
-      <c r="P4" s="163"/>
-      <c r="Q4" s="178"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155"/>
+      <c r="O4" s="155"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="156"/>
       <c r="R4" s="9"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
@@ -3110,24 +3110,24 @@
     </row>
     <row r="5" spans="1:35" ht="15" customHeight="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="177" t="s">
+      <c r="B5" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="163"/>
-      <c r="O5" s="163"/>
-      <c r="P5" s="163"/>
-      <c r="Q5" s="178"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="155"/>
+      <c r="M5" s="155"/>
+      <c r="N5" s="155"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="155"/>
+      <c r="Q5" s="156"/>
       <c r="R5" s="10"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
@@ -3149,24 +3149,24 @@
     </row>
     <row r="6" spans="1:35" ht="15" customHeight="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="177" t="s">
+      <c r="B6" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-      <c r="M6" s="163"/>
-      <c r="N6" s="163"/>
-      <c r="O6" s="163"/>
-      <c r="P6" s="163"/>
-      <c r="Q6" s="178"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="155"/>
+      <c r="N6" s="155"/>
+      <c r="O6" s="155"/>
+      <c r="P6" s="155"/>
+      <c r="Q6" s="156"/>
       <c r="R6" s="10"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
@@ -3188,24 +3188,24 @@
     </row>
     <row r="7" spans="1:35" ht="15" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="177" t="s">
+      <c r="B7" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="178"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="155"/>
+      <c r="M7" s="155"/>
+      <c r="N7" s="155"/>
+      <c r="O7" s="155"/>
+      <c r="P7" s="155"/>
+      <c r="Q7" s="156"/>
       <c r="R7" s="10"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -3227,24 +3227,24 @@
     </row>
     <row r="8" spans="1:35" ht="15" customHeight="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="179" t="s">
+      <c r="B8" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="180"/>
-      <c r="D8" s="180"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="180"/>
-      <c r="K8" s="180"/>
-      <c r="L8" s="180"/>
-      <c r="M8" s="180"/>
-      <c r="N8" s="180"/>
-      <c r="O8" s="180"/>
-      <c r="P8" s="180"/>
-      <c r="Q8" s="181"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="158"/>
+      <c r="K8" s="158"/>
+      <c r="L8" s="158"/>
+      <c r="M8" s="158"/>
+      <c r="N8" s="158"/>
+      <c r="O8" s="158"/>
+      <c r="P8" s="158"/>
+      <c r="Q8" s="159"/>
       <c r="R8" s="10"/>
       <c r="S8" s="6"/>
       <c r="T8" s="11"/>
@@ -3306,16 +3306,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="130"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="183"/>
-      <c r="I10" s="183"/>
-      <c r="J10" s="183"/>
-      <c r="K10" s="183"/>
-      <c r="L10" s="183"/>
-      <c r="M10" s="184"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="161"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="162"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="14"/>
     </row>
@@ -3364,16 +3364,16 @@
       <c r="C12" s="133"/>
       <c r="D12" s="15"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="170" t="s">
+      <c r="F12" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="171"/>
-      <c r="H12" s="171"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="185"/>
-      <c r="K12" s="186"/>
-      <c r="L12" s="186"/>
-      <c r="M12" s="187"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="166"/>
+      <c r="K12" s="167"/>
+      <c r="L12" s="167"/>
+      <c r="M12" s="168"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -3405,16 +3405,16 @@
       <c r="C13" s="133"/>
       <c r="D13" s="16"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="170" t="s">
+      <c r="F13" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="171"/>
-      <c r="H13" s="171"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="188"/>
-      <c r="K13" s="174"/>
-      <c r="L13" s="174"/>
-      <c r="M13" s="175"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="165"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="170"/>
+      <c r="L13" s="170"/>
+      <c r="M13" s="171"/>
       <c r="N13" s="6"/>
       <c r="O13" s="17"/>
       <c r="P13" s="6"/>
@@ -3446,16 +3446,16 @@
       <c r="C14" s="132"/>
       <c r="D14" s="16"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="170" t="s">
+      <c r="F14" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="171"/>
-      <c r="H14" s="171"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="174"/>
-      <c r="L14" s="174"/>
-      <c r="M14" s="175"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="172"/>
+      <c r="K14" s="170"/>
+      <c r="L14" s="170"/>
+      <c r="M14" s="171"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -3597,24 +3597,24 @@
     </row>
     <row r="17" spans="1:35" ht="17.75" customHeight="1">
       <c r="A17" s="6"/>
-      <c r="B17" s="165" t="s">
+      <c r="B17" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="165"/>
-      <c r="D17" s="165"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="165"/>
-      <c r="G17" s="165"/>
-      <c r="H17" s="165"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="165"/>
-      <c r="K17" s="165"/>
-      <c r="L17" s="165"/>
-      <c r="M17" s="165"/>
-      <c r="N17" s="165"/>
-      <c r="O17" s="165"/>
-      <c r="P17" s="165"/>
-      <c r="Q17" s="165"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="173"/>
+      <c r="K17" s="173"/>
+      <c r="L17" s="173"/>
+      <c r="M17" s="173"/>
+      <c r="N17" s="173"/>
+      <c r="O17" s="173"/>
+      <c r="P17" s="173"/>
+      <c r="Q17" s="173"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
@@ -3673,10 +3673,10 @@
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="22.25" customHeight="1">
       <c r="A19" s="20"/>
-      <c r="B19" s="176" t="s">
+      <c r="B19" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="176"/>
+      <c r="C19" s="174"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
@@ -3712,10 +3712,10 @@
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="22.25" customHeight="1">
       <c r="A20" s="20"/>
-      <c r="B20" s="176" t="s">
+      <c r="B20" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="176"/>
+      <c r="C20" s="174"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
@@ -3788,24 +3788,24 @@
     </row>
     <row r="22" spans="1:35" ht="17.75" customHeight="1">
       <c r="A22" s="6"/>
-      <c r="B22" s="165" t="s">
+      <c r="B22" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="165"/>
-      <c r="D22" s="165"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="165"/>
-      <c r="G22" s="165"/>
-      <c r="H22" s="165"/>
-      <c r="I22" s="165"/>
-      <c r="J22" s="165"/>
-      <c r="K22" s="165"/>
-      <c r="L22" s="165"/>
-      <c r="M22" s="165"/>
-      <c r="N22" s="165"/>
-      <c r="O22" s="165"/>
-      <c r="P22" s="165"/>
-      <c r="Q22" s="165"/>
+      <c r="C22" s="173"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="173"/>
+      <c r="K22" s="173"/>
+      <c r="L22" s="173"/>
+      <c r="M22" s="173"/>
+      <c r="N22" s="173"/>
+      <c r="O22" s="173"/>
+      <c r="P22" s="173"/>
+      <c r="Q22" s="173"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
@@ -3864,10 +3864,10 @@
     </row>
     <row r="24" spans="1:35" ht="22.25" customHeight="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="166" t="s">
+      <c r="B24" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="166"/>
+      <c r="C24" s="175"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
@@ -3884,8 +3884,8 @@
       <c r="Q24" s="25"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
-      <c r="T24" s="166"/>
-      <c r="U24" s="166"/>
+      <c r="T24" s="175"/>
+      <c r="U24" s="175"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
@@ -3903,10 +3903,10 @@
     </row>
     <row r="25" spans="1:35" ht="22.25" customHeight="1">
       <c r="A25" s="6"/>
-      <c r="B25" s="168" t="s">
+      <c r="B25" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="168"/>
+      <c r="C25" s="176"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -3923,8 +3923,8 @@
       <c r="Q25" s="25"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
-      <c r="T25" s="169"/>
-      <c r="U25" s="169"/>
+      <c r="T25" s="177"/>
+      <c r="U25" s="177"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
@@ -3942,10 +3942,10 @@
     </row>
     <row r="26" spans="1:35" ht="22.25" customHeight="1">
       <c r="A26" s="6"/>
-      <c r="B26" s="168" t="s">
+      <c r="B26" s="176" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="168"/>
+      <c r="C26" s="176"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -3962,8 +3962,8 @@
       <c r="Q26" s="25"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
-      <c r="T26" s="169"/>
-      <c r="U26" s="169"/>
+      <c r="T26" s="177"/>
+      <c r="U26" s="177"/>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
@@ -3981,10 +3981,10 @@
     </row>
     <row r="27" spans="1:35" ht="22.25" customHeight="1">
       <c r="A27" s="6"/>
-      <c r="B27" s="168" t="s">
+      <c r="B27" s="176" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="168"/>
+      <c r="C27" s="176"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -4001,8 +4001,8 @@
       <c r="Q27" s="25"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
-      <c r="T27" s="169"/>
-      <c r="U27" s="169"/>
+      <c r="T27" s="177"/>
+      <c r="U27" s="177"/>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
@@ -4020,10 +4020,10 @@
     </row>
     <row r="28" spans="1:35" ht="22.25" customHeight="1">
       <c r="A28" s="6"/>
-      <c r="B28" s="168" t="s">
+      <c r="B28" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="168"/>
+      <c r="C28" s="176"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
@@ -4059,10 +4059,10 @@
     </row>
     <row r="29" spans="1:35" ht="22.25" customHeight="1">
       <c r="A29" s="6"/>
-      <c r="B29" s="166" t="s">
+      <c r="B29" s="175" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="166"/>
+      <c r="C29" s="175"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
@@ -4079,8 +4079,8 @@
       <c r="Q29" s="25"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
-      <c r="T29" s="166"/>
-      <c r="U29" s="166"/>
+      <c r="T29" s="175"/>
+      <c r="U29" s="175"/>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
@@ -4098,10 +4098,10 @@
     </row>
     <row r="30" spans="1:35" ht="22.25" customHeight="1">
       <c r="A30" s="6"/>
-      <c r="B30" s="166" t="s">
+      <c r="B30" s="175" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="166"/>
+      <c r="C30" s="175"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
@@ -4118,8 +4118,8 @@
       <c r="Q30" s="25"/>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
-      <c r="T30" s="166"/>
-      <c r="U30" s="166"/>
+      <c r="T30" s="175"/>
+      <c r="U30" s="175"/>
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
@@ -4137,10 +4137,10 @@
     </row>
     <row r="31" spans="1:35" ht="22.25" customHeight="1">
       <c r="A31" s="6"/>
-      <c r="B31" s="166" t="s">
+      <c r="B31" s="175" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="166"/>
+      <c r="C31" s="175"/>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
@@ -4176,10 +4176,10 @@
     </row>
     <row r="32" spans="1:35" ht="22.25" customHeight="1">
       <c r="A32" s="6"/>
-      <c r="B32" s="166" t="s">
+      <c r="B32" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="166"/>
+      <c r="C32" s="175"/>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
@@ -4215,10 +4215,10 @@
     </row>
     <row r="33" spans="1:35" ht="22.25" customHeight="1">
       <c r="A33" s="6"/>
-      <c r="B33" s="166" t="s">
+      <c r="B33" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="166"/>
+      <c r="C33" s="175"/>
       <c r="D33" s="28">
         <f>IFERROR(IF($J$13="Market-Based GHG Goal",SUM(D24,D30,D32),SUM(D24,D29,D31)), "")</f>
         <v>0</v>
@@ -4277,8 +4277,8 @@
       </c>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
-      <c r="T33" s="166"/>
-      <c r="U33" s="166"/>
+      <c r="T33" s="175"/>
+      <c r="U33" s="175"/>
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
@@ -4296,10 +4296,10 @@
     </row>
     <row r="34" spans="1:35" ht="22.25" customHeight="1">
       <c r="A34" s="6"/>
-      <c r="B34" s="166" t="s">
+      <c r="B34" s="175" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="166"/>
+      <c r="C34" s="175"/>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
@@ -4372,24 +4372,24 @@
     </row>
     <row r="36" spans="1:35" ht="17.75" customHeight="1">
       <c r="A36" s="6"/>
-      <c r="B36" s="165" t="s">
+      <c r="B36" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
-      <c r="E36" s="165"/>
-      <c r="F36" s="165"/>
-      <c r="G36" s="165"/>
-      <c r="H36" s="165"/>
-      <c r="I36" s="165"/>
-      <c r="J36" s="165"/>
-      <c r="K36" s="165"/>
-      <c r="L36" s="165"/>
-      <c r="M36" s="165"/>
-      <c r="N36" s="165"/>
-      <c r="O36" s="165"/>
-      <c r="P36" s="165"/>
-      <c r="Q36" s="165"/>
+      <c r="C36" s="173"/>
+      <c r="D36" s="173"/>
+      <c r="E36" s="173"/>
+      <c r="F36" s="173"/>
+      <c r="G36" s="173"/>
+      <c r="H36" s="173"/>
+      <c r="I36" s="173"/>
+      <c r="J36" s="173"/>
+      <c r="K36" s="173"/>
+      <c r="L36" s="173"/>
+      <c r="M36" s="173"/>
+      <c r="N36" s="173"/>
+      <c r="O36" s="173"/>
+      <c r="P36" s="173"/>
+      <c r="Q36" s="173"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
@@ -4448,10 +4448,10 @@
     </row>
     <row r="38" spans="1:35" ht="22.25" customHeight="1">
       <c r="A38" s="6"/>
-      <c r="B38" s="160" t="s">
+      <c r="B38" s="178" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="160"/>
+      <c r="C38" s="178"/>
       <c r="D38" s="28" t="str">
         <f>IF(D33&lt;&gt;0,($D$33-D33), "")</f>
         <v/>
@@ -4529,10 +4529,10 @@
     </row>
     <row r="39" spans="1:35" ht="22.25" customHeight="1">
       <c r="A39" s="6"/>
-      <c r="B39" s="160" t="s">
+      <c r="B39" s="178" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="160"/>
+      <c r="C39" s="178"/>
       <c r="D39" s="29" t="str">
         <f>IF(D33&lt;&gt;0,D38/$D$33, "")</f>
         <v/>
@@ -4647,24 +4647,24 @@
     </row>
     <row r="41" spans="1:35" ht="17.75" customHeight="1">
       <c r="A41" s="6"/>
-      <c r="B41" s="165" t="s">
+      <c r="B41" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="165"/>
-      <c r="D41" s="165"/>
-      <c r="E41" s="165"/>
-      <c r="F41" s="165"/>
-      <c r="G41" s="165"/>
-      <c r="H41" s="165"/>
-      <c r="I41" s="165"/>
-      <c r="J41" s="165"/>
-      <c r="K41" s="165"/>
-      <c r="L41" s="165"/>
-      <c r="M41" s="165"/>
-      <c r="N41" s="165"/>
-      <c r="O41" s="165"/>
-      <c r="P41" s="165"/>
-      <c r="Q41" s="165"/>
+      <c r="C41" s="173"/>
+      <c r="D41" s="173"/>
+      <c r="E41" s="173"/>
+      <c r="F41" s="173"/>
+      <c r="G41" s="173"/>
+      <c r="H41" s="173"/>
+      <c r="I41" s="173"/>
+      <c r="J41" s="173"/>
+      <c r="K41" s="173"/>
+      <c r="L41" s="173"/>
+      <c r="M41" s="173"/>
+      <c r="N41" s="173"/>
+      <c r="O41" s="173"/>
+      <c r="P41" s="173"/>
+      <c r="Q41" s="173"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
       <c r="T41" s="6"/>
@@ -4723,10 +4723,10 @@
     </row>
     <row r="43" spans="1:35" s="30" customFormat="1" ht="22.25" customHeight="1">
       <c r="A43" s="31"/>
-      <c r="B43" s="160" t="s">
+      <c r="B43" s="178" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="160"/>
+      <c r="C43" s="178"/>
       <c r="D43" s="32">
         <f>IF(D45&lt;&gt;0, SUM(D44:D45), 0)</f>
         <v>0</v>
@@ -4804,10 +4804,10 @@
     </row>
     <row r="44" spans="1:35" ht="22.25" customHeight="1">
       <c r="A44" s="6"/>
-      <c r="B44" s="168" t="s">
+      <c r="B44" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="168"/>
+      <c r="C44" s="176"/>
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
@@ -4822,8 +4822,8 @@
       <c r="O44" s="33"/>
       <c r="P44" s="33"/>
       <c r="Q44" s="33"/>
-      <c r="S44" s="169"/>
-      <c r="T44" s="169"/>
+      <c r="S44" s="177"/>
+      <c r="T44" s="177"/>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
@@ -4842,10 +4842,10 @@
     </row>
     <row r="45" spans="1:35" ht="22.25" customHeight="1">
       <c r="A45" s="6"/>
-      <c r="B45" s="168" t="s">
+      <c r="B45" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="168"/>
+      <c r="C45" s="176"/>
       <c r="D45" s="34"/>
       <c r="E45" s="34"/>
       <c r="F45" s="34"/>
@@ -4860,8 +4860,8 @@
       <c r="O45" s="35"/>
       <c r="P45" s="35"/>
       <c r="Q45" s="35"/>
-      <c r="S45" s="169"/>
-      <c r="T45" s="169"/>
+      <c r="S45" s="177"/>
+      <c r="T45" s="177"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
@@ -4880,10 +4880,10 @@
     </row>
     <row r="46" spans="1:35" ht="22.25" customHeight="1">
       <c r="A46" s="6"/>
-      <c r="B46" s="167" t="s">
+      <c r="B46" s="179" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="167"/>
+      <c r="C46" s="179"/>
       <c r="D46" s="34"/>
       <c r="E46" s="34"/>
       <c r="F46" s="34"/>
@@ -4918,10 +4918,10 @@
     </row>
     <row r="47" spans="1:35" ht="22.25" customHeight="1">
       <c r="A47" s="6"/>
-      <c r="B47" s="167" t="s">
+      <c r="B47" s="179" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="167"/>
+      <c r="C47" s="179"/>
       <c r="D47" s="34"/>
       <c r="E47" s="34"/>
       <c r="F47" s="34"/>
@@ -4956,10 +4956,10 @@
     </row>
     <row r="48" spans="1:35" ht="22.25" customHeight="1">
       <c r="A48" s="6"/>
-      <c r="B48" s="167" t="s">
+      <c r="B48" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="167"/>
+      <c r="C48" s="179"/>
       <c r="D48" s="36"/>
       <c r="E48" s="36"/>
       <c r="F48" s="36"/>
@@ -4974,8 +4974,8 @@
       <c r="O48" s="33"/>
       <c r="P48" s="33"/>
       <c r="Q48" s="33"/>
-      <c r="S48" s="169"/>
-      <c r="T48" s="169"/>
+      <c r="S48" s="177"/>
+      <c r="T48" s="177"/>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
@@ -4994,10 +4994,10 @@
     </row>
     <row r="49" spans="1:35" ht="22.25" customHeight="1">
       <c r="A49" s="6"/>
-      <c r="B49" s="167" t="s">
+      <c r="B49" s="179" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="167"/>
+      <c r="C49" s="179"/>
       <c r="D49" s="37">
         <f>D45-SUM(D46:D48)</f>
         <v>0</v>
@@ -5074,10 +5074,10 @@
     </row>
     <row r="50" spans="1:35" ht="22.25" customHeight="1">
       <c r="A50" s="6"/>
-      <c r="B50" s="160" t="s">
+      <c r="B50" s="178" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="160"/>
+      <c r="C50" s="178"/>
       <c r="D50" s="24"/>
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
@@ -5092,8 +5092,8 @@
       <c r="O50" s="33"/>
       <c r="P50" s="33"/>
       <c r="Q50" s="33"/>
-      <c r="S50" s="166"/>
-      <c r="T50" s="166"/>
+      <c r="S50" s="175"/>
+      <c r="T50" s="175"/>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
@@ -5112,10 +5112,10 @@
     </row>
     <row r="51" spans="1:35" ht="22.25" customHeight="1">
       <c r="A51" s="6"/>
-      <c r="B51" s="160" t="s">
+      <c r="B51" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="160"/>
+      <c r="C51" s="178"/>
       <c r="D51" s="24"/>
       <c r="E51" s="24"/>
       <c r="F51" s="24"/>
@@ -5150,10 +5150,10 @@
     </row>
     <row r="52" spans="1:35" ht="22.25" customHeight="1">
       <c r="A52" s="6"/>
-      <c r="B52" s="160" t="s">
+      <c r="B52" s="178" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="160"/>
+      <c r="C52" s="178"/>
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
       <c r="F52" s="24"/>
@@ -5188,10 +5188,10 @@
     </row>
     <row r="53" spans="1:35" ht="22.25" customHeight="1">
       <c r="A53" s="6"/>
-      <c r="B53" s="166" t="s">
+      <c r="B53" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="166"/>
+      <c r="C53" s="175"/>
       <c r="D53" s="24"/>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
@@ -5206,8 +5206,8 @@
       <c r="O53" s="33"/>
       <c r="P53" s="33"/>
       <c r="Q53" s="33"/>
-      <c r="S53" s="162"/>
-      <c r="T53" s="162"/>
+      <c r="S53" s="180"/>
+      <c r="T53" s="180"/>
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
       <c r="W53" s="6"/>
@@ -5226,10 +5226,10 @@
     </row>
     <row r="54" spans="1:35" ht="22.25" customHeight="1">
       <c r="A54" s="6"/>
-      <c r="B54" s="163" t="s">
+      <c r="B54" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="163"/>
+      <c r="C54" s="155"/>
       <c r="D54" s="24"/>
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
@@ -5264,10 +5264,10 @@
     </row>
     <row r="55" spans="1:35" ht="22.25" customHeight="1">
       <c r="A55" s="6"/>
-      <c r="B55" s="163" t="s">
+      <c r="B55" s="155" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="163"/>
+      <c r="C55" s="155"/>
       <c r="D55" s="24"/>
       <c r="E55" s="24"/>
       <c r="F55" s="24"/>
@@ -5302,10 +5302,10 @@
     </row>
     <row r="56" spans="1:35" ht="22.25" customHeight="1">
       <c r="A56" s="6"/>
-      <c r="B56" s="163" t="s">
+      <c r="B56" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="163"/>
+      <c r="C56" s="155"/>
       <c r="D56" s="24"/>
       <c r="E56" s="24"/>
       <c r="F56" s="24"/>
@@ -5340,10 +5340,10 @@
     </row>
     <row r="57" spans="1:35" ht="22.25" customHeight="1">
       <c r="A57" s="6"/>
-      <c r="B57" s="163" t="s">
+      <c r="B57" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="C57" s="163"/>
+      <c r="C57" s="155"/>
       <c r="D57" s="24"/>
       <c r="E57" s="24"/>
       <c r="F57" s="24"/>
@@ -5378,10 +5378,10 @@
     </row>
     <row r="58" spans="1:35" ht="22.25" customHeight="1">
       <c r="A58" s="6"/>
-      <c r="B58" s="163" t="s">
+      <c r="B58" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="C58" s="163"/>
+      <c r="C58" s="155"/>
       <c r="D58" s="24"/>
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
@@ -5416,10 +5416,10 @@
     </row>
     <row r="59" spans="1:35" ht="22.25" customHeight="1">
       <c r="A59" s="6"/>
-      <c r="B59" s="161" t="s">
+      <c r="B59" s="181" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="161"/>
+      <c r="C59" s="181"/>
       <c r="D59" s="40"/>
       <c r="E59" s="40"/>
       <c r="F59" s="40"/>
@@ -5454,10 +5454,10 @@
     </row>
     <row r="60" spans="1:35" ht="22.25" customHeight="1">
       <c r="A60" s="6"/>
-      <c r="B60" s="161" t="s">
+      <c r="B60" s="181" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="161"/>
+      <c r="C60" s="181"/>
       <c r="D60" s="40"/>
       <c r="E60" s="40"/>
       <c r="F60" s="40"/>
@@ -5492,10 +5492,10 @@
     </row>
     <row r="61" spans="1:35" ht="22.25" customHeight="1">
       <c r="A61" s="6"/>
-      <c r="B61" s="161" t="s">
+      <c r="B61" s="181" t="s">
         <v>53</v>
       </c>
-      <c r="C61" s="161"/>
+      <c r="C61" s="181"/>
       <c r="D61" s="40"/>
       <c r="E61" s="40"/>
       <c r="F61" s="40"/>
@@ -5530,10 +5530,10 @@
     </row>
     <row r="62" spans="1:35" ht="22.25" customHeight="1">
       <c r="A62" s="6"/>
-      <c r="B62" s="161" t="s">
+      <c r="B62" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="C62" s="161"/>
+      <c r="C62" s="181"/>
       <c r="D62" s="40"/>
       <c r="E62" s="40"/>
       <c r="F62" s="40"/>
@@ -5568,10 +5568,10 @@
     </row>
     <row r="63" spans="1:35" ht="22.25" customHeight="1">
       <c r="A63" s="6"/>
-      <c r="B63" s="161" t="s">
+      <c r="B63" s="181" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="161"/>
+      <c r="C63" s="181"/>
       <c r="D63" s="40"/>
       <c r="E63" s="40"/>
       <c r="F63" s="40"/>
@@ -5606,10 +5606,10 @@
     </row>
     <row r="64" spans="1:35" ht="22.25" customHeight="1">
       <c r="A64" s="6"/>
-      <c r="B64" s="161" t="s">
+      <c r="B64" s="181" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="161"/>
+      <c r="C64" s="181"/>
       <c r="D64" s="40"/>
       <c r="E64" s="40"/>
       <c r="F64" s="40"/>
@@ -5682,10 +5682,10 @@
     </row>
     <row r="66" spans="1:35" ht="22.25" customHeight="1">
       <c r="A66" s="6"/>
-      <c r="B66" s="161" t="s">
+      <c r="B66" s="181" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="161"/>
+      <c r="C66" s="181"/>
       <c r="D66" s="40"/>
       <c r="E66" s="40"/>
       <c r="F66" s="40"/>
@@ -5758,10 +5758,10 @@
     </row>
     <row r="68" spans="1:35" ht="22.25" customHeight="1">
       <c r="A68" s="6"/>
-      <c r="B68" s="163" t="s">
+      <c r="B68" s="155" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="163"/>
+      <c r="C68" s="155"/>
       <c r="D68" s="24"/>
       <c r="E68" s="24"/>
       <c r="F68" s="24"/>
@@ -5796,10 +5796,10 @@
     </row>
     <row r="69" spans="1:35" ht="22.25" customHeight="1">
       <c r="A69" s="6"/>
-      <c r="B69" s="163" t="s">
+      <c r="B69" s="155" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="163"/>
+      <c r="C69" s="155"/>
       <c r="D69" s="24"/>
       <c r="E69" s="24"/>
       <c r="F69" s="24"/>
@@ -5834,10 +5834,10 @@
     </row>
     <row r="70" spans="1:35" ht="22.25" customHeight="1">
       <c r="A70" s="6"/>
-      <c r="B70" s="163" t="s">
+      <c r="B70" s="155" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="163"/>
+      <c r="C70" s="155"/>
       <c r="D70" s="28" t="str">
         <f>IFERROR(IF(SUM(D43,D50:D69)&lt;&gt;0, SUM(D50:D69)+(D43*3.412), ""), "")</f>
         <v/>
@@ -5952,24 +5952,24 @@
     </row>
     <row r="72" spans="1:35" ht="17.75" customHeight="1">
       <c r="A72" s="6"/>
-      <c r="B72" s="165" t="s">
+      <c r="B72" s="173" t="s">
         <v>63</v>
       </c>
-      <c r="C72" s="165"/>
-      <c r="D72" s="165"/>
-      <c r="E72" s="165"/>
-      <c r="F72" s="165"/>
-      <c r="G72" s="165"/>
-      <c r="H72" s="165"/>
-      <c r="I72" s="165"/>
-      <c r="J72" s="165"/>
-      <c r="K72" s="165"/>
-      <c r="L72" s="165"/>
-      <c r="M72" s="165"/>
-      <c r="N72" s="165"/>
-      <c r="O72" s="165"/>
-      <c r="P72" s="165"/>
-      <c r="Q72" s="165"/>
+      <c r="C72" s="173"/>
+      <c r="D72" s="173"/>
+      <c r="E72" s="173"/>
+      <c r="F72" s="173"/>
+      <c r="G72" s="173"/>
+      <c r="H72" s="173"/>
+      <c r="I72" s="173"/>
+      <c r="J72" s="173"/>
+      <c r="K72" s="173"/>
+      <c r="L72" s="173"/>
+      <c r="M72" s="173"/>
+      <c r="N72" s="173"/>
+      <c r="O72" s="173"/>
+      <c r="P72" s="173"/>
+      <c r="Q72" s="173"/>
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
       <c r="T72" s="6"/>
@@ -6028,10 +6028,10 @@
     </row>
     <row r="74" spans="1:35" s="30" customFormat="1" ht="22.25" customHeight="1">
       <c r="A74" s="31"/>
-      <c r="B74" s="161" t="s">
+      <c r="B74" s="181" t="s">
         <v>64</v>
       </c>
-      <c r="C74" s="161"/>
+      <c r="C74" s="181"/>
       <c r="D74" s="25"/>
       <c r="E74" s="25"/>
       <c r="F74" s="25"/>
@@ -6067,10 +6067,10 @@
     </row>
     <row r="75" spans="1:35" ht="22.25" customHeight="1">
       <c r="A75" s="6"/>
-      <c r="B75" s="161" t="s">
+      <c r="B75" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="C75" s="161"/>
+      <c r="C75" s="181"/>
       <c r="D75" s="34"/>
       <c r="E75" s="34"/>
       <c r="F75" s="34"/>
@@ -6086,8 +6086,8 @@
       <c r="P75" s="33"/>
       <c r="Q75" s="33"/>
       <c r="R75" s="6"/>
-      <c r="S75" s="166"/>
-      <c r="T75" s="166"/>
+      <c r="S75" s="175"/>
+      <c r="T75" s="175"/>
       <c r="U75" s="6"/>
       <c r="V75" s="6"/>
       <c r="W75" s="6"/>
@@ -6106,10 +6106,10 @@
     </row>
     <row r="76" spans="1:35" ht="22.25" customHeight="1">
       <c r="A76" s="6"/>
-      <c r="B76" s="161" t="s">
+      <c r="B76" s="181" t="s">
         <v>55</v>
       </c>
-      <c r="C76" s="161"/>
+      <c r="C76" s="181"/>
       <c r="D76" s="25"/>
       <c r="E76" s="25"/>
       <c r="F76" s="25"/>
@@ -6145,10 +6145,10 @@
     </row>
     <row r="77" spans="1:35" ht="22.25" customHeight="1">
       <c r="A77" s="6"/>
-      <c r="B77" s="161" t="s">
+      <c r="B77" s="181" t="s">
         <v>56</v>
       </c>
-      <c r="C77" s="161"/>
+      <c r="C77" s="181"/>
       <c r="D77" s="25"/>
       <c r="E77" s="25"/>
       <c r="F77" s="25"/>
@@ -6164,8 +6164,8 @@
       <c r="P77" s="33"/>
       <c r="Q77" s="33"/>
       <c r="R77" s="6"/>
-      <c r="S77" s="162"/>
-      <c r="T77" s="162"/>
+      <c r="S77" s="180"/>
+      <c r="T77" s="180"/>
       <c r="U77" s="6"/>
       <c r="V77" s="6"/>
       <c r="W77" s="6"/>
@@ -6223,10 +6223,10 @@
     </row>
     <row r="79" spans="1:35" ht="22.25" customHeight="1">
       <c r="A79" s="6"/>
-      <c r="B79" s="161" t="s">
+      <c r="B79" s="181" t="s">
         <v>58</v>
       </c>
-      <c r="C79" s="161"/>
+      <c r="C79" s="181"/>
       <c r="D79" s="25"/>
       <c r="E79" s="25"/>
       <c r="F79" s="25"/>
@@ -6301,10 +6301,10 @@
     </row>
     <row r="81" spans="1:35" ht="22.25" customHeight="1">
       <c r="A81" s="6"/>
-      <c r="B81" s="163" t="s">
+      <c r="B81" s="155" t="s">
         <v>61</v>
       </c>
-      <c r="C81" s="163"/>
+      <c r="C81" s="155"/>
       <c r="D81" s="25"/>
       <c r="E81" s="25"/>
       <c r="F81" s="25"/>
@@ -6340,10 +6340,10 @@
     </row>
     <row r="82" spans="1:35" ht="22.25" customHeight="1">
       <c r="A82" s="6"/>
-      <c r="B82" s="163" t="s">
+      <c r="B82" s="155" t="s">
         <v>61</v>
       </c>
-      <c r="C82" s="163"/>
+      <c r="C82" s="155"/>
       <c r="D82" s="25"/>
       <c r="E82" s="25"/>
       <c r="F82" s="25"/>
@@ -6378,10 +6378,10 @@
       <c r="AI82" s="6"/>
     </row>
     <row r="83" spans="1:35" ht="22.25" customHeight="1">
-      <c r="B83" s="164" t="s">
+      <c r="B83" s="182" t="s">
         <v>65</v>
       </c>
-      <c r="C83" s="164"/>
+      <c r="C83" s="182"/>
       <c r="D83" s="135" t="str">
         <f>IFERROR(IF(SUM(D74:D82)&lt;&gt;0, SUM(D75:D82)+(D74*3.412), ""),"")</f>
         <v/>
@@ -6478,24 +6478,24 @@
     </row>
     <row r="85" spans="1:35" ht="17.75" customHeight="1">
       <c r="A85" s="6"/>
-      <c r="B85" s="165" t="s">
+      <c r="B85" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="C85" s="165"/>
-      <c r="D85" s="165"/>
-      <c r="E85" s="165"/>
-      <c r="F85" s="165"/>
-      <c r="G85" s="165"/>
-      <c r="H85" s="165"/>
-      <c r="I85" s="165"/>
-      <c r="J85" s="165"/>
-      <c r="K85" s="165"/>
-      <c r="L85" s="165"/>
-      <c r="M85" s="165"/>
-      <c r="N85" s="165"/>
-      <c r="O85" s="165"/>
-      <c r="P85" s="165"/>
-      <c r="Q85" s="165"/>
+      <c r="C85" s="173"/>
+      <c r="D85" s="173"/>
+      <c r="E85" s="173"/>
+      <c r="F85" s="173"/>
+      <c r="G85" s="173"/>
+      <c r="H85" s="173"/>
+      <c r="I85" s="173"/>
+      <c r="J85" s="173"/>
+      <c r="K85" s="173"/>
+      <c r="L85" s="173"/>
+      <c r="M85" s="173"/>
+      <c r="N85" s="173"/>
+      <c r="O85" s="173"/>
+      <c r="P85" s="173"/>
+      <c r="Q85" s="173"/>
       <c r="R85" s="6"/>
       <c r="S85" s="6"/>
       <c r="T85" s="6"/>
@@ -6554,10 +6554,10 @@
     </row>
     <row r="87" spans="1:35" s="22" customFormat="1" ht="22.25" customHeight="1">
       <c r="A87" s="11"/>
-      <c r="B87" s="160" t="s">
+      <c r="B87" s="178" t="s">
         <v>67</v>
       </c>
-      <c r="C87" s="160"/>
+      <c r="C87" s="178"/>
       <c r="D87" s="136" t="str">
         <f>IFERROR(IF(D70&lt;&gt;0,SUMPRODUCT(D$44:D$69,'Data Validation'!$I$26:$I$51)*1000/D$19, ""),"")</f>
         <v/>
@@ -6635,10 +6635,10 @@
     </row>
     <row r="88" spans="1:35" s="22" customFormat="1" ht="22.25" customHeight="1">
       <c r="A88" s="11"/>
-      <c r="B88" s="160" t="s">
+      <c r="B88" s="178" t="s">
         <v>68</v>
       </c>
-      <c r="C88" s="160"/>
+      <c r="C88" s="178"/>
       <c r="D88" s="137" t="str">
         <f>IFERROR(IF(D70&lt;&gt;0,($D$87-D87)/D87,""),"")</f>
         <v/>
@@ -6716,10 +6716,10 @@
     </row>
     <row r="89" spans="1:35" s="30" customFormat="1" ht="22.25" customHeight="1">
       <c r="A89" s="31"/>
-      <c r="B89" s="160" t="s">
+      <c r="B89" s="178" t="s">
         <v>69</v>
       </c>
-      <c r="C89" s="160"/>
+      <c r="C89" s="178"/>
       <c r="D89" s="136" t="str">
         <f>IFERROR(IF(D70&lt;&gt;0,SUMPRODUCT(D$44:D$69,'Data Validation'!$H$26:$H$51,'Data Validation'!$I$26:$I$51)*1000/D$19, ""),"")</f>
         <v/>
@@ -6797,10 +6797,10 @@
     </row>
     <row r="90" spans="1:35" s="30" customFormat="1" ht="22.25" customHeight="1">
       <c r="A90" s="31"/>
-      <c r="B90" s="160" t="s">
+      <c r="B90" s="178" t="s">
         <v>70</v>
       </c>
-      <c r="C90" s="160"/>
+      <c r="C90" s="178"/>
       <c r="D90" s="137" t="str">
         <f t="shared" ref="D90:Q90" si="9">IFERROR(IF(D70&lt;&gt;0,($D$89-D89)/D89,""),"")</f>
         <v/>
@@ -6878,10 +6878,10 @@
     </row>
     <row r="91" spans="1:35" s="30" customFormat="1" ht="22.25" customHeight="1">
       <c r="A91" s="31"/>
-      <c r="B91" s="160" t="s">
+      <c r="B91" s="178" t="s">
         <v>71</v>
       </c>
-      <c r="C91" s="160"/>
+      <c r="C91" s="178"/>
       <c r="D91" s="138"/>
       <c r="E91" s="138"/>
       <c r="F91" s="138"/>
@@ -6954,24 +6954,24 @@
     </row>
     <row r="93" spans="1:35" ht="17.75" customHeight="1">
       <c r="A93" s="44"/>
-      <c r="B93" s="159" t="s">
+      <c r="B93" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="C93" s="159"/>
-      <c r="D93" s="159"/>
-      <c r="E93" s="159"/>
-      <c r="F93" s="159"/>
-      <c r="G93" s="159"/>
-      <c r="H93" s="159"/>
-      <c r="I93" s="159"/>
-      <c r="J93" s="159"/>
-      <c r="K93" s="159"/>
-      <c r="L93" s="159"/>
-      <c r="M93" s="159"/>
-      <c r="N93" s="159"/>
-      <c r="O93" s="159"/>
-      <c r="P93" s="159"/>
-      <c r="Q93" s="159"/>
+      <c r="C93" s="183"/>
+      <c r="D93" s="183"/>
+      <c r="E93" s="183"/>
+      <c r="F93" s="183"/>
+      <c r="G93" s="183"/>
+      <c r="H93" s="183"/>
+      <c r="I93" s="183"/>
+      <c r="J93" s="183"/>
+      <c r="K93" s="183"/>
+      <c r="L93" s="183"/>
+      <c r="M93" s="183"/>
+      <c r="N93" s="183"/>
+      <c r="O93" s="183"/>
+      <c r="P93" s="183"/>
+      <c r="Q93" s="183"/>
       <c r="R93" s="44"/>
       <c r="S93" s="44"/>
       <c r="T93" s="44"/>
@@ -7030,10 +7030,10 @@
     </row>
     <row r="95" spans="1:35" s="48" customFormat="1" ht="22.25" customHeight="1">
       <c r="A95" s="49"/>
-      <c r="B95" s="156" t="s">
+      <c r="B95" s="184" t="s">
         <v>73</v>
       </c>
-      <c r="C95" s="156"/>
+      <c r="C95" s="184"/>
       <c r="D95" s="139" t="str">
         <f>IF(D33&lt;&gt;0,$D$33*(1-$D$12),"")</f>
         <v/>
@@ -7111,10 +7111,10 @@
     </row>
     <row r="96" spans="1:35" s="48" customFormat="1" ht="22.25" customHeight="1">
       <c r="A96" s="49"/>
-      <c r="B96" s="156" t="s">
+      <c r="B96" s="184" t="s">
         <v>74</v>
       </c>
-      <c r="C96" s="156"/>
+      <c r="C96" s="184"/>
       <c r="D96" s="140">
         <v>0</v>
       </c>
@@ -7272,10 +7272,10 @@
     </row>
     <row r="98" spans="1:35" ht="22.25" customHeight="1">
       <c r="A98" s="44"/>
-      <c r="B98" s="158" t="s">
+      <c r="B98" s="185" t="s">
         <v>76</v>
       </c>
-      <c r="C98" s="158"/>
+      <c r="C98" s="185"/>
       <c r="D98" s="141" t="str">
         <f t="shared" ref="D98:Q98" si="13">IFERROR(D30/D97*1000, "")</f>
         <v/>
@@ -7353,10 +7353,10 @@
     </row>
     <row r="99" spans="1:35" ht="27.75" customHeight="1">
       <c r="A99" s="44"/>
-      <c r="B99" s="158" t="s">
+      <c r="B99" s="185" t="s">
         <v>77</v>
       </c>
-      <c r="C99" s="158"/>
+      <c r="C99" s="185"/>
       <c r="D99" s="142" t="str">
         <f t="shared" ref="D99:Q99" si="14">IFERROR(D29/D97*1000, "")</f>
         <v/>
@@ -7834,10 +7834,10 @@
     </row>
     <row r="106" spans="1:35" ht="34.25" customHeight="1">
       <c r="A106" s="44"/>
-      <c r="B106" s="158" t="s">
+      <c r="B106" s="185" t="s">
         <v>83</v>
       </c>
-      <c r="C106" s="158"/>
+      <c r="C106" s="185"/>
       <c r="D106" s="139" t="str">
         <f t="shared" ref="D106:Q106" si="19">IF(D33&lt;&gt;0,$D25-D25,"")</f>
         <v/>
@@ -7915,10 +7915,10 @@
     </row>
     <row r="107" spans="1:35" ht="34.25" customHeight="1">
       <c r="A107" s="44"/>
-      <c r="B107" s="158" t="s">
+      <c r="B107" s="185" t="s">
         <v>84</v>
       </c>
-      <c r="C107" s="158"/>
+      <c r="C107" s="185"/>
       <c r="D107" s="139" t="str">
         <f t="shared" ref="D107:Q107" si="20">IF(D33&lt;&gt;0,$D26-D26,"")</f>
         <v/>
@@ -7996,10 +7996,10 @@
     </row>
     <row r="108" spans="1:35" ht="34.25" customHeight="1">
       <c r="A108" s="44"/>
-      <c r="B108" s="158" t="s">
+      <c r="B108" s="185" t="s">
         <v>85</v>
       </c>
-      <c r="C108" s="158"/>
+      <c r="C108" s="185"/>
       <c r="D108" s="139" t="str">
         <f t="shared" ref="D108:Q108" si="21">IF(D33&lt;&gt;0,($D27+$D28)-(D27+D28),"")</f>
         <v/>
@@ -8077,10 +8077,10 @@
     </row>
     <row r="109" spans="1:35" ht="34.25" customHeight="1">
       <c r="A109" s="44"/>
-      <c r="B109" s="158" t="s">
+      <c r="B109" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="C109" s="158"/>
+      <c r="C109" s="185"/>
       <c r="D109" s="139" t="str">
         <f>IF(D33&lt;&gt;0,IF($J$13="Market-Based GHG Goal",D100*$D98/1000,D100*$D99/1000),"")</f>
         <v/>
@@ -8158,10 +8158,10 @@
     </row>
     <row r="110" spans="1:35" ht="34.25" customHeight="1">
       <c r="A110" s="44"/>
-      <c r="B110" s="158" t="s">
+      <c r="B110" s="185" t="s">
         <v>87</v>
       </c>
-      <c r="C110" s="158"/>
+      <c r="C110" s="185"/>
       <c r="D110" s="139" t="str">
         <f t="shared" ref="D110:Q110" si="23">IF(D33&lt;&gt;0,D101*$D99/1000,"")</f>
         <v/>
@@ -8239,10 +8239,10 @@
     </row>
     <row r="111" spans="1:35" ht="34.25" customHeight="1">
       <c r="A111" s="44"/>
-      <c r="B111" s="158" t="s">
+      <c r="B111" s="185" t="s">
         <v>88</v>
       </c>
-      <c r="C111" s="158"/>
+      <c r="C111" s="185"/>
       <c r="D111" s="139" t="str">
         <f>IF(D33&lt;&gt;0,IF($J$13="Market-Based GHG Goal",D102*$D99/1000,0),"")</f>
         <v/>
@@ -8320,10 +8320,10 @@
     </row>
     <row r="112" spans="1:35" ht="34.25" customHeight="1">
       <c r="A112" s="44"/>
-      <c r="B112" s="158" t="s">
+      <c r="B112" s="185" t="s">
         <v>89</v>
       </c>
-      <c r="C112" s="158"/>
+      <c r="C112" s="185"/>
       <c r="D112" s="139" t="str">
         <f t="shared" ref="D112:Q112" si="25">IF(D33&lt;&gt;0,D103-D110-D111,"")</f>
         <v/>
@@ -8513,24 +8513,24 @@
     </row>
     <row r="115" spans="1:35" ht="18" customHeight="1">
       <c r="A115" s="44"/>
-      <c r="B115" s="159" t="s">
+      <c r="B115" s="183" t="s">
         <v>91</v>
       </c>
-      <c r="C115" s="159"/>
-      <c r="D115" s="159"/>
-      <c r="E115" s="159"/>
-      <c r="F115" s="159"/>
-      <c r="G115" s="159"/>
-      <c r="H115" s="159"/>
-      <c r="I115" s="159"/>
-      <c r="J115" s="159"/>
-      <c r="K115" s="159"/>
-      <c r="L115" s="159"/>
-      <c r="M115" s="159"/>
-      <c r="N115" s="159"/>
-      <c r="O115" s="159"/>
-      <c r="P115" s="159"/>
-      <c r="Q115" s="159"/>
+      <c r="C115" s="183"/>
+      <c r="D115" s="183"/>
+      <c r="E115" s="183"/>
+      <c r="F115" s="183"/>
+      <c r="G115" s="183"/>
+      <c r="H115" s="183"/>
+      <c r="I115" s="183"/>
+      <c r="J115" s="183"/>
+      <c r="K115" s="183"/>
+      <c r="L115" s="183"/>
+      <c r="M115" s="183"/>
+      <c r="N115" s="183"/>
+      <c r="O115" s="183"/>
+      <c r="P115" s="183"/>
+      <c r="Q115" s="183"/>
       <c r="R115" s="44"/>
       <c r="V115" s="44"/>
       <c r="W115" s="44"/>
@@ -8583,24 +8583,52 @@
     </row>
     <row r="117" spans="1:35" ht="22.25" customHeight="1">
       <c r="A117" s="44"/>
-      <c r="B117" s="156" t="s">
+      <c r="B117" s="184" t="s">
         <v>92</v>
       </c>
-      <c r="C117" s="156"/>
-      <c r="D117" s="144"/>
-      <c r="E117" s="144"/>
-      <c r="F117" s="144"/>
-      <c r="G117" s="144"/>
-      <c r="H117" s="144"/>
-      <c r="I117" s="144"/>
-      <c r="J117" s="144"/>
-      <c r="K117" s="144"/>
-      <c r="L117" s="144"/>
-      <c r="M117" s="144"/>
-      <c r="N117" s="144"/>
-      <c r="O117" s="144"/>
-      <c r="P117" s="144"/>
-      <c r="Q117" s="144"/>
+      <c r="C117" s="184"/>
+      <c r="D117" s="144">
+        <v>109</v>
+      </c>
+      <c r="E117" s="144">
+        <v>109</v>
+      </c>
+      <c r="F117" s="144">
+        <v>109</v>
+      </c>
+      <c r="G117" s="144">
+        <v>109</v>
+      </c>
+      <c r="H117" s="144">
+        <v>109</v>
+      </c>
+      <c r="I117" s="144">
+        <v>109</v>
+      </c>
+      <c r="J117" s="144">
+        <v>109</v>
+      </c>
+      <c r="K117" s="144">
+        <v>109</v>
+      </c>
+      <c r="L117" s="144">
+        <v>109</v>
+      </c>
+      <c r="M117" s="144">
+        <v>109</v>
+      </c>
+      <c r="N117" s="144">
+        <v>109</v>
+      </c>
+      <c r="O117" s="144">
+        <v>109</v>
+      </c>
+      <c r="P117" s="144">
+        <v>109</v>
+      </c>
+      <c r="Q117" s="144">
+        <v>109</v>
+      </c>
       <c r="R117" s="44"/>
       <c r="V117" s="44"/>
       <c r="W117" s="44"/>
@@ -8619,10 +8647,10 @@
     </row>
     <row r="118" spans="1:35" ht="22.5" customHeight="1">
       <c r="A118" s="44"/>
-      <c r="B118" s="156" t="s">
+      <c r="B118" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="C118" s="156"/>
+      <c r="C118" s="184"/>
       <c r="D118" s="139">
         <f>D45*D117*3.412/1000</f>
         <v>0</v>
@@ -8697,10 +8725,10 @@
     </row>
     <row r="119" spans="1:35" ht="22.5" customHeight="1">
       <c r="A119" s="44"/>
-      <c r="B119" s="156" t="s">
+      <c r="B119" s="184" t="s">
         <v>94</v>
       </c>
-      <c r="C119" s="156"/>
+      <c r="C119" s="184"/>
       <c r="D119" s="139">
         <f>D49*D117*3.412/1000</f>
         <v>0</v>
@@ -8775,10 +8803,10 @@
     </row>
     <row r="120" spans="1:35" ht="22.5" customHeight="1">
       <c r="A120" s="44"/>
-      <c r="B120" s="156" t="s">
+      <c r="B120" s="184" t="s">
         <v>95</v>
       </c>
-      <c r="C120" s="156"/>
+      <c r="C120" s="184"/>
       <c r="D120" s="139">
         <f t="shared" ref="D120:Q120" si="29">D50*66.4/1000</f>
         <v>0</v>
@@ -8856,10 +8884,10 @@
     </row>
     <row r="121" spans="1:35" ht="22.5" customHeight="1">
       <c r="A121" s="44"/>
-      <c r="B121" s="156" t="s">
+      <c r="B121" s="184" t="s">
         <v>96</v>
       </c>
-      <c r="C121" s="156"/>
+      <c r="C121" s="184"/>
       <c r="D121" s="139">
         <f t="shared" ref="D121:Q121" si="30">D51*66.5/1000</f>
         <v>0</v>
@@ -8937,10 +8965,10 @@
     </row>
     <row r="122" spans="1:35" ht="22.5" customHeight="1">
       <c r="A122" s="44"/>
-      <c r="B122" s="156" t="s">
+      <c r="B122" s="184" t="s">
         <v>97</v>
       </c>
-      <c r="C122" s="156"/>
+      <c r="C122" s="184"/>
       <c r="D122" s="139">
         <f t="shared" ref="D122:Q122" si="31">D52*58.617/1000</f>
         <v>0</v>
@@ -9018,10 +9046,10 @@
     </row>
     <row r="123" spans="1:35" ht="22.5" customHeight="1">
       <c r="A123" s="44"/>
-      <c r="B123" s="157" t="s">
+      <c r="B123" s="188" t="s">
         <v>98</v>
       </c>
-      <c r="C123" s="157"/>
+      <c r="C123" s="188"/>
       <c r="D123" s="139">
         <f t="shared" ref="D123:Q123" si="32">D53*53.11/1000</f>
         <v>0</v>
@@ -9099,10 +9127,10 @@
     </row>
     <row r="124" spans="1:35" ht="22.5" customHeight="1">
       <c r="A124" s="44"/>
-      <c r="B124" s="154" t="s">
+      <c r="B124" s="186" t="s">
         <v>99</v>
       </c>
-      <c r="C124" s="154"/>
+      <c r="C124" s="186"/>
       <c r="D124" s="139">
         <f t="shared" ref="D124:Q124" si="33">D54*74.33/1000</f>
         <v>0</v>
@@ -9180,10 +9208,10 @@
     </row>
     <row r="125" spans="1:35" ht="22.5" customHeight="1">
       <c r="A125" s="44"/>
-      <c r="B125" s="154" t="s">
+      <c r="B125" s="186" t="s">
         <v>100</v>
       </c>
-      <c r="C125" s="154"/>
+      <c r="C125" s="186"/>
       <c r="D125" s="139">
         <f t="shared" ref="D125:Q125" si="34">D55*64.25/1000</f>
         <v>0</v>
@@ -9261,10 +9289,10 @@
     </row>
     <row r="126" spans="1:35" ht="22.5" customHeight="1">
       <c r="A126" s="44"/>
-      <c r="B126" s="154" t="s">
+      <c r="B126" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="C126" s="154"/>
+      <c r="C126" s="186"/>
       <c r="D126" s="139">
         <f t="shared" ref="D126:Q126" si="35">D56*114.42/1000</f>
         <v>0</v>
@@ -9342,10 +9370,10 @@
     </row>
     <row r="127" spans="1:35" ht="22.5" customHeight="1">
       <c r="A127" s="44"/>
-      <c r="B127" s="154" t="s">
+      <c r="B127" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="C127" s="154"/>
+      <c r="C127" s="186"/>
       <c r="D127" s="139">
         <f t="shared" ref="D127:Q127" si="36">D57*99.235/1000</f>
         <v>0</v>
@@ -9423,10 +9451,10 @@
     </row>
     <row r="128" spans="1:35" ht="32.25" customHeight="1">
       <c r="A128" s="44"/>
-      <c r="B128" s="154" t="s">
+      <c r="B128" s="186" t="s">
         <v>103</v>
       </c>
-      <c r="C128" s="154"/>
+      <c r="C128" s="186"/>
       <c r="D128" s="139">
         <f t="shared" ref="D128:Q128" si="37">D58*75.35/1000</f>
         <v>0</v>
@@ -9504,10 +9532,10 @@
     </row>
     <row r="129" spans="1:35" ht="22.5" customHeight="1">
       <c r="A129" s="44"/>
-      <c r="B129" s="155" t="s">
+      <c r="B129" s="187" t="s">
         <v>104</v>
       </c>
-      <c r="C129" s="155"/>
+      <c r="C129" s="187"/>
       <c r="D129" s="139">
         <f t="shared" ref="D129:Q129" si="38">D59*95.05/1000</f>
         <v>0</v>
@@ -9585,10 +9613,10 @@
     </row>
     <row r="130" spans="1:35" ht="22.5" customHeight="1">
       <c r="A130" s="44"/>
-      <c r="B130" s="155" t="s">
+      <c r="B130" s="187" t="s">
         <v>105</v>
       </c>
-      <c r="C130" s="155"/>
+      <c r="C130" s="187"/>
       <c r="D130" s="144"/>
       <c r="E130" s="144"/>
       <c r="F130" s="144"/>
@@ -9624,10 +9652,10 @@
     </row>
     <row r="131" spans="1:35" ht="22.5" customHeight="1">
       <c r="A131" s="44"/>
-      <c r="B131" s="155" t="s">
+      <c r="B131" s="187" t="s">
         <v>106</v>
       </c>
-      <c r="C131" s="155"/>
+      <c r="C131" s="187"/>
       <c r="D131" s="144"/>
       <c r="E131" s="144"/>
       <c r="F131" s="144"/>
@@ -9663,10 +9691,10 @@
     </row>
     <row r="132" spans="1:35" ht="22.5" customHeight="1">
       <c r="A132" s="44"/>
-      <c r="B132" s="155" t="s">
+      <c r="B132" s="187" t="s">
         <v>107</v>
       </c>
-      <c r="C132" s="155"/>
+      <c r="C132" s="187"/>
       <c r="D132" s="139">
         <f t="shared" ref="D132:Q132" si="39">D62*70.66/1000</f>
         <v>0</v>
@@ -9744,10 +9772,10 @@
     </row>
     <row r="133" spans="1:35" ht="22.5" customHeight="1">
       <c r="A133" s="44"/>
-      <c r="B133" s="155" t="s">
+      <c r="B133" s="187" t="s">
         <v>108</v>
       </c>
-      <c r="C133" s="155"/>
+      <c r="C133" s="187"/>
       <c r="D133" s="139">
         <f t="shared" ref="D133:Q133" si="40">D63*74.21/1000</f>
         <v>0</v>
@@ -9825,10 +9853,10 @@
     </row>
     <row r="134" spans="1:35" ht="22.5" customHeight="1">
       <c r="A134" s="44"/>
-      <c r="B134" s="155" t="s">
+      <c r="B134" s="187" t="s">
         <v>109</v>
       </c>
-      <c r="C134" s="155"/>
+      <c r="C134" s="187"/>
       <c r="D134" s="144"/>
       <c r="E134" s="144"/>
       <c r="F134" s="144"/>
@@ -9944,10 +9972,10 @@
     </row>
     <row r="136" spans="1:35" ht="22.5" customHeight="1">
       <c r="A136" s="44"/>
-      <c r="B136" s="155" t="s">
+      <c r="B136" s="187" t="s">
         <v>111</v>
       </c>
-      <c r="C136" s="155"/>
+      <c r="C136" s="187"/>
       <c r="D136" s="139">
         <f t="shared" ref="D136:Q136" si="42">D66*53.11/1000</f>
         <v>0</v>
@@ -28686,107 +28714,6 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="B6:Q6"/>
-    <mergeCell ref="B7:Q7"/>
-    <mergeCell ref="B8:Q8"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="B17:Q17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:Q22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B36:Q36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B41:Q41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B72:Q72"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="S75:T75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="S77:T77"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B85:Q85"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B93:Q93"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B115:Q115"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
     <mergeCell ref="B128:C128"/>
     <mergeCell ref="B129:C129"/>
     <mergeCell ref="B130:C130"/>
@@ -28804,8 +28731,109 @@
     <mergeCell ref="B125:C125"/>
     <mergeCell ref="B126:C126"/>
     <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B115:Q115"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B93:Q93"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="S77:T77"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B85:Q85"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B72:Q72"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="S75:T75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:Q36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:Q41"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="B17:Q17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:Q22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="B7:Q7"/>
+    <mergeCell ref="B8:Q8"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:M13"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation showInputMessage="1" sqref="B15:B21 C21:H21 C15:H18" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28902,21 +28930,21 @@
       <c r="T3" s="74"/>
     </row>
     <row r="4" spans="1:20" ht="77" customHeight="1">
-      <c r="B4" s="190" t="s">
+      <c r="B4" s="189" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="192"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="190"/>
+      <c r="I4" s="190"/>
+      <c r="J4" s="190"/>
+      <c r="K4" s="190"/>
+      <c r="L4" s="190"/>
+      <c r="M4" s="190"/>
+      <c r="N4" s="191"/>
       <c r="O4" s="75"/>
       <c r="Q4" s="75"/>
       <c r="R4" s="75"/>
@@ -28932,20 +28960,20 @@
       <c r="B6" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="193" t="s">
+      <c r="C6" s="192" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="193"/>
-      <c r="H6" s="193"/>
-      <c r="I6" s="193"/>
-      <c r="J6" s="193"/>
-      <c r="K6" s="193"/>
-      <c r="L6" s="193"/>
-      <c r="M6" s="193"/>
-      <c r="N6" s="193"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="192"/>
+      <c r="K6" s="192"/>
+      <c r="L6" s="192"/>
+      <c r="M6" s="192"/>
+      <c r="N6" s="192"/>
       <c r="O6" s="78"/>
       <c r="P6" s="78"/>
       <c r="Q6" s="78"/>
@@ -28954,18 +28982,18 @@
     </row>
     <row r="7" spans="1:20" ht="68.75" customHeight="1">
       <c r="B7" s="79"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="189"/>
-      <c r="K7" s="189"/>
-      <c r="L7" s="189"/>
-      <c r="M7" s="189"/>
-      <c r="N7" s="189"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="193"/>
+      <c r="K7" s="193"/>
+      <c r="L7" s="193"/>
+      <c r="M7" s="193"/>
+      <c r="N7" s="193"/>
       <c r="O7" s="80"/>
       <c r="P7" s="80"/>
       <c r="Q7" s="80"/>
@@ -28975,18 +29003,18 @@
     </row>
     <row r="8" spans="1:20" ht="51" customHeight="1">
       <c r="B8" s="79"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="189"/>
-      <c r="K8" s="189"/>
-      <c r="L8" s="189"/>
-      <c r="M8" s="189"/>
-      <c r="N8" s="189"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="193"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="193"/>
+      <c r="K8" s="193"/>
+      <c r="L8" s="193"/>
+      <c r="M8" s="193"/>
+      <c r="N8" s="193"/>
       <c r="O8" s="80"/>
       <c r="P8" s="80"/>
       <c r="Q8" s="80"/>
@@ -28996,18 +29024,18 @@
     </row>
     <row r="9" spans="1:20" ht="51" customHeight="1">
       <c r="B9" s="79"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
-      <c r="J9" s="189"/>
-      <c r="K9" s="189"/>
-      <c r="L9" s="189"/>
-      <c r="M9" s="189"/>
-      <c r="N9" s="189"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="193"/>
+      <c r="K9" s="193"/>
+      <c r="L9" s="193"/>
+      <c r="M9" s="193"/>
+      <c r="N9" s="193"/>
       <c r="O9" s="80"/>
       <c r="P9" s="80"/>
       <c r="Q9" s="80"/>
@@ -29017,18 +29045,18 @@
     </row>
     <row r="10" spans="1:20" ht="51" customHeight="1">
       <c r="B10" s="79"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="189"/>
-      <c r="G10" s="189"/>
-      <c r="H10" s="189"/>
-      <c r="I10" s="189"/>
-      <c r="J10" s="189"/>
-      <c r="K10" s="189"/>
-      <c r="L10" s="189"/>
-      <c r="M10" s="189"/>
-      <c r="N10" s="189"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="193"/>
+      <c r="J10" s="193"/>
+      <c r="K10" s="193"/>
+      <c r="L10" s="193"/>
+      <c r="M10" s="193"/>
+      <c r="N10" s="193"/>
       <c r="O10" s="80"/>
       <c r="P10" s="80"/>
       <c r="Q10" s="80"/>
@@ -29038,18 +29066,18 @@
     </row>
     <row r="11" spans="1:20" ht="51" customHeight="1">
       <c r="B11" s="79"/>
-      <c r="C11" s="189"/>
-      <c r="D11" s="189"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="189"/>
-      <c r="G11" s="189"/>
-      <c r="H11" s="189"/>
-      <c r="I11" s="189"/>
-      <c r="J11" s="189"/>
-      <c r="K11" s="189"/>
-      <c r="L11" s="189"/>
-      <c r="M11" s="189"/>
-      <c r="N11" s="189"/>
+      <c r="C11" s="193"/>
+      <c r="D11" s="193"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="193"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="193"/>
+      <c r="I11" s="193"/>
+      <c r="J11" s="193"/>
+      <c r="K11" s="193"/>
+      <c r="L11" s="193"/>
+      <c r="M11" s="193"/>
+      <c r="N11" s="193"/>
       <c r="O11" s="80"/>
       <c r="P11" s="80"/>
       <c r="Q11" s="80"/>
@@ -29059,18 +29087,18 @@
     </row>
     <row r="12" spans="1:20" ht="51" customHeight="1">
       <c r="B12" s="79"/>
-      <c r="C12" s="189"/>
-      <c r="D12" s="189"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="189"/>
-      <c r="J12" s="189"/>
-      <c r="K12" s="189"/>
-      <c r="L12" s="189"/>
-      <c r="M12" s="189"/>
-      <c r="N12" s="189"/>
+      <c r="C12" s="193"/>
+      <c r="D12" s="193"/>
+      <c r="E12" s="193"/>
+      <c r="F12" s="193"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="193"/>
+      <c r="J12" s="193"/>
+      <c r="K12" s="193"/>
+      <c r="L12" s="193"/>
+      <c r="M12" s="193"/>
+      <c r="N12" s="193"/>
       <c r="O12" s="80"/>
       <c r="P12" s="80"/>
       <c r="Q12" s="80"/>
@@ -29080,18 +29108,18 @@
     </row>
     <row r="13" spans="1:20" ht="51" customHeight="1">
       <c r="B13" s="79"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="189"/>
-      <c r="J13" s="189"/>
-      <c r="K13" s="189"/>
-      <c r="L13" s="189"/>
-      <c r="M13" s="189"/>
-      <c r="N13" s="189"/>
+      <c r="C13" s="193"/>
+      <c r="D13" s="193"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="193"/>
+      <c r="J13" s="193"/>
+      <c r="K13" s="193"/>
+      <c r="L13" s="193"/>
+      <c r="M13" s="193"/>
+      <c r="N13" s="193"/>
       <c r="O13" s="80"/>
       <c r="P13" s="80"/>
       <c r="Q13" s="80"/>
@@ -29101,18 +29129,18 @@
     </row>
     <row r="14" spans="1:20" ht="51" customHeight="1">
       <c r="B14" s="79"/>
-      <c r="C14" s="189"/>
-      <c r="D14" s="189"/>
-      <c r="E14" s="189"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="189"/>
-      <c r="J14" s="189"/>
-      <c r="K14" s="189"/>
-      <c r="L14" s="189"/>
-      <c r="M14" s="189"/>
-      <c r="N14" s="189"/>
+      <c r="C14" s="193"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="193"/>
+      <c r="K14" s="193"/>
+      <c r="L14" s="193"/>
+      <c r="M14" s="193"/>
+      <c r="N14" s="193"/>
       <c r="O14" s="80"/>
       <c r="P14" s="80"/>
       <c r="Q14" s="80"/>
@@ -29122,18 +29150,18 @@
     </row>
     <row r="15" spans="1:20" ht="51" customHeight="1">
       <c r="B15" s="79"/>
-      <c r="C15" s="189"/>
-      <c r="D15" s="189"/>
-      <c r="E15" s="189"/>
-      <c r="F15" s="189"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="189"/>
-      <c r="I15" s="189"/>
-      <c r="J15" s="189"/>
-      <c r="K15" s="189"/>
-      <c r="L15" s="189"/>
-      <c r="M15" s="189"/>
-      <c r="N15" s="189"/>
+      <c r="C15" s="193"/>
+      <c r="D15" s="193"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="193"/>
+      <c r="J15" s="193"/>
+      <c r="K15" s="193"/>
+      <c r="L15" s="193"/>
+      <c r="M15" s="193"/>
+      <c r="N15" s="193"/>
       <c r="O15" s="80"/>
       <c r="P15" s="80"/>
       <c r="Q15" s="80"/>
@@ -29143,18 +29171,18 @@
     </row>
     <row r="16" spans="1:20" ht="51" customHeight="1">
       <c r="B16" s="79"/>
-      <c r="C16" s="189"/>
-      <c r="D16" s="189"/>
-      <c r="E16" s="189"/>
-      <c r="F16" s="189"/>
-      <c r="G16" s="189"/>
-      <c r="H16" s="189"/>
-      <c r="I16" s="189"/>
-      <c r="J16" s="189"/>
-      <c r="K16" s="189"/>
-      <c r="L16" s="189"/>
-      <c r="M16" s="189"/>
-      <c r="N16" s="189"/>
+      <c r="C16" s="193"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="193"/>
+      <c r="J16" s="193"/>
+      <c r="K16" s="193"/>
+      <c r="L16" s="193"/>
+      <c r="M16" s="193"/>
+      <c r="N16" s="193"/>
       <c r="O16" s="80"/>
       <c r="P16" s="80"/>
       <c r="Q16" s="80"/>
@@ -29164,18 +29192,18 @@
     </row>
     <row r="17" spans="2:20" ht="51" customHeight="1">
       <c r="B17" s="79"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="189"/>
-      <c r="E17" s="189"/>
-      <c r="F17" s="189"/>
-      <c r="G17" s="189"/>
-      <c r="H17" s="189"/>
-      <c r="I17" s="189"/>
-      <c r="J17" s="189"/>
-      <c r="K17" s="189"/>
-      <c r="L17" s="189"/>
-      <c r="M17" s="189"/>
-      <c r="N17" s="189"/>
+      <c r="C17" s="193"/>
+      <c r="D17" s="193"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="193"/>
+      <c r="K17" s="193"/>
+      <c r="L17" s="193"/>
+      <c r="M17" s="193"/>
+      <c r="N17" s="193"/>
       <c r="O17" s="80"/>
       <c r="P17" s="80"/>
       <c r="Q17" s="80"/>
@@ -29345,11 +29373,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="C6:N6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="C8:N8"/>
-    <mergeCell ref="C9:N9"/>
     <mergeCell ref="C15:N15"/>
     <mergeCell ref="C16:N16"/>
     <mergeCell ref="C17:N17"/>
@@ -29358,6 +29381,11 @@
     <mergeCell ref="C12:N12"/>
     <mergeCell ref="C13:N13"/>
     <mergeCell ref="C14:N14"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="C6:N6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="C8:N8"/>
+    <mergeCell ref="C9:N9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" sqref="P8:S8" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
@@ -29440,15 +29468,15 @@
       <c r="N3" s="74"/>
     </row>
     <row r="4" spans="1:16" ht="50.75" customHeight="1">
-      <c r="B4" s="190" t="s">
+      <c r="B4" s="189" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="192"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="191"/>
       <c r="I4" s="75"/>
       <c r="J4" s="75"/>
       <c r="K4" s="75"/>
@@ -29832,21 +29860,21 @@
       <c r="T3" s="74"/>
     </row>
     <row r="4" spans="1:20" ht="39" customHeight="1">
-      <c r="B4" s="190" t="s">
+      <c r="B4" s="189" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="192"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="190"/>
+      <c r="I4" s="190"/>
+      <c r="J4" s="190"/>
+      <c r="K4" s="190"/>
+      <c r="L4" s="190"/>
+      <c r="M4" s="190"/>
+      <c r="N4" s="191"/>
       <c r="O4" s="75"/>
       <c r="P4" s="75"/>
       <c r="Q4" s="75"/>
@@ -29863,20 +29891,20 @@
       <c r="B6" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="193" t="s">
+      <c r="C6" s="192" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="193"/>
-      <c r="H6" s="193"/>
-      <c r="I6" s="193"/>
-      <c r="J6" s="193"/>
-      <c r="K6" s="193"/>
-      <c r="L6" s="193"/>
-      <c r="M6" s="193"/>
-      <c r="N6" s="193"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="192"/>
+      <c r="K6" s="192"/>
+      <c r="L6" s="192"/>
+      <c r="M6" s="192"/>
+      <c r="N6" s="192"/>
       <c r="O6" s="78"/>
       <c r="P6" s="78"/>
       <c r="Q6" s="78"/>
@@ -29885,18 +29913,18 @@
     </row>
     <row r="7" spans="1:20" ht="51" customHeight="1">
       <c r="B7" s="79"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="189"/>
-      <c r="K7" s="189"/>
-      <c r="L7" s="189"/>
-      <c r="M7" s="189"/>
-      <c r="N7" s="189"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="193"/>
+      <c r="K7" s="193"/>
+      <c r="L7" s="193"/>
+      <c r="M7" s="193"/>
+      <c r="N7" s="193"/>
       <c r="O7" s="80"/>
       <c r="P7" s="80"/>
       <c r="Q7" s="80"/>
@@ -29906,18 +29934,18 @@
     </row>
     <row r="8" spans="1:20" ht="51" customHeight="1">
       <c r="B8" s="152"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="189"/>
-      <c r="K8" s="189"/>
-      <c r="L8" s="189"/>
-      <c r="M8" s="189"/>
-      <c r="N8" s="189"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="193"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="193"/>
+      <c r="K8" s="193"/>
+      <c r="L8" s="193"/>
+      <c r="M8" s="193"/>
+      <c r="N8" s="193"/>
       <c r="O8" s="80"/>
       <c r="P8" s="80"/>
       <c r="Q8" s="80"/>
@@ -29927,18 +29955,18 @@
     </row>
     <row r="9" spans="1:20" ht="51" customHeight="1">
       <c r="B9" s="79"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
-      <c r="J9" s="189"/>
-      <c r="K9" s="189"/>
-      <c r="L9" s="189"/>
-      <c r="M9" s="189"/>
-      <c r="N9" s="189"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="193"/>
+      <c r="K9" s="193"/>
+      <c r="L9" s="193"/>
+      <c r="M9" s="193"/>
+      <c r="N9" s="193"/>
       <c r="O9" s="80"/>
       <c r="P9" s="80"/>
       <c r="Q9" s="80"/>
@@ -29948,18 +29976,18 @@
     </row>
     <row r="10" spans="1:20" ht="51" customHeight="1">
       <c r="B10" s="79"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="189"/>
-      <c r="G10" s="189"/>
-      <c r="H10" s="189"/>
-      <c r="I10" s="189"/>
-      <c r="J10" s="189"/>
-      <c r="K10" s="189"/>
-      <c r="L10" s="189"/>
-      <c r="M10" s="189"/>
-      <c r="N10" s="189"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="193"/>
+      <c r="J10" s="193"/>
+      <c r="K10" s="193"/>
+      <c r="L10" s="193"/>
+      <c r="M10" s="193"/>
+      <c r="N10" s="193"/>
       <c r="O10" s="80"/>
       <c r="P10" s="80"/>
       <c r="Q10" s="80"/>
@@ -29969,18 +29997,18 @@
     </row>
     <row r="11" spans="1:20" ht="51" customHeight="1">
       <c r="B11" s="79"/>
-      <c r="C11" s="189"/>
-      <c r="D11" s="189"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="189"/>
-      <c r="G11" s="189"/>
-      <c r="H11" s="189"/>
-      <c r="I11" s="189"/>
-      <c r="J11" s="189"/>
-      <c r="K11" s="189"/>
-      <c r="L11" s="189"/>
-      <c r="M11" s="189"/>
-      <c r="N11" s="189"/>
+      <c r="C11" s="193"/>
+      <c r="D11" s="193"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="193"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="193"/>
+      <c r="I11" s="193"/>
+      <c r="J11" s="193"/>
+      <c r="K11" s="193"/>
+      <c r="L11" s="193"/>
+      <c r="M11" s="193"/>
+      <c r="N11" s="193"/>
       <c r="O11" s="80"/>
       <c r="P11" s="80"/>
       <c r="Q11" s="80"/>
@@ -29990,18 +30018,18 @@
     </row>
     <row r="12" spans="1:20" ht="51" customHeight="1">
       <c r="B12" s="79"/>
-      <c r="C12" s="189"/>
-      <c r="D12" s="189"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="189"/>
-      <c r="J12" s="189"/>
-      <c r="K12" s="189"/>
-      <c r="L12" s="189"/>
-      <c r="M12" s="189"/>
-      <c r="N12" s="189"/>
+      <c r="C12" s="193"/>
+      <c r="D12" s="193"/>
+      <c r="E12" s="193"/>
+      <c r="F12" s="193"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="193"/>
+      <c r="J12" s="193"/>
+      <c r="K12" s="193"/>
+      <c r="L12" s="193"/>
+      <c r="M12" s="193"/>
+      <c r="N12" s="193"/>
       <c r="O12" s="80"/>
       <c r="P12" s="80"/>
       <c r="Q12" s="80"/>
@@ -30011,18 +30039,18 @@
     </row>
     <row r="13" spans="1:20" ht="51" customHeight="1">
       <c r="B13" s="79"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="189"/>
-      <c r="J13" s="189"/>
-      <c r="K13" s="189"/>
-      <c r="L13" s="189"/>
-      <c r="M13" s="189"/>
-      <c r="N13" s="189"/>
+      <c r="C13" s="193"/>
+      <c r="D13" s="193"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="193"/>
+      <c r="J13" s="193"/>
+      <c r="K13" s="193"/>
+      <c r="L13" s="193"/>
+      <c r="M13" s="193"/>
+      <c r="N13" s="193"/>
       <c r="O13" s="80"/>
       <c r="P13" s="80"/>
       <c r="Q13" s="80"/>
@@ -30032,18 +30060,18 @@
     </row>
     <row r="14" spans="1:20" ht="51" customHeight="1">
       <c r="B14" s="79"/>
-      <c r="C14" s="189"/>
-      <c r="D14" s="189"/>
-      <c r="E14" s="189"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="189"/>
-      <c r="J14" s="189"/>
-      <c r="K14" s="189"/>
-      <c r="L14" s="189"/>
-      <c r="M14" s="189"/>
-      <c r="N14" s="189"/>
+      <c r="C14" s="193"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="193"/>
+      <c r="K14" s="193"/>
+      <c r="L14" s="193"/>
+      <c r="M14" s="193"/>
+      <c r="N14" s="193"/>
       <c r="O14" s="80"/>
       <c r="P14" s="80"/>
       <c r="Q14" s="80"/>
@@ -30053,18 +30081,18 @@
     </row>
     <row r="15" spans="1:20" ht="51" customHeight="1">
       <c r="B15" s="79"/>
-      <c r="C15" s="189"/>
-      <c r="D15" s="189"/>
-      <c r="E15" s="189"/>
-      <c r="F15" s="189"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="189"/>
-      <c r="I15" s="189"/>
-      <c r="J15" s="189"/>
-      <c r="K15" s="189"/>
-      <c r="L15" s="189"/>
-      <c r="M15" s="189"/>
-      <c r="N15" s="189"/>
+      <c r="C15" s="193"/>
+      <c r="D15" s="193"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="193"/>
+      <c r="J15" s="193"/>
+      <c r="K15" s="193"/>
+      <c r="L15" s="193"/>
+      <c r="M15" s="193"/>
+      <c r="N15" s="193"/>
       <c r="O15" s="80"/>
       <c r="P15" s="80"/>
       <c r="Q15" s="80"/>
@@ -30074,18 +30102,18 @@
     </row>
     <row r="16" spans="1:20" ht="51" customHeight="1">
       <c r="B16" s="79"/>
-      <c r="C16" s="189"/>
-      <c r="D16" s="189"/>
-      <c r="E16" s="189"/>
-      <c r="F16" s="189"/>
-      <c r="G16" s="189"/>
-      <c r="H16" s="189"/>
-      <c r="I16" s="189"/>
-      <c r="J16" s="189"/>
-      <c r="K16" s="189"/>
-      <c r="L16" s="189"/>
-      <c r="M16" s="189"/>
-      <c r="N16" s="189"/>
+      <c r="C16" s="193"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="193"/>
+      <c r="J16" s="193"/>
+      <c r="K16" s="193"/>
+      <c r="L16" s="193"/>
+      <c r="M16" s="193"/>
+      <c r="N16" s="193"/>
       <c r="O16" s="80"/>
       <c r="P16" s="80"/>
       <c r="Q16" s="80"/>
@@ -30095,18 +30123,18 @@
     </row>
     <row r="17" spans="2:20" ht="51" customHeight="1">
       <c r="B17" s="79"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="189"/>
-      <c r="E17" s="189"/>
-      <c r="F17" s="189"/>
-      <c r="G17" s="189"/>
-      <c r="H17" s="189"/>
-      <c r="I17" s="189"/>
-      <c r="J17" s="189"/>
-      <c r="K17" s="189"/>
-      <c r="L17" s="189"/>
-      <c r="M17" s="189"/>
-      <c r="N17" s="189"/>
+      <c r="C17" s="193"/>
+      <c r="D17" s="193"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="193"/>
+      <c r="K17" s="193"/>
+      <c r="L17" s="193"/>
+      <c r="M17" s="193"/>
+      <c r="N17" s="193"/>
       <c r="O17" s="80"/>
       <c r="P17" s="80"/>
       <c r="Q17" s="80"/>
@@ -30276,11 +30304,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="C6:N6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="C8:N8"/>
     <mergeCell ref="C14:N14"/>
     <mergeCell ref="C15:N15"/>
     <mergeCell ref="C16:N16"/>
@@ -30290,6 +30313,11 @@
     <mergeCell ref="C11:N11"/>
     <mergeCell ref="C12:N12"/>
     <mergeCell ref="C13:N13"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="C6:N6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="C8:N8"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" sqref="P8:S8" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
